--- a/genome_annotation_and_characterization/conserved_motifs.xlsx
+++ b/genome_annotation_and_characterization/conserved_motifs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BA91CC-6B9E-1F4A-82F0-3A88D9563DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75624C8-DB91-9846-A44E-DF971232FB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="13500" windowHeight="17260" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="20460" windowHeight="17300" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="397">
   <si>
     <t>mischivirus</t>
   </si>
@@ -1086,6 +1086,147 @@
   </si>
   <si>
     <t>G(1950)WS</t>
+  </si>
+  <si>
+    <t>MN784123</t>
+  </si>
+  <si>
+    <t>mandrill</t>
+  </si>
+  <si>
+    <t>JN867757</t>
+  </si>
+  <si>
+    <t>HF677705</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
+    <t>OM105025</t>
+  </si>
+  <si>
+    <t>NC_033776</t>
+  </si>
+  <si>
+    <t>G(1226)KPGAGKS</t>
+  </si>
+  <si>
+    <t>G(1550)RPGAGKS</t>
+  </si>
+  <si>
+    <t>G(1706)MCG</t>
+  </si>
+  <si>
+    <t>K(1918)DEIR</t>
+  </si>
+  <si>
+    <t>G(2018)MCG</t>
+  </si>
+  <si>
+    <t>Y(2090)GDD</t>
+  </si>
+  <si>
+    <t>F(2137)LKR</t>
+  </si>
+  <si>
+    <t>K(2230)DEIR</t>
+  </si>
+  <si>
+    <t>Y(2402)GDD</t>
+  </si>
+  <si>
+    <t>F(2449)LKR</t>
+  </si>
+  <si>
+    <t>S(1474)EPGQGKS</t>
+  </si>
+  <si>
+    <t>G(1972)MCG</t>
+  </si>
+  <si>
+    <t>K(2181)DELR</t>
+  </si>
+  <si>
+    <t>Y(2347)GDD</t>
+  </si>
+  <si>
+    <t>F(2395)LKR</t>
+  </si>
+  <si>
+    <t>JX437642*</t>
+  </si>
+  <si>
+    <t>A(280)GPGPVKS</t>
+  </si>
+  <si>
+    <t>G(335)AFG</t>
+  </si>
+  <si>
+    <t>G(462)PPGIGKT</t>
+  </si>
+  <si>
+    <t>G(478)IPGIGKT</t>
+  </si>
+  <si>
+    <t>K(934)GKNK</t>
+  </si>
+  <si>
+    <t>K(945)GKTK</t>
+  </si>
+  <si>
+    <t>D(951)DEYDE</t>
+  </si>
+  <si>
+    <t>D(960)DEYEE</t>
+  </si>
+  <si>
+    <t>G(1159)DCG</t>
+  </si>
+  <si>
+    <t>G(1168)DCG</t>
+  </si>
+  <si>
+    <t>W(1203)KGL</t>
+  </si>
+  <si>
+    <t>W(1213)KGL</t>
+  </si>
+  <si>
+    <t>K(1263)DELR</t>
+  </si>
+  <si>
+    <t>K(1375)DELR</t>
+  </si>
+  <si>
+    <t>D(1438)YSKWDST</t>
+  </si>
+  <si>
+    <t>D(1450)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1493)LPSG</t>
+  </si>
+  <si>
+    <t>G(1505)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1541)GDD</t>
+  </si>
+  <si>
+    <t>Y(1553)GDD</t>
+  </si>
+  <si>
+    <t>P(1836)PG</t>
+  </si>
+  <si>
+    <t>P(1849)PG</t>
+  </si>
+  <si>
+    <t>G(1980)WS</t>
+  </si>
+  <si>
+    <t>G(1995)WS</t>
   </si>
 </sst>
 </file>
@@ -1452,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31531B08-202E-D840-BAC2-584C47BCD981}">
-  <dimension ref="A2:M78"/>
+  <dimension ref="A2:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,9 +1604,9 @@
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -1575,290 +1716,287 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="s">
-        <v>96</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
         <v>87</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>89</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>92</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>369</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>370</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1866,132 +2004,132 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" t="s">
-        <v>144</v>
-      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1999,25 +2137,25 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2025,25 +2163,25 @@
         <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2051,218 +2189,218 @@
         <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" t="s">
-        <v>168</v>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H38" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -2282,756 +2420,696 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H41" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
         <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" t="s">
-        <v>207</v>
-      </c>
-      <c r="F46" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" t="s">
-        <v>197</v>
-      </c>
+      <c r="B46" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>198</v>
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>205</v>
+      </c>
+      <c r="E48" t="s">
+        <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>34</v>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H49" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>52</v>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="H50" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>53</v>
+      <c r="B51" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C55" t="s">
+        <v>373</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C59" t="s">
         <v>231</v>
       </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" t="s">
         <v>232</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F59" t="s">
         <v>233</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G59" t="s">
         <v>234</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H59" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C56" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" t="s">
-        <v>244</v>
-      </c>
-      <c r="F56" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" t="s">
-        <v>246</v>
-      </c>
-      <c r="H56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" t="s">
-        <v>247</v>
-      </c>
-      <c r="D57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" t="s">
-        <v>248</v>
-      </c>
-      <c r="F57" t="s">
-        <v>249</v>
-      </c>
-      <c r="G57" t="s">
-        <v>250</v>
-      </c>
-      <c r="H57" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>239</v>
+      <c r="B61" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" t="s">
-        <v>255</v>
-      </c>
-      <c r="F62" t="s">
-        <v>256</v>
-      </c>
-      <c r="G62" t="s">
-        <v>257</v>
-      </c>
-      <c r="H62" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" t="s">
-        <v>260</v>
-      </c>
-      <c r="F63" t="s">
-        <v>261</v>
-      </c>
-      <c r="G63" t="s">
-        <v>111</v>
-      </c>
-      <c r="H63" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>56</v>
+      <c r="B65" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
         <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F66" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G66" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="H66" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="G67" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="H67" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B68" s="2"/>
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>270</v>
+      </c>
+      <c r="H69" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
-      </c>
-      <c r="I70" t="s">
-        <v>287</v>
-      </c>
-      <c r="J70" t="s">
-        <v>42</v>
-      </c>
-      <c r="K70" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70" t="s">
-        <v>298</v>
-      </c>
-      <c r="M70" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>20</v>
+      <c r="B71" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F71" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H71" t="s">
-        <v>286</v>
-      </c>
-      <c r="I71" t="s">
-        <v>288</v>
-      </c>
-      <c r="J71" t="s">
-        <v>289</v>
-      </c>
-      <c r="K71" t="s">
-        <v>290</v>
-      </c>
-      <c r="L71" t="s">
-        <v>291</v>
-      </c>
-      <c r="M71" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" t="s">
-        <v>293</v>
-      </c>
-      <c r="D72" t="s">
-        <v>294</v>
-      </c>
-      <c r="E72" t="s">
-        <v>295</v>
-      </c>
-      <c r="F72" t="s">
-        <v>296</v>
-      </c>
-      <c r="G72" t="s">
-        <v>297</v>
-      </c>
-      <c r="H72" t="s">
-        <v>81</v>
-      </c>
-      <c r="I72" t="s">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s">
-        <v>81</v>
-      </c>
-      <c r="K72" t="s">
-        <v>81</v>
-      </c>
-      <c r="L72" t="s">
-        <v>81</v>
-      </c>
-      <c r="M72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" t="s">
-        <v>81</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s">
-        <v>81</v>
-      </c>
-      <c r="I73" t="s">
-        <v>81</v>
-      </c>
-      <c r="J73" t="s">
-        <v>81</v>
-      </c>
-      <c r="K73" t="s">
-        <v>81</v>
-      </c>
-      <c r="L73" t="s">
-        <v>300</v>
-      </c>
-      <c r="M73" t="s">
-        <v>301</v>
-      </c>
+      <c r="B72" s="2"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>242</v>
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="J74" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="K74" t="s">
-        <v>317</v>
+        <v>23</v>
       </c>
       <c r="L74" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="M74" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -3039,163 +3117,409 @@
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="F75" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="G75" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="H75" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="I75" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="J75" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="K75" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="L75" t="s">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="M75" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
+      <c r="B76" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="D76" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F76" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="H76" t="s">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="L76" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="M76" t="s">
-        <v>327</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>37</v>
+      <c r="B77" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="I77" t="s">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="L77" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="M77" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" t="s">
+        <v>303</v>
+      </c>
+      <c r="F78" t="s">
+        <v>304</v>
+      </c>
+      <c r="G78" t="s">
+        <v>305</v>
+      </c>
+      <c r="H78" t="s">
+        <v>306</v>
+      </c>
+      <c r="I78" t="s">
+        <v>307</v>
+      </c>
+      <c r="J78" t="s">
+        <v>308</v>
+      </c>
+      <c r="K78" t="s">
+        <v>317</v>
+      </c>
+      <c r="L78" t="s">
+        <v>81</v>
+      </c>
+      <c r="M78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79" t="s">
+        <v>310</v>
+      </c>
+      <c r="F79" t="s">
+        <v>311</v>
+      </c>
+      <c r="G79" t="s">
+        <v>312</v>
+      </c>
+      <c r="H79" t="s">
+        <v>313</v>
+      </c>
+      <c r="I79" t="s">
+        <v>314</v>
+      </c>
+      <c r="J79" t="s">
+        <v>315</v>
+      </c>
+      <c r="K79" t="s">
+        <v>316</v>
+      </c>
+      <c r="L79" t="s">
+        <v>81</v>
+      </c>
+      <c r="M79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" t="s">
+        <v>309</v>
+      </c>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>321</v>
+      </c>
+      <c r="H80" t="s">
+        <v>322</v>
+      </c>
+      <c r="I80" t="s">
+        <v>323</v>
+      </c>
+      <c r="J80" t="s">
+        <v>324</v>
+      </c>
+      <c r="K80" t="s">
+        <v>325</v>
+      </c>
+      <c r="L80" t="s">
+        <v>326</v>
+      </c>
+      <c r="M80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>328</v>
+      </c>
+      <c r="D81" t="s">
+        <v>329</v>
+      </c>
+      <c r="E81" t="s">
+        <v>330</v>
+      </c>
+      <c r="F81" t="s">
+        <v>331</v>
+      </c>
+      <c r="G81" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" t="s">
+        <v>333</v>
+      </c>
+      <c r="I81" t="s">
+        <v>334</v>
+      </c>
+      <c r="J81" t="s">
+        <v>335</v>
+      </c>
+      <c r="K81" t="s">
+        <v>336</v>
+      </c>
+      <c r="L81" t="s">
+        <v>337</v>
+      </c>
+      <c r="M81" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C82" t="s">
         <v>339</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D82" t="s">
         <v>340</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E82" t="s">
         <v>341</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F82" t="s">
         <v>342</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G82" t="s">
         <v>343</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H82" t="s">
         <v>344</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I82" t="s">
         <v>345</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J82" t="s">
         <v>346</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K82" t="s">
         <v>347</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L82" t="s">
         <v>348</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M82" t="s">
         <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>354</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" t="s">
+        <v>377</v>
+      </c>
+      <c r="E83" t="s">
+        <v>379</v>
+      </c>
+      <c r="F83" t="s">
+        <v>381</v>
+      </c>
+      <c r="G83" t="s">
+        <v>383</v>
+      </c>
+      <c r="H83" t="s">
+        <v>385</v>
+      </c>
+      <c r="I83" t="s">
+        <v>387</v>
+      </c>
+      <c r="J83" t="s">
+        <v>389</v>
+      </c>
+      <c r="K83" t="s">
+        <v>391</v>
+      </c>
+      <c r="L83" t="s">
+        <v>393</v>
+      </c>
+      <c r="M83" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C84" t="s">
+        <v>376</v>
+      </c>
+      <c r="D84" t="s">
+        <v>378</v>
+      </c>
+      <c r="E84" t="s">
+        <v>380</v>
+      </c>
+      <c r="F84" t="s">
+        <v>382</v>
+      </c>
+      <c r="G84" t="s">
+        <v>384</v>
+      </c>
+      <c r="H84" t="s">
+        <v>386</v>
+      </c>
+      <c r="I84" t="s">
+        <v>388</v>
+      </c>
+      <c r="J84" t="s">
+        <v>390</v>
+      </c>
+      <c r="K84" t="s">
+        <v>392</v>
+      </c>
+      <c r="L84" t="s">
+        <v>394</v>
+      </c>
+      <c r="M84" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/genome_annotation_and_characterization/conserved_motifs.xlsx
+++ b/genome_annotation_and_characterization/conserved_motifs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/genome_annotation_and_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75624C8-DB91-9846-A44E-DF971232FB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374081B0-B9C5-2342-99E8-4A268A0CB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="20460" windowHeight="17300" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
+    <workbookView xWindow="29400" yWindow="-1980" windowWidth="14900" windowHeight="19860" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="694">
   <si>
     <t>mischivirus</t>
   </si>
@@ -83,27 +83,15 @@
     <t>bat picornavirus</t>
   </si>
   <si>
-    <t>OQ818325</t>
-  </si>
-  <si>
     <t>OQ818328</t>
   </si>
   <si>
-    <t>felisavirus</t>
-  </si>
-  <si>
     <t>hepatovirus</t>
   </si>
   <si>
     <t>sapovirus</t>
   </si>
   <si>
-    <t>OQ818319</t>
-  </si>
-  <si>
-    <t>helicase GxxGxGKS</t>
-  </si>
-  <si>
     <t>rdrp KDELR</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t>NC_015934.1</t>
   </si>
   <si>
-    <t>KX644943.1</t>
-  </si>
-  <si>
     <t>NC_028366.1</t>
   </si>
   <si>
@@ -260,9 +245,6 @@
     <t>K(1941)DEIR</t>
   </si>
   <si>
-    <t>G(2085)YCG, G(2108)ACG</t>
-  </si>
-  <si>
     <t>Y(2133)GDD</t>
   </si>
   <si>
@@ -311,9 +293,6 @@
     <t>K(2117)DELR</t>
   </si>
   <si>
-    <t>Y(2174)GDD</t>
-  </si>
-  <si>
     <t>Y(2219)GDD</t>
   </si>
   <si>
@@ -326,9 +305,6 @@
     <t>F(2331)LKR</t>
   </si>
   <si>
-    <t>F(2295)AYR</t>
-  </si>
-  <si>
     <t>G(1268)APGQGKS</t>
   </si>
   <si>
@@ -422,9 +398,6 @@
     <t>F(2226)LKR</t>
   </si>
   <si>
-    <t>G(1744)YCG,A(1759)ICG</t>
-  </si>
-  <si>
     <t>K(1952)DELR</t>
   </si>
   <si>
@@ -731,30 +704,6 @@
     <t>G(1971)QCG</t>
   </si>
   <si>
-    <t>G(773)EPGCGKT</t>
-  </si>
-  <si>
-    <t>G(1297)DCG</t>
-  </si>
-  <si>
-    <t>K(1538)DERL</t>
-  </si>
-  <si>
-    <t>Y(1717)GDD</t>
-  </si>
-  <si>
-    <t>F(1767)KLR</t>
-  </si>
-  <si>
-    <t>G(150)EPGCGKT</t>
-  </si>
-  <si>
-    <t>OQ818335*</t>
-  </si>
-  <si>
-    <t>OQ818341*</t>
-  </si>
-  <si>
     <t>OQ818337*</t>
   </si>
   <si>
@@ -770,30 +719,6 @@
     <t>OQ818348*</t>
   </si>
   <si>
-    <t>G(674)DCG</t>
-  </si>
-  <si>
-    <t>K(915)DERL</t>
-  </si>
-  <si>
-    <t>Y(1094)GDD</t>
-  </si>
-  <si>
-    <t>G(768)EPGCGKT</t>
-  </si>
-  <si>
-    <t>G(1292)DCG</t>
-  </si>
-  <si>
-    <t>K(1533)DERL</t>
-  </si>
-  <si>
-    <t>Y(1712)GDD</t>
-  </si>
-  <si>
-    <t>F(1762)KLR</t>
-  </si>
-  <si>
     <t>G(1459)NRGGGKS</t>
   </si>
   <si>
@@ -812,9 +737,6 @@
     <t>Y(2271)GDD</t>
   </si>
   <si>
-    <t>K(2324)LKR</t>
-  </si>
-  <si>
     <t>G(1429)ERGGGKS</t>
   </si>
   <si>
@@ -824,9 +746,6 @@
     <t>K(2101)DELR</t>
   </si>
   <si>
-    <t>K(2329)LKR</t>
-  </si>
-  <si>
     <t>G(1441)NRGGGKS</t>
   </si>
   <si>
@@ -839,9 +758,6 @@
     <t>Y(2299)GDD</t>
   </si>
   <si>
-    <t>K(2352)LKR</t>
-  </si>
-  <si>
     <t>G(1325)KRGGGKS</t>
   </si>
   <si>
@@ -851,9 +767,6 @@
     <t>Y(2184)GDD</t>
   </si>
   <si>
-    <t>K(2237)LKR</t>
-  </si>
-  <si>
     <t>G(1458)KRGGGKS</t>
   </si>
   <si>
@@ -866,9 +779,6 @@
     <t>Y(2309)GDD</t>
   </si>
   <si>
-    <t>K(2362)LKR</t>
-  </si>
-  <si>
     <t>G(1434)RRGGGKS</t>
   </si>
   <si>
@@ -878,9 +788,6 @@
     <t>Y(2293)GDD</t>
   </si>
   <si>
-    <t>K(2346)LKR</t>
-  </si>
-  <si>
     <t>G(140)PPGIGKT</t>
   </si>
   <si>
@@ -1154,15 +1061,6 @@
     <t>F(2395)LKR</t>
   </si>
   <si>
-    <t>JX437642*</t>
-  </si>
-  <si>
-    <t>A(280)GPGPVKS</t>
-  </si>
-  <si>
-    <t>G(335)AFG</t>
-  </si>
-  <si>
     <t>G(462)PPGIGKT</t>
   </si>
   <si>
@@ -1227,6 +1125,999 @@
   </si>
   <si>
     <t>G(1995)WS</t>
+  </si>
+  <si>
+    <t>OQ818319*</t>
+  </si>
+  <si>
+    <t>PP766459</t>
+  </si>
+  <si>
+    <t>G(469)PPGIGKT</t>
+  </si>
+  <si>
+    <t>PP766460*</t>
+  </si>
+  <si>
+    <t>PP766461*</t>
+  </si>
+  <si>
+    <t>PP766468*</t>
+  </si>
+  <si>
+    <t>PP766470*</t>
+  </si>
+  <si>
+    <t>PP766473*</t>
+  </si>
+  <si>
+    <t>PP766474*</t>
+  </si>
+  <si>
+    <t>PP766476*</t>
+  </si>
+  <si>
+    <t>PP766477*</t>
+  </si>
+  <si>
+    <t>PP766462*</t>
+  </si>
+  <si>
+    <t>PP766463*</t>
+  </si>
+  <si>
+    <t>PP766464*</t>
+  </si>
+  <si>
+    <t>PP766465*</t>
+  </si>
+  <si>
+    <t>PP766466*</t>
+  </si>
+  <si>
+    <t>PP766456</t>
+  </si>
+  <si>
+    <t>PP766449*</t>
+  </si>
+  <si>
+    <t>PP766450*</t>
+  </si>
+  <si>
+    <t>PP766451*</t>
+  </si>
+  <si>
+    <t>PP766452*</t>
+  </si>
+  <si>
+    <t>PP766453*</t>
+  </si>
+  <si>
+    <t>PP766454*</t>
+  </si>
+  <si>
+    <t>PP766469</t>
+  </si>
+  <si>
+    <t>PP766471*</t>
+  </si>
+  <si>
+    <t>PP766472*</t>
+  </si>
+  <si>
+    <t>PP766475*</t>
+  </si>
+  <si>
+    <t>PP766455*</t>
+  </si>
+  <si>
+    <t>PP766457*</t>
+  </si>
+  <si>
+    <t>PP766458*</t>
+  </si>
+  <si>
+    <t>cardiovirus</t>
+  </si>
+  <si>
+    <t>PP766467*</t>
+  </si>
+  <si>
+    <t>2C helicase GxxGxGKS</t>
+  </si>
+  <si>
+    <t>G(510)FCG</t>
+  </si>
+  <si>
+    <t>G(43)SPGTGK</t>
+  </si>
+  <si>
+    <t>G(4)FCG</t>
+  </si>
+  <si>
+    <t>G(320)SPGTGK</t>
+  </si>
+  <si>
+    <t>G(1681)PPGTGKS</t>
+  </si>
+  <si>
+    <t>G(2145)LCG</t>
+  </si>
+  <si>
+    <t>K(2354)DELR</t>
+  </si>
+  <si>
+    <t>Y(2522)GDD</t>
+  </si>
+  <si>
+    <t>F(2571)LKR</t>
+  </si>
+  <si>
+    <t>G(908)PPGTGKS</t>
+  </si>
+  <si>
+    <t>G(306)LCG</t>
+  </si>
+  <si>
+    <t>K(515)DELR</t>
+  </si>
+  <si>
+    <t>OQ818325*</t>
+  </si>
+  <si>
+    <t>G(1208)VCG</t>
+  </si>
+  <si>
+    <t>G(1492)SPGSGKS</t>
+  </si>
+  <si>
+    <t>G(1960)QCG</t>
+  </si>
+  <si>
+    <t>K(2157)DELR</t>
+  </si>
+  <si>
+    <t>Y(2326)GDD</t>
+  </si>
+  <si>
+    <t>F(2373)LKR</t>
+  </si>
+  <si>
+    <t>G(405)VCG</t>
+  </si>
+  <si>
+    <t>G(689)QPGSGKS</t>
+  </si>
+  <si>
+    <t>G(329)QCG</t>
+  </si>
+  <si>
+    <t>G(1426)NRGGGKS</t>
+  </si>
+  <si>
+    <t>G(1891)MCG</t>
+  </si>
+  <si>
+    <t>K(2109)DELR</t>
+  </si>
+  <si>
+    <t>Y(2285)GDD</t>
+  </si>
+  <si>
+    <t>K(2142)DELR</t>
+  </si>
+  <si>
+    <t>Y(2318)GDD</t>
+  </si>
+  <si>
+    <t>K(216)DELR</t>
+  </si>
+  <si>
+    <t>Y(392)GDD</t>
+  </si>
+  <si>
+    <t>K(938)GKTK</t>
+  </si>
+  <si>
+    <t>D(953)DEYEE</t>
+  </si>
+  <si>
+    <t>G(1161)DCG</t>
+  </si>
+  <si>
+    <t>W(1206)KGL</t>
+  </si>
+  <si>
+    <t>K(1368)DELR</t>
+  </si>
+  <si>
+    <t>D(1443)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1498)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1546)GDD</t>
+  </si>
+  <si>
+    <t>P(1839)PG</t>
+  </si>
+  <si>
+    <t>G(1985)WS</t>
+  </si>
+  <si>
+    <t>G(39)LPSG</t>
+  </si>
+  <si>
+    <t>Y(87)GDD</t>
+  </si>
+  <si>
+    <t>P(379)PG</t>
+  </si>
+  <si>
+    <t>G(525)WS</t>
+  </si>
+  <si>
+    <t>G(28)PPGIGKT</t>
+  </si>
+  <si>
+    <t>K(121)GKTK</t>
+  </si>
+  <si>
+    <t>D(137)DEYEE</t>
+  </si>
+  <si>
+    <t>G(345)DCG</t>
+  </si>
+  <si>
+    <t>W(390)KGL</t>
+  </si>
+  <si>
+    <t>K(552)DELR</t>
+  </si>
+  <si>
+    <t>D(627)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(682)LPSG</t>
+  </si>
+  <si>
+    <t>Y(730)GDD</t>
+  </si>
+  <si>
+    <t>K(16)GKTK</t>
+  </si>
+  <si>
+    <t>D(32)DEYEE</t>
+  </si>
+  <si>
+    <t>G(240)DCG</t>
+  </si>
+  <si>
+    <t>W(285)KGL</t>
+  </si>
+  <si>
+    <t>K(447)DELR</t>
+  </si>
+  <si>
+    <t>D(522)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(577)LPSG</t>
+  </si>
+  <si>
+    <t>Y(625)GD-</t>
+  </si>
+  <si>
+    <t>G(103)PPGIGKT</t>
+  </si>
+  <si>
+    <t>P(42)PG</t>
+  </si>
+  <si>
+    <t>G(188)WS</t>
+  </si>
+  <si>
+    <t>NC_001366</t>
+  </si>
+  <si>
+    <t>NC_001479</t>
+  </si>
+  <si>
+    <t>NC_009448</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>simian</t>
+  </si>
+  <si>
+    <t>G(180)DAGQGKS</t>
+  </si>
+  <si>
+    <t>G(651)WCG</t>
+  </si>
+  <si>
+    <t>K(858)DELR</t>
+  </si>
+  <si>
+    <t>Y(1030)GDD</t>
+  </si>
+  <si>
+    <t>F(1078)LKR</t>
+  </si>
+  <si>
+    <t>G(1667)AAGQGKS</t>
+  </si>
+  <si>
+    <t>G(2146)WCG</t>
+  </si>
+  <si>
+    <t>K(2356)DEIR</t>
+  </si>
+  <si>
+    <t>Y(2528)GDD</t>
+  </si>
+  <si>
+    <t>F(2576)LKR</t>
+  </si>
+  <si>
+    <t>G(1590)DAGQGKS</t>
+  </si>
+  <si>
+    <t>G(2061)WCG</t>
+  </si>
+  <si>
+    <t>K(2268)DELR</t>
+  </si>
+  <si>
+    <t>Y(2440)GDD</t>
+  </si>
+  <si>
+    <t>F(2488)LKR</t>
+  </si>
+  <si>
+    <t>G(1654)NAGQGKS</t>
+  </si>
+  <si>
+    <t>G(2130)WCG</t>
+  </si>
+  <si>
+    <t>K(2340)DEIR</t>
+  </si>
+  <si>
+    <t>Y(2512)GDD</t>
+  </si>
+  <si>
+    <t>F(2560)LKR</t>
+  </si>
+  <si>
+    <t>OR951324</t>
+  </si>
+  <si>
+    <t>OR951326</t>
+  </si>
+  <si>
+    <t>OR951333</t>
+  </si>
+  <si>
+    <t>OR951334</t>
+  </si>
+  <si>
+    <t>G(1211)APGQGKS</t>
+  </si>
+  <si>
+    <t>G(1702)YCG, K(1717)ICG</t>
+  </si>
+  <si>
+    <t>G(1744)YCG, A(1759)ICG</t>
+  </si>
+  <si>
+    <t>K(1911)DELR</t>
+  </si>
+  <si>
+    <t>Y(2076)GDD</t>
+  </si>
+  <si>
+    <t>F(2123)LKR</t>
+  </si>
+  <si>
+    <t>G(1213)KPGQGKS</t>
+  </si>
+  <si>
+    <t>Y(2077)GDD</t>
+  </si>
+  <si>
+    <t>F(2124)LKR</t>
+  </si>
+  <si>
+    <t>G(1203)KPGQGKS</t>
+  </si>
+  <si>
+    <t>G(1692)YCG, K(1707)ICG</t>
+  </si>
+  <si>
+    <t>K(1901)DELR</t>
+  </si>
+  <si>
+    <t>Y(2067)GDD</t>
+  </si>
+  <si>
+    <t>F(2114)LKR</t>
+  </si>
+  <si>
+    <t>OR951327</t>
+  </si>
+  <si>
+    <t>OR951332</t>
+  </si>
+  <si>
+    <t>G(1176)YCG</t>
+  </si>
+  <si>
+    <t>G(1496)TPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1967)QCG</t>
+  </si>
+  <si>
+    <t>K(2162)DELR</t>
+  </si>
+  <si>
+    <t>Y(2331)GDD</t>
+  </si>
+  <si>
+    <t>F(2379)LKR</t>
+  </si>
+  <si>
+    <t>G(1162)YCG</t>
+  </si>
+  <si>
+    <t>G(1482)TPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1953)QCG</t>
+  </si>
+  <si>
+    <t>K(2148)DELR</t>
+  </si>
+  <si>
+    <t>Y(2317)GDD</t>
+  </si>
+  <si>
+    <t>F(2365)LKR</t>
+  </si>
+  <si>
+    <t>G(1158)YCG</t>
+  </si>
+  <si>
+    <t>G(1478)TPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1949)QCG</t>
+  </si>
+  <si>
+    <t>K(2144)DELR</t>
+  </si>
+  <si>
+    <t>Y(2313)GDD</t>
+  </si>
+  <si>
+    <t>F(2361)LKR</t>
+  </si>
+  <si>
+    <t>KJ641686</t>
+  </si>
+  <si>
+    <t>OR951364</t>
+  </si>
+  <si>
+    <t>OR951365</t>
+  </si>
+  <si>
+    <t>W(1467)PPGSGKS</t>
+  </si>
+  <si>
+    <t>G(1914)LCG</t>
+  </si>
+  <si>
+    <t>K(2120)DELR</t>
+  </si>
+  <si>
+    <t>Y(2288)GDD</t>
+  </si>
+  <si>
+    <t>F(2337)LKR</t>
+  </si>
+  <si>
+    <t>G(1089)PPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1556)LCG</t>
+  </si>
+  <si>
+    <t>K(1765)DELR</t>
+  </si>
+  <si>
+    <t>Y(1933)GDD</t>
+  </si>
+  <si>
+    <t>F(1982)LKR</t>
+  </si>
+  <si>
+    <t>G(1471)PPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1938)LCG</t>
+  </si>
+  <si>
+    <t>K(2147)DELR</t>
+  </si>
+  <si>
+    <t>Y(2315)GDD</t>
+  </si>
+  <si>
+    <t>F(2364)LKR</t>
+  </si>
+  <si>
+    <t>OP963617</t>
+  </si>
+  <si>
+    <t>PP711912</t>
+  </si>
+  <si>
+    <t>PP711943</t>
+  </si>
+  <si>
+    <t>PP711945</t>
+  </si>
+  <si>
+    <t>G(1244)FCG</t>
+  </si>
+  <si>
+    <t>G(1527)QPGTGKS</t>
+  </si>
+  <si>
+    <t>G(2005)QCG</t>
+  </si>
+  <si>
+    <t>K(2201)DELR</t>
+  </si>
+  <si>
+    <t>Y(2370)GDD</t>
+  </si>
+  <si>
+    <t>F(2418)LKR</t>
+  </si>
+  <si>
+    <t>G(1252)VCG</t>
+  </si>
+  <si>
+    <t>G(1536)PPGSGKS</t>
+  </si>
+  <si>
+    <t>G(2003)QCG</t>
+  </si>
+  <si>
+    <t>K(2200)DELR</t>
+  </si>
+  <si>
+    <t>Y(2369)GDD</t>
+  </si>
+  <si>
+    <t>F(2416)LKR</t>
+  </si>
+  <si>
+    <t>G(1265)FCG</t>
+  </si>
+  <si>
+    <t>G(1581)SPGTGKS</t>
+  </si>
+  <si>
+    <t>G(2057)QCG</t>
+  </si>
+  <si>
+    <t>K(2252)DELR</t>
+  </si>
+  <si>
+    <t>Y(2421)GDD</t>
+  </si>
+  <si>
+    <t>F(2469)LKR</t>
+  </si>
+  <si>
+    <t>G(1288)VCG</t>
+  </si>
+  <si>
+    <t>G(1572)PPGSGKS</t>
+  </si>
+  <si>
+    <t>G(2039)QCG</t>
+  </si>
+  <si>
+    <t>K(2236)DELR</t>
+  </si>
+  <si>
+    <t>Y(2405)GDD</t>
+  </si>
+  <si>
+    <t>F(2452)LKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>OR951296</t>
+  </si>
+  <si>
+    <t>OR951317</t>
+  </si>
+  <si>
+    <t>G(1268)NRGGGKS</t>
+  </si>
+  <si>
+    <t>G(1730)MCG</t>
+  </si>
+  <si>
+    <t>K(1948)DELR</t>
+  </si>
+  <si>
+    <t>Y(2124)GDD</t>
+  </si>
+  <si>
+    <t>F(2177)LKR</t>
+  </si>
+  <si>
+    <t>F(2338)LKR</t>
+  </si>
+  <si>
+    <t>F(2371)LKR</t>
+  </si>
+  <si>
+    <t>F(445)LKR</t>
+  </si>
+  <si>
+    <t>F(2329)LKR</t>
+  </si>
+  <si>
+    <t>F(2352)LKR</t>
+  </si>
+  <si>
+    <t>F(2237)LKR</t>
+  </si>
+  <si>
+    <t>F(2362)LKR</t>
+  </si>
+  <si>
+    <t>F(2346)LKR</t>
+  </si>
+  <si>
+    <t>G(1327)QRGGGKS</t>
+  </si>
+  <si>
+    <t>G(1807)MCG</t>
+  </si>
+  <si>
+    <t>K(2024)DELR</t>
+  </si>
+  <si>
+    <t>Y(2200)GDD</t>
+  </si>
+  <si>
+    <t>F(2252)LKR</t>
+  </si>
+  <si>
+    <t>OQ716008</t>
+  </si>
+  <si>
+    <t>OQ716009</t>
+  </si>
+  <si>
+    <t>G(1382)EPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1851)MCG</t>
+  </si>
+  <si>
+    <t>K(2082)DELR</t>
+  </si>
+  <si>
+    <t>Y(2248)GDD</t>
+  </si>
+  <si>
+    <t>F(2296)LKR</t>
+  </si>
+  <si>
+    <t>G(1405)EPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1874)MCG</t>
+  </si>
+  <si>
+    <t>K(2105)DELR</t>
+  </si>
+  <si>
+    <t>OR867092</t>
+  </si>
+  <si>
+    <t>OR951301</t>
+  </si>
+  <si>
+    <t>OR951339</t>
+  </si>
+  <si>
+    <t>OR951341</t>
+  </si>
+  <si>
+    <t>G(2085)YCG</t>
+  </si>
+  <si>
+    <t>G(1755)KPGTGKS</t>
+  </si>
+  <si>
+    <t>G(2233)YCG</t>
+  </si>
+  <si>
+    <t>K(2455)DEIR</t>
+  </si>
+  <si>
+    <t>Y(2627)GDD</t>
+  </si>
+  <si>
+    <t>F(2676)KLR</t>
+  </si>
+  <si>
+    <t>G(1357)KPGAGKS</t>
+  </si>
+  <si>
+    <t>G(1832)YCG</t>
+  </si>
+  <si>
+    <t>K(2056)DEIR</t>
+  </si>
+  <si>
+    <t>F(2277)LKR</t>
+  </si>
+  <si>
+    <t>G(1325)KPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1801)YCG</t>
+  </si>
+  <si>
+    <t>K(2022)DEIR</t>
+  </si>
+  <si>
+    <t>Y(2194)GDD</t>
+  </si>
+  <si>
+    <t>F(2243)LKR</t>
+  </si>
+  <si>
+    <t>G(1308)KPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1786)YCG</t>
+  </si>
+  <si>
+    <t>K(2008)DEIR</t>
+  </si>
+  <si>
+    <t>Y(2180)GDD</t>
+  </si>
+  <si>
+    <t>F(2229)LKR</t>
+  </si>
+  <si>
+    <t>OP930874</t>
+  </si>
+  <si>
+    <t>OQ715855</t>
+  </si>
+  <si>
+    <t>OR951151</t>
+  </si>
+  <si>
+    <t>OR951138</t>
+  </si>
+  <si>
+    <t>OP963622</t>
+  </si>
+  <si>
+    <t>OQ709197</t>
+  </si>
+  <si>
+    <t>G(478)APGIGKT</t>
+  </si>
+  <si>
+    <t>K(953)GKTK</t>
+  </si>
+  <si>
+    <t>D(966)DEYEE</t>
+  </si>
+  <si>
+    <t>G(1176)DCG</t>
+  </si>
+  <si>
+    <t>W(1220)KGL</t>
+  </si>
+  <si>
+    <t>K(1382)DELL</t>
+  </si>
+  <si>
+    <t>D(1457)YKAWDST</t>
+  </si>
+  <si>
+    <t>G(1512)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1560)GDD</t>
+  </si>
+  <si>
+    <t>P(1858)PG</t>
+  </si>
+  <si>
+    <t>G(2004)WS</t>
+  </si>
+  <si>
+    <t>G(474)APGVGKS</t>
+  </si>
+  <si>
+    <t>K(943)GKNK</t>
+  </si>
+  <si>
+    <t>D(958)DEYDE</t>
+  </si>
+  <si>
+    <t>G(1143)YCG</t>
+  </si>
+  <si>
+    <t>W(1190)KGL</t>
+  </si>
+  <si>
+    <t>K(1351)DELR</t>
+  </si>
+  <si>
+    <t>D(1426)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1481)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1529)GDD</t>
+  </si>
+  <si>
+    <t>P(1829)PG</t>
+  </si>
+  <si>
+    <t>G(1974)WS</t>
+  </si>
+  <si>
+    <t>G(403)PPGVGKS</t>
+  </si>
+  <si>
+    <t>K(873)GKNK</t>
+  </si>
+  <si>
+    <t>D(888)DEYEE</t>
+  </si>
+  <si>
+    <t>G(1073)SCG</t>
+  </si>
+  <si>
+    <t>W(1120)KGL</t>
+  </si>
+  <si>
+    <t>K(1280)DELR</t>
+  </si>
+  <si>
+    <t>D(1355)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1410)LASG</t>
+  </si>
+  <si>
+    <t>Y(1458)GDD</t>
+  </si>
+  <si>
+    <t>P(1753)PG</t>
+  </si>
+  <si>
+    <t>G(1898)WS</t>
+  </si>
+  <si>
+    <t>G(490)APGIGKT</t>
+  </si>
+  <si>
+    <t>K(964)GKTK</t>
+  </si>
+  <si>
+    <t>D(977)SDYEE</t>
+  </si>
+  <si>
+    <t>G(1184)DCG</t>
+  </si>
+  <si>
+    <t>W(1228)KGL</t>
+  </si>
+  <si>
+    <t>K(1390)DELL</t>
+  </si>
+  <si>
+    <t>D(1465)YKAWDST</t>
+  </si>
+  <si>
+    <t>G(1520)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1568)GDD</t>
+  </si>
+  <si>
+    <t>P(1866)PG</t>
+  </si>
+  <si>
+    <t>G(2012)WS</t>
+  </si>
+  <si>
+    <t>G(475)VPGIGKT</t>
+  </si>
+  <si>
+    <t>K(944)GKTK</t>
+  </si>
+  <si>
+    <t>D(959)DEYEE</t>
+  </si>
+  <si>
+    <t>G(1166)DCG</t>
+  </si>
+  <si>
+    <t>W(1211)KGL</t>
+  </si>
+  <si>
+    <t>K(1373)DELR</t>
+  </si>
+  <si>
+    <t>D(1448)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1503)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1551)GDD</t>
+  </si>
+  <si>
+    <t>P(1845)PG</t>
+  </si>
+  <si>
+    <t>G(1991)WS</t>
+  </si>
+  <si>
+    <t>G(444)APGIGKT</t>
+  </si>
+  <si>
+    <t>K(919)GKTK</t>
+  </si>
+  <si>
+    <t>D(932)SDYEE</t>
+  </si>
+  <si>
+    <t>G(1146)DCG</t>
+  </si>
+  <si>
+    <t>K(1352)DELL</t>
+  </si>
+  <si>
+    <t>D(1427)YKAWDST</t>
+  </si>
+  <si>
+    <t>G(1482)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1530)GDD</t>
+  </si>
+  <si>
+    <t>P(1828)PG</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +2166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,9 +2187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1337,7 +2227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1443,7 +2333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1585,7 +2475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1593,1933 +2483,3575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31531B08-202E-D840-BAC2-584C47BCD981}">
-  <dimension ref="A2:M84"/>
+  <dimension ref="A2:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>604</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="G7" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F8" t="s">
+        <v>607</v>
+      </c>
+      <c r="G8" t="s">
+        <v>608</v>
+      </c>
+      <c r="H8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>611</v>
+      </c>
+      <c r="F9" t="s">
+        <v>612</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>602</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>614</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>615</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>616</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>617</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>603</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>619</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>620</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>621</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>622</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>395</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>371</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>339</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>590</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>592</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>594</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>595</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>591</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>597</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>598</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>599</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>491</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>485</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>489</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>490</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>487</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>495</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>490</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>488</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>500</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" t="s">
-        <v>164</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" t="s">
+        <v>399</v>
+      </c>
+      <c r="D46" t="s">
+        <v>398</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="G49" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>198</v>
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>486</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>506</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>505</v>
+      </c>
+      <c r="E51" t="s">
+        <v>507</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>503</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>512</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>511</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>513</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
+        <v>514</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>515</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>504</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>518</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>517</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>519</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>520</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>521</v>
       </c>
       <c r="H53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" t="s">
-        <v>220</v>
-      </c>
-      <c r="G54" t="s">
-        <v>221</v>
-      </c>
-      <c r="H54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C55" t="s">
-        <v>373</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>374</v>
-      </c>
-      <c r="F55" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s">
-        <v>81</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>395</v>
+      </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>401</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>402</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>403</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>238</v>
+        <v>381</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C61" t="s">
-        <v>247</v>
+        <v>405</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s">
-        <v>251</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>406</v>
+      </c>
+      <c r="F62" t="s">
+        <v>407</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
+        <v>171</v>
+      </c>
+      <c r="H66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>60</v>
       </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s">
-        <v>205</v>
-      </c>
-      <c r="E64" t="s">
-        <v>206</v>
-      </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" t="s">
-        <v>252</v>
-      </c>
-      <c r="D65" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" t="s">
-        <v>253</v>
-      </c>
-      <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" t="s">
-        <v>254</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" t="s">
-        <v>255</v>
-      </c>
-      <c r="F66" t="s">
-        <v>256</v>
-      </c>
-      <c r="G66" t="s">
-        <v>257</v>
-      </c>
-      <c r="H66" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>54</v>
+      <c r="B67" t="s">
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="F67" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="G67" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="F68" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>56</v>
+      <c r="B69" t="s">
+        <v>46</v>
       </c>
       <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" t="s">
+        <v>179</v>
+      </c>
+      <c r="H69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>523</v>
+      </c>
+      <c r="C70" t="s">
+        <v>526</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>527</v>
+      </c>
+      <c r="F70" t="s">
+        <v>528</v>
+      </c>
+      <c r="G70" t="s">
+        <v>529</v>
+      </c>
+      <c r="H70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>524</v>
+      </c>
+      <c r="C71" t="s">
+        <v>531</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>532</v>
+      </c>
+      <c r="F71" t="s">
+        <v>533</v>
+      </c>
+      <c r="G71" t="s">
+        <v>534</v>
+      </c>
+      <c r="H71" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>525</v>
+      </c>
+      <c r="C72" t="s">
+        <v>536</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>537</v>
+      </c>
+      <c r="F72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G72" t="s">
+        <v>539</v>
+      </c>
+      <c r="H72" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>395</v>
+      </c>
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C77" t="s">
+        <v>410</v>
+      </c>
+      <c r="D77" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77" t="s">
+        <v>411</v>
+      </c>
+      <c r="F77" t="s">
+        <v>412</v>
+      </c>
+      <c r="G77" t="s">
+        <v>413</v>
+      </c>
+      <c r="H77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" t="s">
+        <v>183</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" t="s">
+        <v>415</v>
+      </c>
+      <c r="E81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>417</v>
+      </c>
+      <c r="F82" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" t="s">
+        <v>193</v>
+      </c>
+      <c r="G83" t="s">
+        <v>194</v>
+      </c>
+      <c r="H83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" t="s">
+        <v>205</v>
+      </c>
+      <c r="G84" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" t="s">
+        <v>211</v>
+      </c>
+      <c r="G85" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>541</v>
+      </c>
+      <c r="C86" t="s">
+        <v>546</v>
+      </c>
+      <c r="D86" t="s">
+        <v>545</v>
+      </c>
+      <c r="E86" t="s">
+        <v>547</v>
+      </c>
+      <c r="F86" t="s">
+        <v>548</v>
+      </c>
+      <c r="G86" t="s">
+        <v>549</v>
+      </c>
+      <c r="H86" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>542</v>
+      </c>
+      <c r="C87" t="s">
+        <v>552</v>
+      </c>
+      <c r="D87" t="s">
+        <v>551</v>
+      </c>
+      <c r="E87" t="s">
+        <v>553</v>
+      </c>
+      <c r="F87" t="s">
+        <v>554</v>
+      </c>
+      <c r="G87" t="s">
+        <v>555</v>
+      </c>
+      <c r="H87" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>543</v>
+      </c>
+      <c r="C88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D88" t="s">
+        <v>557</v>
+      </c>
+      <c r="E88" t="s">
+        <v>559</v>
+      </c>
+      <c r="F88" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" t="s">
+        <v>561</v>
+      </c>
+      <c r="H88" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>544</v>
+      </c>
+      <c r="C89" t="s">
+        <v>564</v>
+      </c>
+      <c r="D89" t="s">
+        <v>563</v>
+      </c>
+      <c r="E89" t="s">
+        <v>565</v>
+      </c>
+      <c r="F89" t="s">
+        <v>566</v>
+      </c>
+      <c r="G89" t="s">
+        <v>567</v>
+      </c>
+      <c r="H89" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>395</v>
+      </c>
+      <c r="D92" t="s">
+        <v>196</v>
+      </c>
+      <c r="E92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C94" t="s">
+        <v>418</v>
+      </c>
+      <c r="D94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" t="s">
+        <v>419</v>
+      </c>
+      <c r="F94" t="s">
+        <v>420</v>
+      </c>
+      <c r="G94" t="s">
+        <v>421</v>
+      </c>
+      <c r="H94" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" t="s">
+        <v>228</v>
+      </c>
+      <c r="F95" t="s">
+        <v>422</v>
+      </c>
+      <c r="G95" t="s">
+        <v>423</v>
+      </c>
+      <c r="H95" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" t="s">
+        <v>424</v>
+      </c>
+      <c r="G96" t="s">
+        <v>425</v>
+      </c>
+      <c r="H96" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" t="s">
+        <v>231</v>
+      </c>
+      <c r="G97" t="s">
+        <v>232</v>
+      </c>
+      <c r="H97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>233</v>
+      </c>
+      <c r="D98" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" t="s">
+        <v>235</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99" t="s">
+        <v>238</v>
+      </c>
+      <c r="G99" t="s">
+        <v>239</v>
+      </c>
+      <c r="H99" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>240</v>
+      </c>
+      <c r="D100" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" t="s">
+        <v>241</v>
+      </c>
+      <c r="F100" t="s">
+        <v>82</v>
+      </c>
+      <c r="G100" t="s">
+        <v>242</v>
+      </c>
+      <c r="H100" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>243</v>
+      </c>
+      <c r="D101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" t="s">
+        <v>244</v>
+      </c>
+      <c r="F101" t="s">
+        <v>245</v>
+      </c>
+      <c r="G101" t="s">
+        <v>246</v>
+      </c>
+      <c r="H101" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>248</v>
+      </c>
+      <c r="F102" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" t="s">
+        <v>249</v>
+      </c>
+      <c r="H102" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>570</v>
+      </c>
+      <c r="C103" t="s">
+        <v>572</v>
+      </c>
+      <c r="E103" t="s">
+        <v>573</v>
+      </c>
+      <c r="F103" t="s">
+        <v>574</v>
+      </c>
+      <c r="G103" t="s">
+        <v>575</v>
+      </c>
+      <c r="H103" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>571</v>
+      </c>
+      <c r="C104" t="s">
+        <v>585</v>
+      </c>
+      <c r="E104" t="s">
+        <v>586</v>
+      </c>
+      <c r="F104" t="s">
+        <v>587</v>
+      </c>
+      <c r="G104" t="s">
+        <v>588</v>
+      </c>
+      <c r="H104" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" t="s">
+        <v>197</v>
+      </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C108" t="s">
+        <v>465</v>
+      </c>
+      <c r="D108" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" t="s">
+        <v>466</v>
+      </c>
+      <c r="F108" t="s">
+        <v>467</v>
+      </c>
+      <c r="G108" t="s">
+        <v>468</v>
+      </c>
+      <c r="H108" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>463</v>
+      </c>
+      <c r="B109" t="s">
+        <v>460</v>
+      </c>
+      <c r="C109" t="s">
+        <v>470</v>
+      </c>
+      <c r="D109" t="s">
+        <v>75</v>
+      </c>
+      <c r="E109" t="s">
+        <v>471</v>
+      </c>
+      <c r="F109" t="s">
+        <v>472</v>
+      </c>
+      <c r="G109" t="s">
+        <v>473</v>
+      </c>
+      <c r="H109" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>464</v>
+      </c>
+      <c r="B110" t="s">
+        <v>461</v>
+      </c>
+      <c r="C110" t="s">
+        <v>475</v>
+      </c>
+      <c r="D110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" t="s">
+        <v>476</v>
+      </c>
+      <c r="F110" t="s">
+        <v>477</v>
+      </c>
+      <c r="G110" t="s">
+        <v>478</v>
+      </c>
+      <c r="H110" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" t="s">
+        <v>462</v>
+      </c>
+      <c r="C111" t="s">
+        <v>480</v>
+      </c>
+      <c r="D111" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" t="s">
+        <v>481</v>
+      </c>
+      <c r="F111" t="s">
+        <v>482</v>
+      </c>
+      <c r="G111" t="s">
+        <v>483</v>
+      </c>
+      <c r="H111" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>256</v>
+      </c>
+      <c r="J121" t="s">
+        <v>37</v>
+      </c>
+      <c r="K121" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121" t="s">
+        <v>267</v>
+      </c>
+      <c r="M121" t="s">
         <v>268</v>
       </c>
-      <c r="D69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" t="s">
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" t="s">
+        <v>426</v>
+      </c>
+      <c r="E122" t="s">
+        <v>427</v>
+      </c>
+      <c r="F122" t="s">
+        <v>428</v>
+      </c>
+      <c r="G122" t="s">
+        <v>429</v>
+      </c>
+      <c r="H122" t="s">
+        <v>430</v>
+      </c>
+      <c r="I122" t="s">
+        <v>431</v>
+      </c>
+      <c r="J122" t="s">
+        <v>432</v>
+      </c>
+      <c r="K122" t="s">
+        <v>433</v>
+      </c>
+      <c r="L122" t="s">
+        <v>434</v>
+      </c>
+      <c r="M122" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" t="s">
+        <v>252</v>
+      </c>
+      <c r="F123" t="s">
+        <v>253</v>
+      </c>
+      <c r="G123" t="s">
+        <v>254</v>
+      </c>
+      <c r="H123" t="s">
+        <v>255</v>
+      </c>
+      <c r="I123" t="s">
+        <v>257</v>
+      </c>
+      <c r="J123" t="s">
+        <v>258</v>
+      </c>
+      <c r="K123" t="s">
+        <v>259</v>
+      </c>
+      <c r="L123" t="s">
+        <v>260</v>
+      </c>
+      <c r="M123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C124" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" t="s">
+        <v>264</v>
+      </c>
+      <c r="F124" t="s">
+        <v>265</v>
+      </c>
+      <c r="G124" t="s">
+        <v>266</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124" t="s">
+        <v>75</v>
+      </c>
+      <c r="J124" t="s">
+        <v>75</v>
+      </c>
+      <c r="K124" t="s">
+        <v>75</v>
+      </c>
+      <c r="L124" t="s">
+        <v>75</v>
+      </c>
+      <c r="M124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C125" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" t="s">
+        <v>75</v>
+      </c>
+      <c r="E125" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125" t="s">
+        <v>75</v>
+      </c>
+      <c r="J125" t="s">
+        <v>75</v>
+      </c>
+      <c r="K125" t="s">
+        <v>75</v>
+      </c>
+      <c r="L125" t="s">
         <v>269</v>
       </c>
-      <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="M125" t="s">
         <v>270</v>
       </c>
-      <c r="H69" t="s">
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" t="s">
+        <v>75</v>
+      </c>
+      <c r="D126" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E126" t="s">
         <v>272</v>
       </c>
-      <c r="D70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="F126" t="s">
         <v>273</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G126" t="s">
         <v>274</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H126" t="s">
         <v>275</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I126" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="J126" t="s">
+        <v>277</v>
+      </c>
+      <c r="K126" t="s">
+        <v>286</v>
+      </c>
+      <c r="L126" t="s">
+        <v>75</v>
+      </c>
+      <c r="M126" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" t="s">
+        <v>278</v>
+      </c>
+      <c r="E127" t="s">
+        <v>279</v>
+      </c>
+      <c r="F127" t="s">
+        <v>280</v>
+      </c>
+      <c r="G127" t="s">
+        <v>281</v>
+      </c>
+      <c r="H127" t="s">
+        <v>282</v>
+      </c>
+      <c r="I127" t="s">
+        <v>283</v>
+      </c>
+      <c r="J127" t="s">
+        <v>284</v>
+      </c>
+      <c r="K127" t="s">
+        <v>285</v>
+      </c>
+      <c r="L127" t="s">
+        <v>75</v>
+      </c>
+      <c r="M127" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C128" t="s">
+        <v>75</v>
+      </c>
+      <c r="D128" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" t="s">
+        <v>75</v>
+      </c>
+      <c r="F128" t="s">
+        <v>75</v>
+      </c>
+      <c r="G128" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128" t="s">
+        <v>75</v>
+      </c>
+      <c r="J128" t="s">
+        <v>75</v>
+      </c>
+      <c r="K128" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C129" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" t="s">
+        <v>75</v>
+      </c>
+      <c r="F129" t="s">
+        <v>75</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" t="s">
+        <v>436</v>
+      </c>
+      <c r="K129" t="s">
+        <v>437</v>
+      </c>
+      <c r="L129" t="s">
+        <v>438</v>
+      </c>
+      <c r="M129" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C130" t="s">
+        <v>440</v>
+      </c>
+      <c r="D130" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" t="s">
+        <v>75</v>
+      </c>
+      <c r="F130" t="s">
+        <v>75</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>75</v>
+      </c>
+      <c r="I130" t="s">
+        <v>75</v>
+      </c>
+      <c r="J130" t="s">
+        <v>75</v>
+      </c>
+      <c r="K130" t="s">
+        <v>75</v>
+      </c>
+      <c r="L130" t="s">
+        <v>75</v>
+      </c>
+      <c r="M130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" t="s">
+        <v>75</v>
+      </c>
+      <c r="D131" t="s">
+        <v>441</v>
+      </c>
+      <c r="E131" t="s">
+        <v>442</v>
+      </c>
+      <c r="F131" t="s">
+        <v>443</v>
+      </c>
+      <c r="G131" t="s">
+        <v>444</v>
+      </c>
+      <c r="H131" t="s">
+        <v>445</v>
+      </c>
+      <c r="I131" t="s">
+        <v>446</v>
+      </c>
+      <c r="J131" t="s">
+        <v>447</v>
+      </c>
+      <c r="K131" t="s">
+        <v>448</v>
+      </c>
+      <c r="L131" t="s">
+        <v>75</v>
+      </c>
+      <c r="M131" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" t="s">
+        <v>449</v>
+      </c>
+      <c r="E132" t="s">
+        <v>450</v>
+      </c>
+      <c r="F132" t="s">
+        <v>451</v>
+      </c>
+      <c r="G132" t="s">
+        <v>452</v>
+      </c>
+      <c r="H132" t="s">
+        <v>453</v>
+      </c>
+      <c r="I132" t="s">
+        <v>454</v>
+      </c>
+      <c r="J132" t="s">
+        <v>455</v>
+      </c>
+      <c r="K132" t="s">
+        <v>456</v>
+      </c>
+      <c r="L132" t="s">
+        <v>75</v>
+      </c>
+      <c r="M132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C133" t="s">
+        <v>457</v>
+      </c>
+      <c r="D133" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" t="s">
+        <v>75</v>
+      </c>
+      <c r="F133" t="s">
+        <v>75</v>
+      </c>
+      <c r="G133" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133" t="s">
+        <v>75</v>
+      </c>
+      <c r="J133" t="s">
+        <v>75</v>
+      </c>
+      <c r="K133" t="s">
+        <v>75</v>
+      </c>
+      <c r="L133" t="s">
+        <v>75</v>
+      </c>
+      <c r="M133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" t="s">
+        <v>75</v>
+      </c>
+      <c r="E134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F134" t="s">
+        <v>75</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134" t="s">
+        <v>75</v>
+      </c>
+      <c r="J134" t="s">
+        <v>75</v>
+      </c>
+      <c r="K134" t="s">
+        <v>75</v>
+      </c>
+      <c r="L134" t="s">
+        <v>458</v>
+      </c>
+      <c r="M134" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C135" t="s">
+        <v>75</v>
+      </c>
+      <c r="D135" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" t="s">
+        <v>75</v>
+      </c>
+      <c r="F135" t="s">
+        <v>75</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135" t="s">
+        <v>75</v>
+      </c>
+      <c r="J135" t="s">
+        <v>75</v>
+      </c>
+      <c r="K135" t="s">
+        <v>75</v>
+      </c>
+      <c r="L135" t="s">
+        <v>75</v>
+      </c>
+      <c r="M135" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" t="s">
+        <v>287</v>
+      </c>
+      <c r="D136" t="s">
+        <v>288</v>
+      </c>
+      <c r="E136" t="s">
+        <v>278</v>
+      </c>
+      <c r="F136" t="s">
+        <v>289</v>
+      </c>
+      <c r="G136" t="s">
+        <v>290</v>
+      </c>
+      <c r="H136" t="s">
+        <v>291</v>
+      </c>
+      <c r="I136" t="s">
+        <v>292</v>
+      </c>
+      <c r="J136" t="s">
+        <v>293</v>
+      </c>
+      <c r="K136" t="s">
+        <v>294</v>
+      </c>
+      <c r="L136" t="s">
+        <v>295</v>
+      </c>
+      <c r="M136" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>297</v>
+      </c>
+      <c r="D137" t="s">
+        <v>298</v>
+      </c>
+      <c r="E137" t="s">
+        <v>299</v>
+      </c>
+      <c r="F137" t="s">
+        <v>300</v>
+      </c>
+      <c r="G137" t="s">
+        <v>301</v>
+      </c>
+      <c r="H137" t="s">
+        <v>302</v>
+      </c>
+      <c r="I137" t="s">
+        <v>303</v>
+      </c>
+      <c r="J137" t="s">
+        <v>304</v>
+      </c>
+      <c r="K137" t="s">
+        <v>305</v>
+      </c>
+      <c r="L137" t="s">
+        <v>306</v>
+      </c>
+      <c r="M137" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
-      <c r="D71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" t="s">
-        <v>278</v>
-      </c>
-      <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s">
-        <v>279</v>
-      </c>
-      <c r="H71" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B72" s="2"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" t="s">
-        <v>287</v>
-      </c>
-      <c r="J74" t="s">
-        <v>42</v>
-      </c>
-      <c r="K74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L74" t="s">
-        <v>298</v>
-      </c>
-      <c r="M74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
-      <c r="D75" t="s">
-        <v>282</v>
-      </c>
-      <c r="E75" t="s">
-        <v>283</v>
-      </c>
-      <c r="F75" t="s">
-        <v>284</v>
-      </c>
-      <c r="G75" t="s">
-        <v>285</v>
-      </c>
-      <c r="H75" t="s">
-        <v>286</v>
-      </c>
-      <c r="I75" t="s">
-        <v>288</v>
-      </c>
-      <c r="J75" t="s">
-        <v>289</v>
-      </c>
-      <c r="K75" t="s">
-        <v>290</v>
-      </c>
-      <c r="L75" t="s">
-        <v>291</v>
-      </c>
-      <c r="M75" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" t="s">
-        <v>295</v>
-      </c>
-      <c r="F76" t="s">
-        <v>296</v>
-      </c>
-      <c r="G76" t="s">
-        <v>297</v>
-      </c>
-      <c r="H76" t="s">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s">
-        <v>81</v>
-      </c>
-      <c r="K76" t="s">
-        <v>81</v>
-      </c>
-      <c r="L76" t="s">
-        <v>81</v>
-      </c>
-      <c r="M76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
-      <c r="H77" t="s">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s">
-        <v>81</v>
-      </c>
-      <c r="K77" t="s">
-        <v>81</v>
-      </c>
-      <c r="L77" t="s">
-        <v>300</v>
-      </c>
-      <c r="M77" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" t="s">
-        <v>302</v>
-      </c>
-      <c r="E78" t="s">
-        <v>303</v>
-      </c>
-      <c r="F78" t="s">
-        <v>304</v>
-      </c>
-      <c r="G78" t="s">
-        <v>305</v>
-      </c>
-      <c r="H78" t="s">
-        <v>306</v>
-      </c>
-      <c r="I78" t="s">
-        <v>307</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="B138" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" t="s">
         <v>308</v>
       </c>
-      <c r="K78" t="s">
+      <c r="D138" t="s">
+        <v>309</v>
+      </c>
+      <c r="E138" t="s">
+        <v>310</v>
+      </c>
+      <c r="F138" t="s">
+        <v>311</v>
+      </c>
+      <c r="G138" t="s">
+        <v>312</v>
+      </c>
+      <c r="H138" t="s">
+        <v>313</v>
+      </c>
+      <c r="I138" t="s">
+        <v>314</v>
+      </c>
+      <c r="J138" t="s">
+        <v>315</v>
+      </c>
+      <c r="K138" t="s">
+        <v>316</v>
+      </c>
+      <c r="L138" t="s">
         <v>317</v>
       </c>
-      <c r="L78" t="s">
-        <v>81</v>
-      </c>
-      <c r="M78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" t="s">
-        <v>309</v>
-      </c>
-      <c r="E79" t="s">
-        <v>310</v>
-      </c>
-      <c r="F79" t="s">
-        <v>311</v>
-      </c>
-      <c r="G79" t="s">
-        <v>312</v>
-      </c>
-      <c r="H79" t="s">
-        <v>313</v>
-      </c>
-      <c r="I79" t="s">
-        <v>314</v>
-      </c>
-      <c r="J79" t="s">
-        <v>315</v>
-      </c>
-      <c r="K79" t="s">
-        <v>316</v>
-      </c>
-      <c r="L79" t="s">
-        <v>81</v>
-      </c>
-      <c r="M79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="M138" t="s">
         <v>318</v>
       </c>
-      <c r="D80" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" t="s">
-        <v>309</v>
-      </c>
-      <c r="F80" t="s">
-        <v>320</v>
-      </c>
-      <c r="G80" t="s">
-        <v>321</v>
-      </c>
-      <c r="H80" t="s">
-        <v>322</v>
-      </c>
-      <c r="I80" t="s">
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>323</v>
       </c>
-      <c r="J80" t="s">
+      <c r="B139" t="s">
         <v>324</v>
       </c>
-      <c r="K80" t="s">
+      <c r="C139" t="s">
+        <v>341</v>
+      </c>
+      <c r="D139" t="s">
+        <v>343</v>
+      </c>
+      <c r="E139" t="s">
+        <v>345</v>
+      </c>
+      <c r="F139" t="s">
+        <v>347</v>
+      </c>
+      <c r="G139" t="s">
+        <v>349</v>
+      </c>
+      <c r="H139" t="s">
+        <v>351</v>
+      </c>
+      <c r="I139" t="s">
+        <v>353</v>
+      </c>
+      <c r="J139" t="s">
+        <v>355</v>
+      </c>
+      <c r="K139" t="s">
+        <v>357</v>
+      </c>
+      <c r="L139" t="s">
+        <v>359</v>
+      </c>
+      <c r="M139" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
         <v>325</v>
       </c>
-      <c r="L80" t="s">
-        <v>326</v>
-      </c>
-      <c r="M80" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" t="s">
-        <v>328</v>
-      </c>
-      <c r="D81" t="s">
-        <v>329</v>
-      </c>
-      <c r="E81" t="s">
-        <v>330</v>
-      </c>
-      <c r="F81" t="s">
-        <v>331</v>
-      </c>
-      <c r="G81" t="s">
-        <v>332</v>
-      </c>
-      <c r="H81" t="s">
-        <v>333</v>
-      </c>
-      <c r="I81" t="s">
-        <v>334</v>
-      </c>
-      <c r="J81" t="s">
-        <v>335</v>
-      </c>
-      <c r="K81" t="s">
-        <v>336</v>
-      </c>
-      <c r="L81" t="s">
-        <v>337</v>
-      </c>
-      <c r="M81" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" t="s">
-        <v>339</v>
-      </c>
-      <c r="D82" t="s">
-        <v>340</v>
-      </c>
-      <c r="E82" t="s">
-        <v>341</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="C140" t="s">
         <v>342</v>
       </c>
-      <c r="G82" t="s">
-        <v>343</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="D140" t="s">
         <v>344</v>
       </c>
-      <c r="I82" t="s">
-        <v>345</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="E140" t="s">
         <v>346</v>
       </c>
-      <c r="K82" t="s">
-        <v>347</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="F140" t="s">
         <v>348</v>
       </c>
-      <c r="M82" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="G140" t="s">
+        <v>350</v>
+      </c>
+      <c r="H140" t="s">
+        <v>352</v>
+      </c>
+      <c r="I140" t="s">
         <v>354</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C83" t="s">
-        <v>375</v>
-      </c>
-      <c r="D83" t="s">
-        <v>377</v>
-      </c>
-      <c r="E83" t="s">
-        <v>379</v>
-      </c>
-      <c r="F83" t="s">
-        <v>381</v>
-      </c>
-      <c r="G83" t="s">
-        <v>383</v>
-      </c>
-      <c r="H83" t="s">
-        <v>385</v>
-      </c>
-      <c r="I83" t="s">
-        <v>387</v>
-      </c>
-      <c r="J83" t="s">
-        <v>389</v>
-      </c>
-      <c r="K83" t="s">
-        <v>391</v>
-      </c>
-      <c r="L83" t="s">
-        <v>393</v>
-      </c>
-      <c r="M83" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="J140" t="s">
         <v>356</v>
       </c>
-      <c r="C84" t="s">
-        <v>376</v>
-      </c>
-      <c r="D84" t="s">
-        <v>378</v>
-      </c>
-      <c r="E84" t="s">
-        <v>380</v>
-      </c>
-      <c r="F84" t="s">
-        <v>382</v>
-      </c>
-      <c r="G84" t="s">
-        <v>384</v>
-      </c>
-      <c r="H84" t="s">
-        <v>386</v>
-      </c>
-      <c r="I84" t="s">
-        <v>388</v>
-      </c>
-      <c r="J84" t="s">
-        <v>390</v>
-      </c>
-      <c r="K84" t="s">
-        <v>392</v>
-      </c>
-      <c r="L84" t="s">
-        <v>394</v>
-      </c>
-      <c r="M84" t="s">
-        <v>396</v>
+      <c r="K140" t="s">
+        <v>358</v>
+      </c>
+      <c r="L140" t="s">
+        <v>360</v>
+      </c>
+      <c r="M140" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>624</v>
+      </c>
+      <c r="C141" t="s">
+        <v>630</v>
+      </c>
+      <c r="D141" t="s">
+        <v>631</v>
+      </c>
+      <c r="E141" t="s">
+        <v>632</v>
+      </c>
+      <c r="F141" t="s">
+        <v>633</v>
+      </c>
+      <c r="G141" t="s">
+        <v>634</v>
+      </c>
+      <c r="H141" t="s">
+        <v>635</v>
+      </c>
+      <c r="I141" t="s">
+        <v>636</v>
+      </c>
+      <c r="J141" t="s">
+        <v>637</v>
+      </c>
+      <c r="K141" t="s">
+        <v>638</v>
+      </c>
+      <c r="L141" t="s">
+        <v>639</v>
+      </c>
+      <c r="M141" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>625</v>
+      </c>
+      <c r="C142" t="s">
+        <v>663</v>
+      </c>
+      <c r="D142" t="s">
+        <v>664</v>
+      </c>
+      <c r="E142" t="s">
+        <v>665</v>
+      </c>
+      <c r="F142" t="s">
+        <v>666</v>
+      </c>
+      <c r="G142" t="s">
+        <v>667</v>
+      </c>
+      <c r="H142" t="s">
+        <v>668</v>
+      </c>
+      <c r="I142" t="s">
+        <v>669</v>
+      </c>
+      <c r="J142" t="s">
+        <v>670</v>
+      </c>
+      <c r="K142" t="s">
+        <v>671</v>
+      </c>
+      <c r="L142" t="s">
+        <v>672</v>
+      </c>
+      <c r="M142" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>626</v>
+      </c>
+      <c r="C143" t="s">
+        <v>685</v>
+      </c>
+      <c r="D143" t="s">
+        <v>686</v>
+      </c>
+      <c r="E143" t="s">
+        <v>687</v>
+      </c>
+      <c r="F143" t="s">
+        <v>688</v>
+      </c>
+      <c r="G143" t="s">
+        <v>645</v>
+      </c>
+      <c r="H143" t="s">
+        <v>689</v>
+      </c>
+      <c r="I143" t="s">
+        <v>690</v>
+      </c>
+      <c r="J143" t="s">
+        <v>691</v>
+      </c>
+      <c r="K143" t="s">
+        <v>692</v>
+      </c>
+      <c r="L143" t="s">
+        <v>693</v>
+      </c>
+      <c r="M143" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" t="s">
+        <v>627</v>
+      </c>
+      <c r="C144" t="s">
+        <v>674</v>
+      </c>
+      <c r="D144" t="s">
+        <v>675</v>
+      </c>
+      <c r="E144" t="s">
+        <v>676</v>
+      </c>
+      <c r="F144" t="s">
+        <v>677</v>
+      </c>
+      <c r="G144" t="s">
+        <v>678</v>
+      </c>
+      <c r="H144" t="s">
+        <v>679</v>
+      </c>
+      <c r="I144" t="s">
+        <v>680</v>
+      </c>
+      <c r="J144" t="s">
+        <v>681</v>
+      </c>
+      <c r="K144" t="s">
+        <v>682</v>
+      </c>
+      <c r="L144" t="s">
+        <v>683</v>
+      </c>
+      <c r="M144" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>628</v>
+      </c>
+      <c r="C145" t="s">
+        <v>641</v>
+      </c>
+      <c r="D145" t="s">
+        <v>642</v>
+      </c>
+      <c r="E145" t="s">
+        <v>643</v>
+      </c>
+      <c r="F145" t="s">
+        <v>644</v>
+      </c>
+      <c r="G145" t="s">
+        <v>645</v>
+      </c>
+      <c r="H145" t="s">
+        <v>646</v>
+      </c>
+      <c r="I145" t="s">
+        <v>647</v>
+      </c>
+      <c r="J145" t="s">
+        <v>648</v>
+      </c>
+      <c r="K145" t="s">
+        <v>649</v>
+      </c>
+      <c r="L145" t="s">
+        <v>650</v>
+      </c>
+      <c r="M145" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" t="s">
+        <v>629</v>
+      </c>
+      <c r="C146" t="s">
+        <v>652</v>
+      </c>
+      <c r="D146" t="s">
+        <v>653</v>
+      </c>
+      <c r="E146" t="s">
+        <v>654</v>
+      </c>
+      <c r="F146" t="s">
+        <v>655</v>
+      </c>
+      <c r="G146" t="s">
+        <v>656</v>
+      </c>
+      <c r="H146" t="s">
+        <v>657</v>
+      </c>
+      <c r="I146" t="s">
+        <v>658</v>
+      </c>
+      <c r="J146" t="s">
+        <v>659</v>
+      </c>
+      <c r="K146" t="s">
+        <v>660</v>
+      </c>
+      <c r="L146" t="s">
+        <v>661</v>
+      </c>
+      <c r="M146" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/genome_annotation_and_characterization/conserved_motifs.xlsx
+++ b/genome_annotation_and_characterization/conserved_motifs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/genome_annotation_and_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374081B0-B9C5-2342-99E8-4A268A0CB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788ECE53-E00D-434F-9A38-20147DD1F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1980" windowWidth="14900" windowHeight="19860" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
+    <workbookView xWindow="29420" yWindow="-1980" windowWidth="14100" windowHeight="17360" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="801">
   <si>
     <t>mischivirus</t>
   </si>
@@ -1001,9 +1001,6 @@
     <t>mandrill</t>
   </si>
   <si>
-    <t>JN867757</t>
-  </si>
-  <si>
     <t>HF677705</t>
   </si>
   <si>
@@ -1016,27 +1013,12 @@
     <t>NC_033776</t>
   </si>
   <si>
-    <t>G(1226)KPGAGKS</t>
-  </si>
-  <si>
     <t>G(1550)RPGAGKS</t>
   </si>
   <si>
-    <t>G(1706)MCG</t>
-  </si>
-  <si>
-    <t>K(1918)DEIR</t>
-  </si>
-  <si>
     <t>G(2018)MCG</t>
   </si>
   <si>
-    <t>Y(2090)GDD</t>
-  </si>
-  <si>
-    <t>F(2137)LKR</t>
-  </si>
-  <si>
     <t>K(2230)DEIR</t>
   </si>
   <si>
@@ -2118,6 +2100,345 @@
   </si>
   <si>
     <t>P(1828)PG</t>
+  </si>
+  <si>
+    <t>PP711921.1</t>
+  </si>
+  <si>
+    <t>PP711911.1</t>
+  </si>
+  <si>
+    <t>PP711943.1</t>
+  </si>
+  <si>
+    <t>OR951325.1</t>
+  </si>
+  <si>
+    <t>PP711913.1</t>
+  </si>
+  <si>
+    <t>PP711930.1</t>
+  </si>
+  <si>
+    <t>PP711928.1</t>
+  </si>
+  <si>
+    <t>PP711946.1</t>
+  </si>
+  <si>
+    <t>PP745912.1</t>
+  </si>
+  <si>
+    <t>PP711909.1</t>
+  </si>
+  <si>
+    <t>PP746000.1</t>
+  </si>
+  <si>
+    <t>PP711934.1</t>
+  </si>
+  <si>
+    <t>PP712001.1</t>
+  </si>
+  <si>
+    <t>PP712004.1</t>
+  </si>
+  <si>
+    <t>PP712008.1</t>
+  </si>
+  <si>
+    <t>PP712015.1</t>
+  </si>
+  <si>
+    <t>KX759619.1</t>
+  </si>
+  <si>
+    <t>KX759621.1</t>
+  </si>
+  <si>
+    <t>G(1396)RPGQGKS</t>
+  </si>
+  <si>
+    <t>G(1886)YCG, K(1901)ICG</t>
+  </si>
+  <si>
+    <t>Y(2261)GDD</t>
+  </si>
+  <si>
+    <t>G(1242)FCG</t>
+  </si>
+  <si>
+    <t>G(1557)SPGTGKS</t>
+  </si>
+  <si>
+    <t>G(2031)QCG</t>
+  </si>
+  <si>
+    <t>K(2226)DELR</t>
+  </si>
+  <si>
+    <t>G(1253)YCG</t>
+  </si>
+  <si>
+    <t>G(1572)TPGTGKS</t>
+  </si>
+  <si>
+    <t>G(2042)QCG</t>
+  </si>
+  <si>
+    <t>K(2237)DELR</t>
+  </si>
+  <si>
+    <t>Y(2406)GDD</t>
+  </si>
+  <si>
+    <t>F(1454)LKR</t>
+  </si>
+  <si>
+    <t>G(1154)YCG</t>
+  </si>
+  <si>
+    <t>G(1474)TPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1945)QCG</t>
+  </si>
+  <si>
+    <t>K(2140)DELR</t>
+  </si>
+  <si>
+    <t>F(2357)LKR</t>
+  </si>
+  <si>
+    <t>G(1280)VCG</t>
+  </si>
+  <si>
+    <t>G(1564)SPGCGKS</t>
+  </si>
+  <si>
+    <t>K(2228)DELR</t>
+  </si>
+  <si>
+    <t>Y(2397)GDD</t>
+  </si>
+  <si>
+    <t>F(2444)LKR</t>
+  </si>
+  <si>
+    <t>G(1022)VCG</t>
+  </si>
+  <si>
+    <t>G(1306)SPGCGKS</t>
+  </si>
+  <si>
+    <t>G(1773)QCG</t>
+  </si>
+  <si>
+    <t>K(1970)DELR</t>
+  </si>
+  <si>
+    <t>Y(2139)GDD</t>
+  </si>
+  <si>
+    <t>F(2186)LKR</t>
+  </si>
+  <si>
+    <t>G(1548)TPGSGKS</t>
+  </si>
+  <si>
+    <t>G(2048)QCG</t>
+  </si>
+  <si>
+    <t>K(2244)DELR</t>
+  </si>
+  <si>
+    <t>Y(2413)GDD</t>
+  </si>
+  <si>
+    <t>F(2460)LKR</t>
+  </si>
+  <si>
+    <t>G(1098)FCG</t>
+  </si>
+  <si>
+    <t>G(1393)APGTGKS</t>
+  </si>
+  <si>
+    <t>G(1869)QCG</t>
+  </si>
+  <si>
+    <t>K(2064)DELR</t>
+  </si>
+  <si>
+    <t>Y(2233)GDD</t>
+  </si>
+  <si>
+    <t>F(2280)LKR</t>
+  </si>
+  <si>
+    <t>G(1285)VCG</t>
+  </si>
+  <si>
+    <t>G(1569)SPGCGKS</t>
+  </si>
+  <si>
+    <t>K(2233)DELR</t>
+  </si>
+  <si>
+    <t>G(1093)YCG</t>
+  </si>
+  <si>
+    <t>G(1377)QPGTGKS</t>
+  </si>
+  <si>
+    <t>G(1854)QCG</t>
+  </si>
+  <si>
+    <t>K(2050)DELR</t>
+  </si>
+  <si>
+    <t>G(467)PPGIGKT</t>
+  </si>
+  <si>
+    <t>K(934)GKTK</t>
+  </si>
+  <si>
+    <t>D(951)DEYEE</t>
+  </si>
+  <si>
+    <t>W(1204)KGL</t>
+  </si>
+  <si>
+    <t>K(1366)DELR</t>
+  </si>
+  <si>
+    <t>D(1441)FSKWDST</t>
+  </si>
+  <si>
+    <t>G(1496)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1544)GDD</t>
+  </si>
+  <si>
+    <t>P(1841)PG</t>
+  </si>
+  <si>
+    <t>G(1987)WS</t>
+  </si>
+  <si>
+    <t>G(474)PPGIGKT</t>
+  </si>
+  <si>
+    <t>K(941)GKTK</t>
+  </si>
+  <si>
+    <t>D(958)DEYEE</t>
+  </si>
+  <si>
+    <t>D(1448)FSKWDST</t>
+  </si>
+  <si>
+    <t>P(1848)PG</t>
+  </si>
+  <si>
+    <t>G(1994)WS</t>
+  </si>
+  <si>
+    <t>G(468)PPGVGKS</t>
+  </si>
+  <si>
+    <t>D(953)DEYDE</t>
+  </si>
+  <si>
+    <t>G(1139)DCG</t>
+  </si>
+  <si>
+    <t>W(1186)KGL</t>
+  </si>
+  <si>
+    <t>K(1347)DELR</t>
+  </si>
+  <si>
+    <t>D(1422)YKRWDST</t>
+  </si>
+  <si>
+    <t>G(1477)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1525)GDD</t>
+  </si>
+  <si>
+    <t>P(1824)PG</t>
+  </si>
+  <si>
+    <t>G(1969)WS</t>
+  </si>
+  <si>
+    <t>G(463)PPGIGKT</t>
+  </si>
+  <si>
+    <t>K(929)GKTK</t>
+  </si>
+  <si>
+    <t>D(945)DEYEE</t>
+  </si>
+  <si>
+    <t>G(1153)DCG</t>
+  </si>
+  <si>
+    <t>W(1198)KGL</t>
+  </si>
+  <si>
+    <t>K(1360)DELR</t>
+  </si>
+  <si>
+    <t>D(1435)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1490)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1538)GDD</t>
+  </si>
+  <si>
+    <t>P(1835)PG</t>
+  </si>
+  <si>
+    <t>G(1981)WS</t>
+  </si>
+  <si>
+    <t>G(193)PPGIGKT</t>
+  </si>
+  <si>
+    <t>K(662)GKTK</t>
+  </si>
+  <si>
+    <t>D(677)DEYEE</t>
+  </si>
+  <si>
+    <t>G(885)DCG</t>
+  </si>
+  <si>
+    <t>W(930)KGL</t>
+  </si>
+  <si>
+    <t>G(1093)NELR</t>
+  </si>
+  <si>
+    <t>D(1168)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1223)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1271)GDD</t>
+  </si>
+  <si>
+    <t>P(1563)PG</t>
+  </si>
+  <si>
+    <t>G(1709)WS</t>
   </si>
 </sst>
 </file>
@@ -2166,9 +2487,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2483,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31531B08-202E-D840-BAC2-584C47BCD981}">
-  <dimension ref="A2:M146"/>
+  <dimension ref="A2:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D2" t="s">
         <v>196</v>
@@ -2542,7 +2864,7 @@
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
@@ -2614,48 +2936,48 @@
         <v>319</v>
       </c>
       <c r="C6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" t="s">
         <v>327</v>
       </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" t="s">
-        <v>333</v>
-      </c>
       <c r="G6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>594</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
       <c r="D7" t="s">
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
+        <v>600</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>601</v>
       </c>
       <c r="G7" t="s">
-        <v>331</v>
+        <v>602</v>
       </c>
       <c r="H7" t="s">
-        <v>332</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2663,25 +2985,25 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>605</v>
       </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>606</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
         <v>607</v>
-      </c>
-      <c r="G8" t="s">
-        <v>608</v>
-      </c>
-      <c r="H8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2689,25 +3011,25 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C9" t="s">
+        <v>608</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F9" t="s">
         <v>610</v>
       </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>611</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>612</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2715,155 +3037,155 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
         <v>614</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>615</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>616</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>617</v>
       </c>
-      <c r="H10" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>603</v>
-      </c>
-      <c r="C11" t="s">
-        <v>619</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>620</v>
-      </c>
-      <c r="F11" t="s">
-        <v>621</v>
-      </c>
-      <c r="G11" t="s">
-        <v>622</v>
-      </c>
-      <c r="H11" t="s">
-        <v>623</v>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
+      <c r="B15" t="s">
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2871,25 +3193,25 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>584</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>586</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>337</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>588</v>
       </c>
       <c r="G18" t="s">
-        <v>339</v>
+        <v>589</v>
       </c>
       <c r="H18" t="s">
-        <v>340</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2897,77 +3219,77 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C19" t="s">
+        <v>591</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
         <v>592</v>
       </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>593</v>
       </c>
-      <c r="F19" t="s">
-        <v>594</v>
-      </c>
       <c r="G19" t="s">
-        <v>595</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>591</v>
-      </c>
-      <c r="C20" t="s">
-        <v>597</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>598</v>
-      </c>
-      <c r="F20" t="s">
-        <v>599</v>
-      </c>
-      <c r="G20" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2975,25 +3297,25 @@
         <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3001,51 +3323,51 @@
         <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3053,25 +3375,25 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3079,25 +3401,25 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3105,51 +3427,51 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>485</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="D30" t="s">
         <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>486</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>487</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3157,7 +3479,7 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C31" t="s">
         <v>489</v>
@@ -3166,16 +3488,16 @@
         <v>75</v>
       </c>
       <c r="E31" t="s">
+        <v>484</v>
+      </c>
+      <c r="F31" t="s">
+        <v>486</v>
+      </c>
+      <c r="G31" t="s">
         <v>490</v>
       </c>
-      <c r="F31" t="s">
-        <v>492</v>
-      </c>
-      <c r="G31" t="s">
-        <v>493</v>
-      </c>
       <c r="H31" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3183,25 +3505,25 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C32" t="s">
+        <v>492</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>493</v>
+      </c>
+      <c r="F32" t="s">
+        <v>494</v>
+      </c>
+      <c r="G32" t="s">
         <v>495</v>
       </c>
-      <c r="D32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" t="s">
-        <v>490</v>
-      </c>
-      <c r="F32" t="s">
-        <v>492</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>496</v>
-      </c>
-      <c r="H32" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3209,25 +3531,25 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>488</v>
+        <v>699</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>706</v>
       </c>
       <c r="D33" t="s">
         <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>499</v>
+        <v>707</v>
       </c>
       <c r="F33" t="s">
-        <v>500</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>501</v>
+        <v>708</v>
       </c>
       <c r="H33" t="s">
-        <v>502</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3238,7 +3560,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D36" t="s">
         <v>196</v>
@@ -3417,13 +3739,13 @@
         <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E43" t="s">
         <v>75</v>
@@ -3443,7 +3765,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -3469,10 +3791,10 @@
         <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C45" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D45" t="s">
         <v>75</v>
@@ -3495,13 +3817,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D46" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E46" t="s">
         <v>75</v>
@@ -3521,7 +3843,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
@@ -3625,25 +3947,25 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E51" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F51" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G51" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H51" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3651,25 +3973,25 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C52" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D52" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E52" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F52" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G52" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H52" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3677,155 +3999,155 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C53" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D53" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E53" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F53" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G53" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H53" t="s">
-        <v>522</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C54" t="s">
+        <v>710</v>
+      </c>
+      <c r="D54" t="s">
+        <v>709</v>
+      </c>
+      <c r="E54" t="s">
+        <v>711</v>
+      </c>
+      <c r="F54" t="s">
+        <v>712</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C55" t="s">
+        <v>714</v>
+      </c>
+      <c r="D55" t="s">
+        <v>713</v>
+      </c>
+      <c r="E55" t="s">
+        <v>715</v>
+      </c>
+      <c r="F55" t="s">
+        <v>716</v>
+      </c>
+      <c r="G55" t="s">
+        <v>717</v>
+      </c>
+      <c r="H55" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>690</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>551</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>553</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>554</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>555</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>13</v>
+      <c r="B57" t="s">
+        <v>691</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>719</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>721</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>722</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="H57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C58" t="s">
-        <v>400</v>
-      </c>
-      <c r="D58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" t="s">
-        <v>401</v>
-      </c>
-      <c r="F58" t="s">
-        <v>402</v>
-      </c>
-      <c r="G58" t="s">
-        <v>403</v>
-      </c>
-      <c r="H58" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>75</v>
+        <v>723</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>381</v>
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3833,25 +4155,25 @@
         <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>405</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
         <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3859,25 +4181,25 @@
         <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="D62" t="s">
         <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F62" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>397</v>
       </c>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3885,7 +4207,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
@@ -3911,7 +4233,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
@@ -3936,335 +4258,338 @@
       <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
-        <v>29</v>
+      <c r="B65" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
         <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>400</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
         <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
         <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="H68" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
         <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G69" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>523</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>526</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>527</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>170</v>
       </c>
       <c r="G70" t="s">
-        <v>529</v>
+        <v>171</v>
       </c>
       <c r="H70" t="s">
-        <v>530</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>524</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>531</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>532</v>
+        <v>174</v>
       </c>
       <c r="F71" t="s">
-        <v>533</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
-        <v>534</v>
+        <v>162</v>
       </c>
       <c r="H71" t="s">
-        <v>535</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>536</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>537</v>
+        <v>174</v>
       </c>
       <c r="F72" t="s">
-        <v>538</v>
+        <v>161</v>
       </c>
       <c r="G72" t="s">
-        <v>539</v>
+        <v>162</v>
       </c>
       <c r="H72" t="s">
-        <v>540</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" t="s">
+        <v>179</v>
+      </c>
+      <c r="H73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>517</v>
+      </c>
+      <c r="C74" t="s">
+        <v>520</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>521</v>
+      </c>
+      <c r="F74" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" t="s">
+        <v>523</v>
+      </c>
+      <c r="H74" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>518</v>
       </c>
       <c r="C75" t="s">
-        <v>395</v>
+        <v>525</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>526</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>527</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>528</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>15</v>
+      <c r="B76" t="s">
+        <v>519</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>530</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>200</v>
+        <v>531</v>
       </c>
       <c r="F76" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>533</v>
       </c>
       <c r="H76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C77" t="s">
-        <v>410</v>
-      </c>
-      <c r="D77" t="s">
-        <v>409</v>
-      </c>
-      <c r="E77" t="s">
-        <v>411</v>
-      </c>
-      <c r="F77" t="s">
-        <v>412</v>
-      </c>
-      <c r="G77" t="s">
-        <v>413</v>
-      </c>
-      <c r="H77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" t="s">
-        <v>198</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
-      </c>
-      <c r="G78" t="s">
-        <v>183</v>
-      </c>
-      <c r="H78" t="s">
-        <v>75</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>189</v>
+        <v>55</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s">
-        <v>75</v>
+        <v>196</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4272,25 +4597,25 @@
         <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>387</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="F80" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="G80" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="H80" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4298,25 +4623,25 @@
         <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C81" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="G81" t="s">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4324,22 +4649,22 @@
         <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="D82" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="E82" t="s">
-        <v>417</v>
+        <v>198</v>
       </c>
       <c r="F82" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="G82" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="H82" t="s">
         <v>75</v>
@@ -4349,104 +4674,101 @@
       <c r="A83" t="s">
         <v>56</v>
       </c>
-      <c r="B83" t="s">
-        <v>30</v>
+      <c r="B83" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
-      </c>
-      <c r="E83" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="F83" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>56</v>
       </c>
-      <c r="B84" t="s">
-        <v>47</v>
+      <c r="B84" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="G84" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>56</v>
       </c>
-      <c r="B85" t="s">
-        <v>48</v>
+      <c r="B85" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="H85" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>56</v>
       </c>
-      <c r="B86" t="s">
-        <v>541</v>
+      <c r="B86" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="C86" t="s">
-        <v>546</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>545</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>547</v>
+        <v>411</v>
       </c>
       <c r="F86" t="s">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s">
-        <v>549</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>550</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4454,207 +4776,259 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>542</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>552</v>
+        <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
-        <v>553</v>
+        <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>554</v>
+        <v>193</v>
       </c>
       <c r="G87" t="s">
-        <v>555</v>
+        <v>194</v>
       </c>
       <c r="H87" t="s">
-        <v>556</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="B88" t="s">
-        <v>543</v>
+      <c r="B88" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="C88" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D88" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E88" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F88" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G88" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H88" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>56</v>
       </c>
-      <c r="B89" t="s">
-        <v>544</v>
+      <c r="B89" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="C89" t="s">
-        <v>564</v>
+        <v>725</v>
       </c>
       <c r="D89" t="s">
-        <v>563</v>
+        <v>724</v>
       </c>
       <c r="E89" t="s">
-        <v>565</v>
+        <v>711</v>
       </c>
       <c r="F89" t="s">
-        <v>566</v>
+        <v>726</v>
       </c>
       <c r="G89" t="s">
-        <v>567</v>
+        <v>727</v>
       </c>
       <c r="H89" t="s">
-        <v>568</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C90" t="s">
+        <v>730</v>
+      </c>
+      <c r="D90" t="s">
+        <v>729</v>
+      </c>
+      <c r="E90" t="s">
+        <v>731</v>
+      </c>
+      <c r="F90" t="s">
+        <v>732</v>
+      </c>
+      <c r="G90" t="s">
+        <v>733</v>
+      </c>
+      <c r="H90" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C91" t="s">
+        <v>735</v>
+      </c>
+      <c r="D91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" t="s">
+        <v>736</v>
+      </c>
+      <c r="F91" t="s">
+        <v>737</v>
+      </c>
+      <c r="G91" t="s">
+        <v>738</v>
+      </c>
+      <c r="H91" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>55</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="C92" t="s">
-        <v>395</v>
+        <v>741</v>
       </c>
       <c r="D92" t="s">
-        <v>196</v>
+        <v>740</v>
       </c>
       <c r="E92" t="s">
-        <v>197</v>
+        <v>742</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>743</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>744</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>222</v>
+      <c r="B93" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>747</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>746</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="G93" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="H93" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>390</v>
+      <c r="B94" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="C94" t="s">
-        <v>418</v>
+        <v>750</v>
       </c>
       <c r="D94" t="s">
-        <v>75</v>
+        <v>749</v>
       </c>
       <c r="E94" t="s">
-        <v>419</v>
+        <v>751</v>
       </c>
       <c r="F94" t="s">
-        <v>420</v>
+        <v>752</v>
       </c>
       <c r="G94" t="s">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s">
-        <v>577</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>391</v>
+      <c r="B95" t="s">
+        <v>47</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="G95" t="s">
-        <v>423</v>
+        <v>206</v>
       </c>
       <c r="H95" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>392</v>
+      <c r="B96" t="s">
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="E96" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="F96" t="s">
-        <v>424</v>
+        <v>211</v>
       </c>
       <c r="G96" t="s">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -4662,77 +5036,77 @@
         <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>535</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>540</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>539</v>
       </c>
       <c r="E97" t="s">
-        <v>230</v>
+        <v>541</v>
       </c>
       <c r="F97" t="s">
-        <v>231</v>
+        <v>542</v>
       </c>
       <c r="G97" t="s">
-        <v>232</v>
+        <v>543</v>
       </c>
       <c r="H97" t="s">
-        <v>104</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>536</v>
       </c>
       <c r="C98" t="s">
-        <v>233</v>
+        <v>546</v>
       </c>
       <c r="D98" t="s">
-        <v>75</v>
+        <v>545</v>
       </c>
       <c r="E98" t="s">
-        <v>234</v>
+        <v>547</v>
       </c>
       <c r="F98" t="s">
-        <v>235</v>
+        <v>548</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>549</v>
       </c>
       <c r="H98" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>537</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>552</v>
       </c>
       <c r="D99" t="s">
-        <v>75</v>
+        <v>551</v>
       </c>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>553</v>
       </c>
       <c r="F99" t="s">
-        <v>238</v>
+        <v>554</v>
       </c>
       <c r="G99" t="s">
-        <v>239</v>
+        <v>555</v>
       </c>
       <c r="H99" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -4740,744 +5114,533 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>538</v>
       </c>
       <c r="C100" t="s">
-        <v>240</v>
+        <v>558</v>
       </c>
       <c r="D100" t="s">
-        <v>75</v>
+        <v>557</v>
       </c>
       <c r="E100" t="s">
-        <v>241</v>
+        <v>559</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="G100" t="s">
-        <v>242</v>
+        <v>561</v>
       </c>
       <c r="H100" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>61</v>
-      </c>
-      <c r="B101" t="s">
-        <v>52</v>
-      </c>
-      <c r="C101" t="s">
-        <v>243</v>
-      </c>
-      <c r="D101" t="s">
-        <v>75</v>
-      </c>
-      <c r="E101" t="s">
-        <v>244</v>
-      </c>
-      <c r="F101" t="s">
-        <v>245</v>
-      </c>
-      <c r="G101" t="s">
-        <v>246</v>
-      </c>
-      <c r="H101" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B102" t="s">
-        <v>53</v>
-      </c>
-      <c r="C102" t="s">
-        <v>247</v>
-      </c>
-      <c r="D102" t="s">
-        <v>75</v>
-      </c>
-      <c r="E102" t="s">
-        <v>248</v>
-      </c>
-      <c r="F102" t="s">
-        <v>84</v>
-      </c>
-      <c r="G102" t="s">
-        <v>249</v>
-      </c>
-      <c r="H102" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>570</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>572</v>
+        <v>389</v>
+      </c>
+      <c r="D103" t="s">
+        <v>196</v>
       </c>
       <c r="E103" t="s">
-        <v>573</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>575</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>576</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>56</v>
       </c>
-      <c r="B104" t="s">
-        <v>571</v>
+      <c r="B104" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>585</v>
+        <v>227</v>
+      </c>
+      <c r="D104" t="s">
+        <v>75</v>
       </c>
       <c r="E104" t="s">
-        <v>586</v>
+        <v>228</v>
       </c>
       <c r="F104" t="s">
-        <v>587</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s">
-        <v>588</v>
+        <v>75</v>
       </c>
       <c r="H104" t="s">
-        <v>589</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>569</v>
+        <v>56</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C105" t="s">
+        <v>412</v>
+      </c>
+      <c r="D105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" t="s">
+        <v>413</v>
+      </c>
+      <c r="F105" t="s">
+        <v>414</v>
+      </c>
+      <c r="G105" t="s">
+        <v>415</v>
+      </c>
+      <c r="H105" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C106" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" t="s">
+        <v>228</v>
+      </c>
+      <c r="F106" t="s">
+        <v>416</v>
+      </c>
+      <c r="G106" t="s">
+        <v>417</v>
+      </c>
+      <c r="H106" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>55</v>
-      </c>
-      <c r="B107" t="s">
-        <v>393</v>
+        <v>56</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="C107" t="s">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>394</v>
+      <c r="B108" t="s">
+        <v>31</v>
       </c>
       <c r="C108" t="s">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="D108" t="s">
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>466</v>
+        <v>230</v>
       </c>
       <c r="F108" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="G108" t="s">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="H108" t="s">
-        <v>469</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>463</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>460</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>470</v>
+        <v>233</v>
       </c>
       <c r="D109" t="s">
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>471</v>
+        <v>234</v>
       </c>
       <c r="F109" t="s">
-        <v>472</v>
+        <v>235</v>
       </c>
       <c r="G109" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="H109" t="s">
-        <v>474</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>464</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>461</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>475</v>
+        <v>236</v>
       </c>
       <c r="D110" t="s">
         <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>476</v>
+        <v>237</v>
       </c>
       <c r="F110" t="s">
-        <v>477</v>
+        <v>238</v>
       </c>
       <c r="G110" t="s">
-        <v>478</v>
+        <v>239</v>
       </c>
       <c r="H110" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" t="s">
+        <v>241</v>
+      </c>
+      <c r="F111" t="s">
+        <v>82</v>
+      </c>
+      <c r="G111" t="s">
+        <v>242</v>
+      </c>
+      <c r="H111" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>61</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" t="s">
+        <v>244</v>
+      </c>
+      <c r="F112" t="s">
+        <v>245</v>
+      </c>
+      <c r="G112" t="s">
+        <v>246</v>
+      </c>
+      <c r="H112" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" t="s">
+        <v>247</v>
+      </c>
+      <c r="D113" t="s">
+        <v>75</v>
+      </c>
+      <c r="E113" t="s">
+        <v>248</v>
+      </c>
+      <c r="F113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G113" t="s">
+        <v>249</v>
+      </c>
+      <c r="H113" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>564</v>
+      </c>
+      <c r="C114" t="s">
+        <v>566</v>
+      </c>
+      <c r="E114" t="s">
+        <v>567</v>
+      </c>
+      <c r="F114" t="s">
+        <v>568</v>
+      </c>
+      <c r="G114" t="s">
+        <v>569</v>
+      </c>
+      <c r="H114" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>565</v>
+      </c>
+      <c r="C115" t="s">
+        <v>579</v>
+      </c>
+      <c r="E115" t="s">
+        <v>580</v>
+      </c>
+      <c r="F115" t="s">
+        <v>581</v>
+      </c>
+      <c r="G115" t="s">
+        <v>582</v>
+      </c>
+      <c r="H115" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" t="s">
+        <v>387</v>
+      </c>
+      <c r="C118" t="s">
+        <v>389</v>
+      </c>
+      <c r="D118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" t="s">
+        <v>197</v>
+      </c>
+      <c r="F118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119" t="s">
+        <v>459</v>
+      </c>
+      <c r="D119" t="s">
+        <v>75</v>
+      </c>
+      <c r="E119" t="s">
+        <v>460</v>
+      </c>
+      <c r="F119" t="s">
+        <v>461</v>
+      </c>
+      <c r="G119" t="s">
         <v>462</v>
       </c>
-      <c r="C111" t="s">
-        <v>480</v>
-      </c>
-      <c r="D111" t="s">
-        <v>75</v>
-      </c>
-      <c r="E111" t="s">
-        <v>481</v>
-      </c>
-      <c r="F111" t="s">
-        <v>482</v>
-      </c>
-      <c r="G111" t="s">
-        <v>483</v>
-      </c>
-      <c r="H111" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>457</v>
+      </c>
+      <c r="B120" t="s">
+        <v>454</v>
+      </c>
+      <c r="C120" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" t="s">
+        <v>465</v>
+      </c>
+      <c r="F120" t="s">
+        <v>466</v>
+      </c>
+      <c r="G120" t="s">
+        <v>467</v>
+      </c>
+      <c r="H120" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>469</v>
       </c>
       <c r="D121" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>470</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
+        <v>471</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>472</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
-      </c>
-      <c r="I121" t="s">
-        <v>256</v>
-      </c>
-      <c r="J121" t="s">
-        <v>37</v>
-      </c>
-      <c r="K121" t="s">
-        <v>19</v>
-      </c>
-      <c r="L121" t="s">
-        <v>267</v>
-      </c>
-      <c r="M121" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>56</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>364</v>
+        <v>61</v>
+      </c>
+      <c r="B122" t="s">
+        <v>456</v>
       </c>
       <c r="C122" t="s">
-        <v>365</v>
+        <v>474</v>
       </c>
       <c r="D122" t="s">
-        <v>426</v>
+        <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="F122" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="G122" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="H122" t="s">
-        <v>430</v>
-      </c>
-      <c r="I122" t="s">
-        <v>431</v>
-      </c>
-      <c r="J122" t="s">
-        <v>432</v>
-      </c>
-      <c r="K122" t="s">
-        <v>433</v>
-      </c>
-      <c r="L122" t="s">
-        <v>434</v>
-      </c>
-      <c r="M122" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>56</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C123" t="s">
-        <v>250</v>
-      </c>
-      <c r="D123" t="s">
-        <v>251</v>
-      </c>
-      <c r="E123" t="s">
-        <v>252</v>
-      </c>
-      <c r="F123" t="s">
-        <v>253</v>
-      </c>
-      <c r="G123" t="s">
-        <v>254</v>
-      </c>
-      <c r="H123" t="s">
-        <v>255</v>
-      </c>
-      <c r="I123" t="s">
-        <v>257</v>
-      </c>
-      <c r="J123" t="s">
-        <v>258</v>
-      </c>
-      <c r="K123" t="s">
-        <v>259</v>
-      </c>
-      <c r="L123" t="s">
-        <v>260</v>
-      </c>
-      <c r="M123" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>56</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C124" t="s">
-        <v>262</v>
-      </c>
-      <c r="D124" t="s">
-        <v>263</v>
-      </c>
-      <c r="E124" t="s">
-        <v>264</v>
-      </c>
-      <c r="F124" t="s">
-        <v>265</v>
-      </c>
-      <c r="G124" t="s">
-        <v>266</v>
-      </c>
-      <c r="H124" t="s">
-        <v>75</v>
-      </c>
-      <c r="I124" t="s">
-        <v>75</v>
-      </c>
-      <c r="J124" t="s">
-        <v>75</v>
-      </c>
-      <c r="K124" t="s">
-        <v>75</v>
-      </c>
-      <c r="L124" t="s">
-        <v>75</v>
-      </c>
-      <c r="M124" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>56</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C125" t="s">
-        <v>75</v>
-      </c>
-      <c r="D125" t="s">
-        <v>75</v>
-      </c>
-      <c r="E125" t="s">
-        <v>75</v>
-      </c>
-      <c r="F125" t="s">
-        <v>75</v>
-      </c>
-      <c r="G125" t="s">
-        <v>75</v>
-      </c>
-      <c r="H125" t="s">
-        <v>75</v>
-      </c>
-      <c r="I125" t="s">
-        <v>75</v>
-      </c>
-      <c r="J125" t="s">
-        <v>75</v>
-      </c>
-      <c r="K125" t="s">
-        <v>75</v>
-      </c>
-      <c r="L125" t="s">
-        <v>269</v>
-      </c>
-      <c r="M125" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>56</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C126" t="s">
-        <v>75</v>
-      </c>
-      <c r="D126" t="s">
-        <v>271</v>
-      </c>
-      <c r="E126" t="s">
-        <v>272</v>
-      </c>
-      <c r="F126" t="s">
-        <v>273</v>
-      </c>
-      <c r="G126" t="s">
-        <v>274</v>
-      </c>
-      <c r="H126" t="s">
-        <v>275</v>
-      </c>
-      <c r="I126" t="s">
-        <v>276</v>
-      </c>
-      <c r="J126" t="s">
-        <v>277</v>
-      </c>
-      <c r="K126" t="s">
-        <v>286</v>
-      </c>
-      <c r="L126" t="s">
-        <v>75</v>
-      </c>
-      <c r="M126" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C127" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" t="s">
-        <v>278</v>
-      </c>
-      <c r="E127" t="s">
-        <v>279</v>
-      </c>
-      <c r="F127" t="s">
-        <v>280</v>
-      </c>
-      <c r="G127" t="s">
-        <v>281</v>
-      </c>
-      <c r="H127" t="s">
-        <v>282</v>
-      </c>
-      <c r="I127" t="s">
-        <v>283</v>
-      </c>
-      <c r="J127" t="s">
-        <v>284</v>
-      </c>
-      <c r="K127" t="s">
-        <v>285</v>
-      </c>
-      <c r="L127" t="s">
-        <v>75</v>
-      </c>
-      <c r="M127" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>56</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" t="s">
-        <v>75</v>
-      </c>
-      <c r="E128" t="s">
-        <v>75</v>
-      </c>
-      <c r="F128" t="s">
-        <v>75</v>
-      </c>
-      <c r="G128" t="s">
-        <v>75</v>
-      </c>
-      <c r="H128" t="s">
-        <v>75</v>
-      </c>
-      <c r="I128" t="s">
-        <v>75</v>
-      </c>
-      <c r="J128" t="s">
-        <v>75</v>
-      </c>
-      <c r="K128" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>56</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C129" t="s">
-        <v>75</v>
-      </c>
-      <c r="D129" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" t="s">
-        <v>75</v>
-      </c>
-      <c r="F129" t="s">
-        <v>75</v>
-      </c>
-      <c r="G129" t="s">
-        <v>75</v>
-      </c>
-      <c r="H129" t="s">
-        <v>75</v>
-      </c>
-      <c r="I129" t="s">
-        <v>75</v>
-      </c>
-      <c r="J129" t="s">
-        <v>436</v>
-      </c>
-      <c r="K129" t="s">
-        <v>437</v>
-      </c>
-      <c r="L129" t="s">
-        <v>438</v>
-      </c>
-      <c r="M129" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>56</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C130" t="s">
-        <v>440</v>
-      </c>
-      <c r="D130" t="s">
-        <v>75</v>
-      </c>
-      <c r="E130" t="s">
-        <v>75</v>
-      </c>
-      <c r="F130" t="s">
-        <v>75</v>
-      </c>
-      <c r="G130" t="s">
-        <v>75</v>
-      </c>
-      <c r="H130" t="s">
-        <v>75</v>
-      </c>
-      <c r="I130" t="s">
-        <v>75</v>
-      </c>
-      <c r="J130" t="s">
-        <v>75</v>
-      </c>
-      <c r="K130" t="s">
-        <v>75</v>
-      </c>
-      <c r="L130" t="s">
-        <v>75</v>
-      </c>
-      <c r="M130" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>56</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C131" t="s">
-        <v>75</v>
-      </c>
-      <c r="D131" t="s">
-        <v>441</v>
-      </c>
-      <c r="E131" t="s">
-        <v>442</v>
-      </c>
-      <c r="F131" t="s">
-        <v>443</v>
-      </c>
-      <c r="G131" t="s">
-        <v>444</v>
-      </c>
-      <c r="H131" t="s">
-        <v>445</v>
-      </c>
-      <c r="I131" t="s">
-        <v>446</v>
-      </c>
-      <c r="J131" t="s">
-        <v>447</v>
-      </c>
-      <c r="K131" t="s">
-        <v>448</v>
-      </c>
-      <c r="L131" t="s">
-        <v>75</v>
-      </c>
-      <c r="M131" t="s">
-        <v>75</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>56</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>370</v>
+        <v>55</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>449</v>
+        <v>34</v>
       </c>
       <c r="E132" t="s">
-        <v>450</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>451</v>
+        <v>21</v>
       </c>
       <c r="G132" t="s">
-        <v>452</v>
+        <v>36</v>
       </c>
       <c r="H132" t="s">
-        <v>453</v>
+        <v>18</v>
       </c>
       <c r="I132" t="s">
-        <v>454</v>
+        <v>256</v>
       </c>
       <c r="J132" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="K132" t="s">
-        <v>456</v>
+        <v>19</v>
       </c>
       <c r="L132" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="M132" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -5485,40 +5648,40 @@
         <v>56</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C133" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D133" t="s">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="E133" t="s">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="F133" t="s">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="G133" t="s">
-        <v>75</v>
+        <v>423</v>
       </c>
       <c r="H133" t="s">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="I133" t="s">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="J133" t="s">
-        <v>75</v>
+        <v>426</v>
       </c>
       <c r="K133" t="s">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="L133" t="s">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="M133" t="s">
-        <v>75</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -5526,40 +5689,40 @@
         <v>56</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C134" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="D134" t="s">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="E134" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="H134" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="I134" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="J134" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="K134" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="L134" t="s">
-        <v>458</v>
+        <v>260</v>
       </c>
       <c r="M134" t="s">
-        <v>459</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -5567,22 +5730,22 @@
         <v>56</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="C135" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="D135" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="E135" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="G135" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="H135" t="s">
         <v>75</v>
@@ -5607,451 +5770,1142 @@
       <c r="A136" t="s">
         <v>56</v>
       </c>
-      <c r="B136" t="s">
-        <v>39</v>
+      <c r="B136" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="E136" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="F136" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="H136" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="I136" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="J136" t="s">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="K136" t="s">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="L136" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="M136" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>56</v>
       </c>
-      <c r="B137" t="s">
-        <v>32</v>
+      <c r="B137" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C137" t="s">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="D137" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="E137" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="F137" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G137" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="H137" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="I137" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J137" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="K137" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="L137" t="s">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="M137" t="s">
-        <v>307</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>61</v>
-      </c>
-      <c r="B138" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C138" t="s">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="D138" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="E138" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="F138" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="G138" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="H138" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="I138" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="J138" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="K138" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="L138" t="s">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="M138" t="s">
-        <v>318</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>323</v>
-      </c>
-      <c r="B139" t="s">
-        <v>324</v>
+        <v>56</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="C139" t="s">
-        <v>341</v>
+        <v>75</v>
       </c>
       <c r="D139" t="s">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="E139" t="s">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="F139" t="s">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="H139" t="s">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="I139" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="J139" t="s">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="K139" t="s">
-        <v>357</v>
-      </c>
-      <c r="L139" t="s">
-        <v>359</v>
-      </c>
-      <c r="M139" t="s">
-        <v>361</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>56</v>
       </c>
-      <c r="B140" t="s">
-        <v>325</v>
+      <c r="B140" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="C140" t="s">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="D140" t="s">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="E140" t="s">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="F140" t="s">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="G140" t="s">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="H140" t="s">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="I140" t="s">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="J140" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="K140" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="L140" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="M140" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>56</v>
       </c>
-      <c r="B141" t="s">
-        <v>624</v>
+      <c r="B141" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C141" t="s">
-        <v>630</v>
+        <v>434</v>
       </c>
       <c r="D141" t="s">
-        <v>631</v>
+        <v>75</v>
       </c>
       <c r="E141" t="s">
-        <v>632</v>
+        <v>75</v>
       </c>
       <c r="F141" t="s">
-        <v>633</v>
+        <v>75</v>
       </c>
       <c r="G141" t="s">
-        <v>634</v>
+        <v>75</v>
       </c>
       <c r="H141" t="s">
-        <v>635</v>
+        <v>75</v>
       </c>
       <c r="I141" t="s">
-        <v>636</v>
+        <v>75</v>
       </c>
       <c r="J141" t="s">
-        <v>637</v>
+        <v>75</v>
       </c>
       <c r="K141" t="s">
-        <v>638</v>
+        <v>75</v>
       </c>
       <c r="L141" t="s">
-        <v>639</v>
+        <v>75</v>
       </c>
       <c r="M141" t="s">
-        <v>640</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>56</v>
       </c>
-      <c r="B142" t="s">
-        <v>625</v>
+      <c r="B142" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="C142" t="s">
-        <v>663</v>
+        <v>75</v>
       </c>
       <c r="D142" t="s">
-        <v>664</v>
+        <v>435</v>
       </c>
       <c r="E142" t="s">
-        <v>665</v>
+        <v>436</v>
       </c>
       <c r="F142" t="s">
-        <v>666</v>
+        <v>437</v>
       </c>
       <c r="G142" t="s">
-        <v>667</v>
+        <v>438</v>
       </c>
       <c r="H142" t="s">
-        <v>668</v>
+        <v>439</v>
       </c>
       <c r="I142" t="s">
-        <v>669</v>
+        <v>440</v>
       </c>
       <c r="J142" t="s">
-        <v>670</v>
+        <v>441</v>
       </c>
       <c r="K142" t="s">
-        <v>671</v>
+        <v>442</v>
       </c>
       <c r="L142" t="s">
-        <v>672</v>
+        <v>75</v>
       </c>
       <c r="M142" t="s">
-        <v>673</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>56</v>
       </c>
-      <c r="B143" t="s">
-        <v>626</v>
+      <c r="B143" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="C143" t="s">
-        <v>685</v>
+        <v>75</v>
       </c>
       <c r="D143" t="s">
-        <v>686</v>
+        <v>443</v>
       </c>
       <c r="E143" t="s">
-        <v>687</v>
+        <v>444</v>
       </c>
       <c r="F143" t="s">
-        <v>688</v>
+        <v>445</v>
       </c>
       <c r="G143" t="s">
-        <v>645</v>
+        <v>446</v>
       </c>
       <c r="H143" t="s">
-        <v>689</v>
+        <v>447</v>
       </c>
       <c r="I143" t="s">
-        <v>690</v>
+        <v>448</v>
       </c>
       <c r="J143" t="s">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="K143" t="s">
-        <v>692</v>
+        <v>450</v>
       </c>
       <c r="L143" t="s">
-        <v>693</v>
+        <v>75</v>
       </c>
       <c r="M143" t="s">
-        <v>651</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>56</v>
       </c>
-      <c r="B144" t="s">
-        <v>627</v>
+      <c r="B144" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="C144" t="s">
-        <v>674</v>
+        <v>451</v>
       </c>
       <c r="D144" t="s">
-        <v>675</v>
+        <v>75</v>
       </c>
       <c r="E144" t="s">
-        <v>676</v>
+        <v>75</v>
       </c>
       <c r="F144" t="s">
-        <v>677</v>
+        <v>75</v>
       </c>
       <c r="G144" t="s">
-        <v>678</v>
+        <v>75</v>
       </c>
       <c r="H144" t="s">
-        <v>679</v>
+        <v>75</v>
       </c>
       <c r="I144" t="s">
-        <v>680</v>
+        <v>75</v>
       </c>
       <c r="J144" t="s">
-        <v>681</v>
+        <v>75</v>
       </c>
       <c r="K144" t="s">
-        <v>682</v>
+        <v>75</v>
       </c>
       <c r="L144" t="s">
-        <v>683</v>
+        <v>75</v>
       </c>
       <c r="M144" t="s">
-        <v>684</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>56</v>
       </c>
-      <c r="B145" t="s">
-        <v>628</v>
+      <c r="B145" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="C145" t="s">
-        <v>641</v>
+        <v>75</v>
       </c>
       <c r="D145" t="s">
-        <v>642</v>
+        <v>75</v>
       </c>
       <c r="E145" t="s">
-        <v>643</v>
+        <v>75</v>
       </c>
       <c r="F145" t="s">
-        <v>644</v>
+        <v>75</v>
       </c>
       <c r="G145" t="s">
-        <v>645</v>
+        <v>75</v>
       </c>
       <c r="H145" t="s">
-        <v>646</v>
+        <v>75</v>
       </c>
       <c r="I145" t="s">
-        <v>647</v>
+        <v>75</v>
       </c>
       <c r="J145" t="s">
-        <v>648</v>
+        <v>75</v>
       </c>
       <c r="K145" t="s">
-        <v>649</v>
+        <v>75</v>
       </c>
       <c r="L145" t="s">
-        <v>650</v>
+        <v>452</v>
       </c>
       <c r="M145" t="s">
-        <v>651</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>56</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C146" t="s">
+        <v>75</v>
+      </c>
+      <c r="D146" t="s">
+        <v>75</v>
+      </c>
+      <c r="E146" t="s">
+        <v>75</v>
+      </c>
+      <c r="F146" t="s">
+        <v>75</v>
+      </c>
+      <c r="G146" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s">
+        <v>75</v>
+      </c>
+      <c r="I146" t="s">
+        <v>75</v>
+      </c>
+      <c r="J146" t="s">
+        <v>75</v>
+      </c>
+      <c r="K146" t="s">
+        <v>75</v>
+      </c>
+      <c r="L146" t="s">
+        <v>75</v>
+      </c>
+      <c r="M146" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" t="s">
+        <v>287</v>
+      </c>
+      <c r="D147" t="s">
+        <v>288</v>
+      </c>
+      <c r="E147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" t="s">
+        <v>289</v>
+      </c>
+      <c r="G147" t="s">
+        <v>290</v>
+      </c>
+      <c r="H147" t="s">
+        <v>291</v>
+      </c>
+      <c r="I147" t="s">
+        <v>292</v>
+      </c>
+      <c r="J147" t="s">
+        <v>293</v>
+      </c>
+      <c r="K147" t="s">
+        <v>294</v>
+      </c>
+      <c r="L147" t="s">
+        <v>295</v>
+      </c>
+      <c r="M147" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" t="s">
+        <v>297</v>
+      </c>
+      <c r="D148" t="s">
+        <v>298</v>
+      </c>
+      <c r="E148" t="s">
+        <v>299</v>
+      </c>
+      <c r="F148" t="s">
+        <v>300</v>
+      </c>
+      <c r="G148" t="s">
+        <v>301</v>
+      </c>
+      <c r="H148" t="s">
+        <v>302</v>
+      </c>
+      <c r="I148" t="s">
+        <v>303</v>
+      </c>
+      <c r="J148" t="s">
+        <v>304</v>
+      </c>
+      <c r="K148" t="s">
+        <v>305</v>
+      </c>
+      <c r="L148" t="s">
+        <v>306</v>
+      </c>
+      <c r="M148" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" t="s">
+        <v>308</v>
+      </c>
+      <c r="D149" t="s">
+        <v>309</v>
+      </c>
+      <c r="E149" t="s">
+        <v>310</v>
+      </c>
+      <c r="F149" t="s">
+        <v>311</v>
+      </c>
+      <c r="G149" t="s">
+        <v>312</v>
+      </c>
+      <c r="H149" t="s">
+        <v>313</v>
+      </c>
+      <c r="I149" t="s">
+        <v>314</v>
+      </c>
+      <c r="J149" t="s">
+        <v>315</v>
+      </c>
+      <c r="K149" t="s">
+        <v>316</v>
+      </c>
+      <c r="L149" t="s">
+        <v>317</v>
+      </c>
+      <c r="M149" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" t="s">
+        <v>337</v>
+      </c>
+      <c r="E150" t="s">
+        <v>339</v>
+      </c>
+      <c r="F150" t="s">
+        <v>341</v>
+      </c>
+      <c r="G150" t="s">
+        <v>343</v>
+      </c>
+      <c r="H150" t="s">
+        <v>345</v>
+      </c>
+      <c r="I150" t="s">
+        <v>347</v>
+      </c>
+      <c r="J150" t="s">
+        <v>349</v>
+      </c>
+      <c r="K150" t="s">
+        <v>351</v>
+      </c>
+      <c r="L150" t="s">
+        <v>353</v>
+      </c>
+      <c r="M150" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" t="s">
+        <v>336</v>
+      </c>
+      <c r="D151" t="s">
+        <v>338</v>
+      </c>
+      <c r="E151" t="s">
+        <v>340</v>
+      </c>
+      <c r="F151" t="s">
+        <v>342</v>
+      </c>
+      <c r="G151" t="s">
+        <v>344</v>
+      </c>
+      <c r="H151" t="s">
+        <v>346</v>
+      </c>
+      <c r="I151" t="s">
+        <v>348</v>
+      </c>
+      <c r="J151" t="s">
+        <v>350</v>
+      </c>
+      <c r="K151" t="s">
+        <v>352</v>
+      </c>
+      <c r="L151" t="s">
+        <v>354</v>
+      </c>
+      <c r="M151" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152" t="s">
+        <v>618</v>
+      </c>
+      <c r="C152" t="s">
+        <v>624</v>
+      </c>
+      <c r="D152" t="s">
+        <v>625</v>
+      </c>
+      <c r="E152" t="s">
+        <v>626</v>
+      </c>
+      <c r="F152" t="s">
+        <v>627</v>
+      </c>
+      <c r="G152" t="s">
+        <v>628</v>
+      </c>
+      <c r="H152" t="s">
         <v>629</v>
       </c>
-      <c r="C146" t="s">
+      <c r="I152" t="s">
+        <v>630</v>
+      </c>
+      <c r="J152" t="s">
+        <v>631</v>
+      </c>
+      <c r="K152" t="s">
+        <v>632</v>
+      </c>
+      <c r="L152" t="s">
+        <v>633</v>
+      </c>
+      <c r="M152" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" t="s">
+        <v>619</v>
+      </c>
+      <c r="C153" t="s">
+        <v>657</v>
+      </c>
+      <c r="D153" t="s">
+        <v>658</v>
+      </c>
+      <c r="E153" t="s">
+        <v>659</v>
+      </c>
+      <c r="F153" t="s">
+        <v>660</v>
+      </c>
+      <c r="G153" t="s">
+        <v>661</v>
+      </c>
+      <c r="H153" t="s">
+        <v>662</v>
+      </c>
+      <c r="I153" t="s">
+        <v>663</v>
+      </c>
+      <c r="J153" t="s">
+        <v>664</v>
+      </c>
+      <c r="K153" t="s">
+        <v>665</v>
+      </c>
+      <c r="L153" t="s">
+        <v>666</v>
+      </c>
+      <c r="M153" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>620</v>
+      </c>
+      <c r="C154" t="s">
+        <v>679</v>
+      </c>
+      <c r="D154" t="s">
+        <v>680</v>
+      </c>
+      <c r="E154" t="s">
+        <v>681</v>
+      </c>
+      <c r="F154" t="s">
+        <v>682</v>
+      </c>
+      <c r="G154" t="s">
+        <v>639</v>
+      </c>
+      <c r="H154" t="s">
+        <v>683</v>
+      </c>
+      <c r="I154" t="s">
+        <v>684</v>
+      </c>
+      <c r="J154" t="s">
+        <v>685</v>
+      </c>
+      <c r="K154" t="s">
+        <v>686</v>
+      </c>
+      <c r="L154" t="s">
+        <v>687</v>
+      </c>
+      <c r="M154" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>621</v>
+      </c>
+      <c r="C155" t="s">
+        <v>668</v>
+      </c>
+      <c r="D155" t="s">
+        <v>669</v>
+      </c>
+      <c r="E155" t="s">
+        <v>670</v>
+      </c>
+      <c r="F155" t="s">
+        <v>671</v>
+      </c>
+      <c r="G155" t="s">
+        <v>672</v>
+      </c>
+      <c r="H155" t="s">
+        <v>673</v>
+      </c>
+      <c r="I155" t="s">
+        <v>674</v>
+      </c>
+      <c r="J155" t="s">
+        <v>675</v>
+      </c>
+      <c r="K155" t="s">
+        <v>676</v>
+      </c>
+      <c r="L155" t="s">
+        <v>677</v>
+      </c>
+      <c r="M155" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" t="s">
+        <v>622</v>
+      </c>
+      <c r="C156" t="s">
+        <v>635</v>
+      </c>
+      <c r="D156" t="s">
+        <v>636</v>
+      </c>
+      <c r="E156" t="s">
+        <v>637</v>
+      </c>
+      <c r="F156" t="s">
+        <v>638</v>
+      </c>
+      <c r="G156" t="s">
+        <v>639</v>
+      </c>
+      <c r="H156" t="s">
+        <v>640</v>
+      </c>
+      <c r="I156" t="s">
+        <v>641</v>
+      </c>
+      <c r="J156" t="s">
+        <v>642</v>
+      </c>
+      <c r="K156" t="s">
+        <v>643</v>
+      </c>
+      <c r="L156" t="s">
+        <v>644</v>
+      </c>
+      <c r="M156" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>56</v>
+      </c>
+      <c r="B157" t="s">
+        <v>623</v>
+      </c>
+      <c r="C157" t="s">
+        <v>646</v>
+      </c>
+      <c r="D157" t="s">
+        <v>647</v>
+      </c>
+      <c r="E157" t="s">
+        <v>648</v>
+      </c>
+      <c r="F157" t="s">
+        <v>649</v>
+      </c>
+      <c r="G157" t="s">
+        <v>650</v>
+      </c>
+      <c r="H157" t="s">
+        <v>651</v>
+      </c>
+      <c r="I157" t="s">
         <v>652</v>
       </c>
-      <c r="D146" t="s">
+      <c r="J157" t="s">
         <v>653</v>
       </c>
-      <c r="E146" t="s">
+      <c r="K157" t="s">
         <v>654</v>
       </c>
-      <c r="F146" t="s">
+      <c r="L157" t="s">
         <v>655</v>
       </c>
-      <c r="G146" t="s">
+      <c r="M157" t="s">
         <v>656</v>
       </c>
-      <c r="H146" t="s">
-        <v>657</v>
-      </c>
-      <c r="I146" t="s">
-        <v>658</v>
-      </c>
-      <c r="J146" t="s">
-        <v>659</v>
-      </c>
-      <c r="K146" t="s">
-        <v>660</v>
-      </c>
-      <c r="L146" t="s">
-        <v>661</v>
-      </c>
-      <c r="M146" t="s">
-        <v>662</v>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" t="s">
+        <v>700</v>
+      </c>
+      <c r="C158" t="s">
+        <v>753</v>
+      </c>
+      <c r="D158" t="s">
+        <v>754</v>
+      </c>
+      <c r="E158" t="s">
+        <v>755</v>
+      </c>
+      <c r="F158" t="s">
+        <v>341</v>
+      </c>
+      <c r="G158" t="s">
+        <v>756</v>
+      </c>
+      <c r="H158" t="s">
+        <v>757</v>
+      </c>
+      <c r="I158" t="s">
+        <v>758</v>
+      </c>
+      <c r="J158" t="s">
+        <v>759</v>
+      </c>
+      <c r="K158" t="s">
+        <v>760</v>
+      </c>
+      <c r="L158" t="s">
+        <v>761</v>
+      </c>
+      <c r="M158" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" t="s">
+        <v>701</v>
+      </c>
+      <c r="C159" t="s">
+        <v>763</v>
+      </c>
+      <c r="D159" t="s">
+        <v>764</v>
+      </c>
+      <c r="E159" t="s">
+        <v>765</v>
+      </c>
+      <c r="F159" t="s">
+        <v>682</v>
+      </c>
+      <c r="G159" t="s">
+        <v>672</v>
+      </c>
+      <c r="H159" t="s">
+        <v>673</v>
+      </c>
+      <c r="I159" t="s">
+        <v>766</v>
+      </c>
+      <c r="J159" t="s">
+        <v>675</v>
+      </c>
+      <c r="K159" t="s">
+        <v>676</v>
+      </c>
+      <c r="L159" t="s">
+        <v>767</v>
+      </c>
+      <c r="M159" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" t="s">
+        <v>702</v>
+      </c>
+      <c r="C160" t="s">
+        <v>769</v>
+      </c>
+      <c r="D160" t="s">
+        <v>420</v>
+      </c>
+      <c r="E160" t="s">
+        <v>770</v>
+      </c>
+      <c r="F160" t="s">
+        <v>771</v>
+      </c>
+      <c r="G160" t="s">
+        <v>772</v>
+      </c>
+      <c r="H160" t="s">
+        <v>773</v>
+      </c>
+      <c r="I160" t="s">
+        <v>774</v>
+      </c>
+      <c r="J160" t="s">
+        <v>775</v>
+      </c>
+      <c r="K160" t="s">
+        <v>776</v>
+      </c>
+      <c r="L160" t="s">
+        <v>777</v>
+      </c>
+      <c r="M160" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" t="s">
+        <v>703</v>
+      </c>
+      <c r="C161" t="s">
+        <v>779</v>
+      </c>
+      <c r="D161" t="s">
+        <v>780</v>
+      </c>
+      <c r="E161" t="s">
+        <v>781</v>
+      </c>
+      <c r="F161" t="s">
+        <v>782</v>
+      </c>
+      <c r="G161" t="s">
+        <v>783</v>
+      </c>
+      <c r="H161" t="s">
+        <v>784</v>
+      </c>
+      <c r="I161" t="s">
+        <v>785</v>
+      </c>
+      <c r="J161" t="s">
+        <v>786</v>
+      </c>
+      <c r="K161" t="s">
+        <v>787</v>
+      </c>
+      <c r="L161" t="s">
+        <v>788</v>
+      </c>
+      <c r="M161" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" t="s">
+        <v>704</v>
+      </c>
+      <c r="C162" t="s">
+        <v>790</v>
+      </c>
+      <c r="D162" t="s">
+        <v>791</v>
+      </c>
+      <c r="E162" t="s">
+        <v>792</v>
+      </c>
+      <c r="F162" t="s">
+        <v>793</v>
+      </c>
+      <c r="G162" t="s">
+        <v>794</v>
+      </c>
+      <c r="H162" t="s">
+        <v>795</v>
+      </c>
+      <c r="I162" t="s">
+        <v>796</v>
+      </c>
+      <c r="J162" t="s">
+        <v>797</v>
+      </c>
+      <c r="K162" t="s">
+        <v>798</v>
+      </c>
+      <c r="L162" t="s">
+        <v>799</v>
+      </c>
+      <c r="M162" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>705</v>
+      </c>
+      <c r="C163" t="s">
+        <v>336</v>
+      </c>
+      <c r="D163" t="s">
+        <v>338</v>
+      </c>
+      <c r="E163" t="s">
+        <v>340</v>
+      </c>
+      <c r="F163" t="s">
+        <v>342</v>
+      </c>
+      <c r="G163" t="s">
+        <v>344</v>
+      </c>
+      <c r="H163" t="s">
+        <v>346</v>
+      </c>
+      <c r="I163" t="s">
+        <v>348</v>
+      </c>
+      <c r="J163" t="s">
+        <v>350</v>
+      </c>
+      <c r="K163" t="s">
+        <v>352</v>
+      </c>
+      <c r="L163" t="s">
+        <v>767</v>
+      </c>
+      <c r="M163" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/genome_annotation_and_characterization/conserved_motifs.xlsx
+++ b/genome_annotation_and_characterization/conserved_motifs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/genome_annotation_and_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788ECE53-E00D-434F-9A38-20147DD1F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F862EA2-E0A9-D345-860A-BFB12D267021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29420" yWindow="-1980" windowWidth="14100" windowHeight="17360" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="22700" windowHeight="17360" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2467,12 +2467,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2487,9 +2493,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2807,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31531B08-202E-D840-BAC2-584C47BCD981}">
   <dimension ref="A2:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K166" sqref="K166"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4027,7 +4034,7 @@
       <c r="B54" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>710</v>
       </c>
       <c r="D54" t="s">
@@ -4053,7 +4060,7 @@
       <c r="B55" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>714</v>
       </c>
       <c r="D55" t="s">
@@ -4076,10 +4083,10 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>552</v>
       </c>
       <c r="D56" t="s">
@@ -4801,7 +4808,7 @@
       <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>692</v>
       </c>
       <c r="C88" t="s">
@@ -4827,7 +4834,7 @@
       <c r="A89" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>693</v>
       </c>
       <c r="C89" t="s">
@@ -4853,7 +4860,7 @@
       <c r="A90" t="s">
         <v>56</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>694</v>
       </c>
       <c r="C90" t="s">
@@ -4879,7 +4886,7 @@
       <c r="A91" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>695</v>
       </c>
       <c r="C91" t="s">
@@ -4905,7 +4912,7 @@
       <c r="A92" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>696</v>
       </c>
       <c r="C92" t="s">
@@ -4931,7 +4938,7 @@
       <c r="A93" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>697</v>
       </c>
       <c r="C93" t="s">
@@ -4957,7 +4964,7 @@
       <c r="A94" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>698</v>
       </c>
       <c r="C94" t="s">
@@ -5832,7 +5839,7 @@
       <c r="H137" t="s">
         <v>275</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="2" t="s">
         <v>276</v>
       </c>
       <c r="J137" t="s">
@@ -5858,34 +5865,34 @@
       <c r="C138" t="s">
         <v>75</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K138" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L138" t="s">
-        <v>75</v>
-      </c>
-      <c r="M138" t="s">
+      <c r="L138" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M138" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6078,7 +6085,7 @@
       <c r="J143" t="s">
         <v>449</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="2" t="s">
         <v>450</v>
       </c>
       <c r="L143" t="s">
@@ -6259,7 +6266,7 @@
       <c r="B148" t="s">
         <v>32</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D148" t="s">
@@ -6300,7 +6307,7 @@
       <c r="B149" t="s">
         <v>54</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D149" t="s">
@@ -6341,7 +6348,7 @@
       <c r="B150" t="s">
         <v>323</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D150" t="s">
@@ -6470,7 +6477,7 @@
       <c r="D153" t="s">
         <v>658</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>659</v>
       </c>
       <c r="F153" t="s">
@@ -6511,7 +6518,7 @@
       <c r="D154" t="s">
         <v>680</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>681</v>
       </c>
       <c r="F154" t="s">
@@ -6590,7 +6597,7 @@
       <c r="C156" t="s">
         <v>635</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>636</v>
       </c>
       <c r="E156" t="s">
@@ -6631,7 +6638,7 @@
       <c r="C157" t="s">
         <v>646</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="2" t="s">
         <v>647</v>
       </c>
       <c r="E157" t="s">
@@ -6649,7 +6656,7 @@
       <c r="I157" t="s">
         <v>652</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="2" t="s">
         <v>653</v>
       </c>
       <c r="K157" t="s">
@@ -6669,7 +6676,7 @@
       <c r="B158" t="s">
         <v>700</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>753</v>
       </c>
       <c r="D158" t="s">
@@ -6710,7 +6717,7 @@
       <c r="B159" t="s">
         <v>701</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>763</v>
       </c>
       <c r="D159" t="s">
@@ -6792,7 +6799,7 @@
       <c r="B161" t="s">
         <v>703</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>779</v>
       </c>
       <c r="D161" t="s">
@@ -6833,7 +6840,7 @@
       <c r="B162" t="s">
         <v>704</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>790</v>
       </c>
       <c r="D162" t="s">

--- a/genome_annotation_and_characterization/conserved_motifs.xlsx
+++ b/genome_annotation_and_characterization/conserved_motifs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/genome_annotation_and_characterization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/genome_annotation_and_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F862EA2-E0A9-D345-860A-BFB12D267021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB928C9-64A5-0C40-AAF7-A93C5B353545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="22700" windowHeight="17360" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
+    <workbookView xWindow="31180" yWindow="-1980" windowWidth="15140" windowHeight="20080" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="831">
   <si>
     <t>mischivirus</t>
   </si>
@@ -1211,15 +1211,9 @@
     <t>G(510)FCG</t>
   </si>
   <si>
-    <t>G(43)SPGTGK</t>
-  </si>
-  <si>
     <t>G(4)FCG</t>
   </si>
   <si>
-    <t>G(320)SPGTGK</t>
-  </si>
-  <si>
     <t>G(1681)PPGTGKS</t>
   </si>
   <si>
@@ -2439,13 +2433,109 @@
   </si>
   <si>
     <t>G(1709)WS</t>
+  </si>
+  <si>
+    <t>PP711948.1</t>
+  </si>
+  <si>
+    <t>G(1347)KPGQGKS</t>
+  </si>
+  <si>
+    <t>G(1837)YCG, K(1852)ICG</t>
+  </si>
+  <si>
+    <t>K(2046)DELR</t>
+  </si>
+  <si>
+    <t>Y(2212)GDD</t>
+  </si>
+  <si>
+    <t>F(2259)LKR</t>
+  </si>
+  <si>
+    <t>PV788826</t>
+  </si>
+  <si>
+    <t>G(1410)KPGQGKS</t>
+  </si>
+  <si>
+    <t>G(1900)FCG, K(1915)ICG</t>
+  </si>
+  <si>
+    <t>Y(2275)GDD</t>
+  </si>
+  <si>
+    <t>F(2322)LKR</t>
+  </si>
+  <si>
+    <t>G(43)SPGTGKS</t>
+  </si>
+  <si>
+    <t>G(320)SPGTGKS</t>
+  </si>
+  <si>
+    <t>PV788825</t>
+  </si>
+  <si>
+    <t>G(1555)SPGSGKS</t>
+  </si>
+  <si>
+    <t>G(1271)VCG</t>
+  </si>
+  <si>
+    <t>F(2436)LKR</t>
+  </si>
+  <si>
+    <t>PV788824</t>
+  </si>
+  <si>
+    <t>G(473)PPGVGKS</t>
+  </si>
+  <si>
+    <t>K(946)KKGK</t>
+  </si>
+  <si>
+    <t>W(1193)KGL</t>
+  </si>
+  <si>
+    <t>K(1354)DELR</t>
+  </si>
+  <si>
+    <t>D(1429)YSKWDST</t>
+  </si>
+  <si>
+    <t>G(1484)LPSG</t>
+  </si>
+  <si>
+    <t>Y(1532)GDD</t>
+  </si>
+  <si>
+    <t>PP712005.1</t>
+  </si>
+  <si>
+    <t>G(475)PPGVGKS</t>
+  </si>
+  <si>
+    <t>K(945)GKNK</t>
+  </si>
+  <si>
+    <t>G(1145)SCG</t>
+  </si>
+  <si>
+    <t>W(1192)KGL</t>
+  </si>
+  <si>
+    <t>K(1352)DELR</t>
+  </si>
+  <si>
+    <t>D(1427)YSKWDST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2462,6 +2552,27 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2493,11 +2604,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2812,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31531B08-202E-D840-BAC2-584C47BCD981}">
-  <dimension ref="A2:M163"/>
+  <dimension ref="A2:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M165" sqref="M165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2871,7 +2987,7 @@
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
@@ -2913,7 +3029,7 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
@@ -2966,25 +3082,25 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F7" t="s">
         <v>599</v>
       </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>600</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>601</v>
-      </c>
-      <c r="G7" t="s">
-        <v>602</v>
-      </c>
-      <c r="H7" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2992,25 +3108,25 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F8" t="s">
         <v>604</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>605</v>
-      </c>
-      <c r="F8" t="s">
-        <v>606</v>
       </c>
       <c r="G8" t="s">
         <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3018,25 +3134,25 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>607</v>
+      </c>
+      <c r="F9" t="s">
         <v>608</v>
       </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>609</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>610</v>
-      </c>
-      <c r="G9" t="s">
-        <v>611</v>
-      </c>
-      <c r="H9" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3044,25 +3160,25 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>612</v>
+      </c>
+      <c r="F10" t="s">
         <v>613</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>614</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>615</v>
-      </c>
-      <c r="G10" t="s">
-        <v>616</v>
-      </c>
-      <c r="H10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3121,7 +3237,7 @@
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
@@ -3200,25 +3316,25 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C18" t="s">
         <v>584</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>585</v>
+      </c>
+      <c r="F18" t="s">
         <v>586</v>
       </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>587</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>588</v>
-      </c>
-      <c r="G18" t="s">
-        <v>589</v>
-      </c>
-      <c r="H18" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3226,19 +3342,19 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C19" t="s">
+        <v>589</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F19" t="s">
         <v>591</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>592</v>
-      </c>
-      <c r="F19" t="s">
-        <v>593</v>
       </c>
       <c r="G19" t="s">
         <v>232</v>
@@ -3277,7 +3393,7 @@
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -3353,28 +3469,28 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>806</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>807</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>808</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3382,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3408,25 +3524,25 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3434,51 +3550,51 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>485</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
         <v>483</v>
       </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>484</v>
-      </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>487</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>488</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3486,25 +3602,25 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31" t="s">
         <v>481</v>
       </c>
-      <c r="C31" t="s">
-        <v>489</v>
-      </c>
       <c r="D31" t="s">
         <v>75</v>
       </c>
       <c r="E31" t="s">
+        <v>482</v>
+      </c>
+      <c r="F31" t="s">
         <v>484</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>485</v>
+      </c>
+      <c r="H31" t="s">
         <v>486</v>
-      </c>
-      <c r="G31" t="s">
-        <v>490</v>
-      </c>
-      <c r="H31" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3512,25 +3628,25 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" t="s">
+        <v>487</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
         <v>482</v>
       </c>
-      <c r="C32" t="s">
-        <v>492</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" t="s">
-        <v>493</v>
-      </c>
       <c r="F32" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G32" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H32" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3538,103 +3654,109 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>699</v>
+        <v>480</v>
       </c>
       <c r="C33" t="s">
+        <v>490</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>491</v>
+      </c>
+      <c r="F33" t="s">
+        <v>492</v>
+      </c>
+      <c r="G33" t="s">
+        <v>493</v>
+      </c>
+      <c r="H33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C34" t="s">
+        <v>704</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>705</v>
+      </c>
+      <c r="F34" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" t="s">
         <v>706</v>
       </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" t="s">
-        <v>707</v>
-      </c>
-      <c r="F33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" t="s">
-        <v>708</v>
-      </c>
-      <c r="H33" t="s">
-        <v>75</v>
+      <c r="H34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="C35" t="s">
+        <v>800</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>801</v>
+      </c>
+      <c r="F35" t="s">
+        <v>802</v>
+      </c>
+      <c r="G35" t="s">
+        <v>803</v>
+      </c>
+      <c r="H35" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>389</v>
-      </c>
-      <c r="D36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" t="s">
-        <v>130</v>
-      </c>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>389</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3642,25 +3764,25 @@
         <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,51 +3790,51 @@
         <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>142</v>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3720,19 +3842,19 @@
         <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
         <v>75</v>
@@ -3746,13 +3868,13 @@
         <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
         <v>75</v>
@@ -3772,7 +3894,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>369</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -3781,10 +3903,10 @@
         <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="G44" t="s">
         <v>75</v>
@@ -3798,13 +3920,13 @@
         <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="E45" t="s">
         <v>75</v>
@@ -3824,13 +3946,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
         <v>75</v>
@@ -3850,10 +3972,10 @@
         <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>810</v>
       </c>
       <c r="D47" t="s">
         <v>75</v>
@@ -3875,130 +3997,130 @@
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
-        <v>28</v>
+      <c r="B48" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>811</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>391</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>500</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
-        <v>501</v>
+        <v>220</v>
       </c>
       <c r="F51" t="s">
-        <v>502</v>
+        <v>153</v>
       </c>
       <c r="G51" t="s">
-        <v>503</v>
+        <v>154</v>
       </c>
       <c r="H51" t="s">
-        <v>504</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>497</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>506</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>505</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>507</v>
+        <v>221</v>
       </c>
       <c r="F52" t="s">
-        <v>508</v>
+        <v>157</v>
       </c>
       <c r="G52" t="s">
-        <v>509</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>510</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4006,207 +4128,207 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" t="s">
         <v>498</v>
       </c>
-      <c r="C53" t="s">
-        <v>512</v>
-      </c>
       <c r="D53" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="E53" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F53" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G53" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="H53" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>710</v>
+      <c r="B54" t="s">
+        <v>495</v>
+      </c>
+      <c r="C54" t="s">
+        <v>504</v>
       </c>
       <c r="D54" t="s">
-        <v>709</v>
+        <v>503</v>
       </c>
       <c r="E54" t="s">
-        <v>711</v>
+        <v>505</v>
       </c>
       <c r="F54" t="s">
-        <v>712</v>
+        <v>506</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>507</v>
       </c>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>714</v>
+      <c r="B55" t="s">
+        <v>496</v>
+      </c>
+      <c r="C55" t="s">
+        <v>510</v>
       </c>
       <c r="D55" t="s">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="E55" t="s">
-        <v>715</v>
+        <v>511</v>
       </c>
       <c r="F55" t="s">
-        <v>716</v>
+        <v>512</v>
       </c>
       <c r="G55" t="s">
-        <v>717</v>
+        <v>513</v>
       </c>
       <c r="H55" t="s">
-        <v>718</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>552</v>
+      <c r="B56" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>708</v>
       </c>
       <c r="D56" t="s">
-        <v>551</v>
+        <v>707</v>
       </c>
       <c r="E56" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="F56" t="s">
-        <v>554</v>
+        <v>710</v>
       </c>
       <c r="G56" t="s">
-        <v>555</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>556</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>691</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D57" t="s">
+        <v>711</v>
+      </c>
+      <c r="E57" t="s">
+        <v>713</v>
+      </c>
+      <c r="F57" t="s">
+        <v>714</v>
+      </c>
+      <c r="G57" t="s">
+        <v>715</v>
+      </c>
+      <c r="H57" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D58" t="s">
+        <v>549</v>
+      </c>
+      <c r="E58" t="s">
+        <v>551</v>
+      </c>
+      <c r="F58" t="s">
+        <v>552</v>
+      </c>
+      <c r="G58" t="s">
+        <v>553</v>
+      </c>
+      <c r="H58" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>689</v>
+      </c>
+      <c r="C59" t="s">
+        <v>718</v>
+      </c>
+      <c r="D59" t="s">
+        <v>717</v>
+      </c>
+      <c r="E59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F59" t="s">
         <v>720</v>
       </c>
-      <c r="D57" t="s">
-        <v>719</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="G59" t="s">
+        <v>246</v>
+      </c>
+      <c r="H59" t="s">
         <v>721</v>
-      </c>
-      <c r="F57" t="s">
-        <v>722</v>
-      </c>
-      <c r="G57" t="s">
-        <v>246</v>
-      </c>
-      <c r="H57" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>389</v>
-      </c>
-      <c r="D60" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" t="s">
-        <v>174</v>
-      </c>
-      <c r="F61" t="s">
-        <v>161</v>
-      </c>
-      <c r="G61" t="s">
-        <v>162</v>
-      </c>
-      <c r="H61" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>373</v>
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="F62" t="s">
-        <v>396</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>398</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4214,25 +4336,25 @@
         <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>395</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4240,7 +4362,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
@@ -4266,10 +4388,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
         <v>75</v>
@@ -4292,19 +4414,19 @@
         <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>397</v>
       </c>
       <c r="D66" t="s">
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s">
         <v>75</v>
@@ -4318,7 +4440,7 @@
         <v>56</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
         <v>75</v>
@@ -4327,10 +4449,10 @@
         <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="G67" t="s">
         <v>75</v>
@@ -4344,7 +4466,7 @@
         <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -4369,182 +4491,182 @@
       <c r="A69" t="s">
         <v>56</v>
       </c>
-      <c r="B69" t="s">
-        <v>29</v>
+      <c r="B69" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
         <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="H69" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G70" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H70" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H71" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H72" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F73" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G73" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>520</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>521</v>
+        <v>174</v>
       </c>
       <c r="F74" t="s">
-        <v>522</v>
+        <v>161</v>
       </c>
       <c r="G74" t="s">
-        <v>523</v>
+        <v>162</v>
       </c>
       <c r="H74" t="s">
-        <v>524</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>518</v>
+        <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>525</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
         <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>526</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
-        <v>527</v>
+        <v>178</v>
       </c>
       <c r="G75" t="s">
-        <v>528</v>
+        <v>179</v>
       </c>
       <c r="H75" t="s">
-        <v>529</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4552,103 +4674,103 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
+        <v>515</v>
+      </c>
+      <c r="C76" t="s">
+        <v>518</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
         <v>519</v>
       </c>
-      <c r="C76" t="s">
+      <c r="F76" t="s">
+        <v>520</v>
+      </c>
+      <c r="G76" t="s">
+        <v>521</v>
+      </c>
+      <c r="H76" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>516</v>
+      </c>
+      <c r="C77" t="s">
+        <v>523</v>
+      </c>
+      <c r="D77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>524</v>
+      </c>
+      <c r="F77" t="s">
+        <v>525</v>
+      </c>
+      <c r="G77" t="s">
+        <v>526</v>
+      </c>
+      <c r="H77" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>517</v>
+      </c>
+      <c r="C78" t="s">
+        <v>528</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>529</v>
+      </c>
+      <c r="F78" t="s">
         <v>530</v>
       </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="G78" t="s">
         <v>531</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H78" t="s">
         <v>532</v>
-      </c>
-      <c r="G76" t="s">
-        <v>533</v>
-      </c>
-      <c r="H76" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
-        <v>389</v>
-      </c>
-      <c r="D79" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" t="s">
-        <v>200</v>
-      </c>
-      <c r="F80" t="s">
-        <v>186</v>
-      </c>
-      <c r="G80" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>380</v>
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>196</v>
       </c>
       <c r="E81" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="F81" t="s">
-        <v>406</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>407</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4656,25 +4778,25 @@
         <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>402</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G82" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H82" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4682,22 +4804,25 @@
         <v>56</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="D83" t="s">
-        <v>75</v>
+        <v>401</v>
+      </c>
+      <c r="E83" t="s">
+        <v>403</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="H83" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4705,22 +4830,22 @@
         <v>56</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="H84" t="s">
         <v>75</v>
@@ -4731,15 +4856,12 @@
         <v>56</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>382</v>
+        <v>189</v>
       </c>
       <c r="C85" t="s">
-        <v>410</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>409</v>
-      </c>
-      <c r="E85" t="s">
         <v>75</v>
       </c>
       <c r="F85" t="s">
@@ -4757,7 +4879,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C86" t="s">
         <v>75</v>
@@ -4766,7 +4888,7 @@
         <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s">
         <v>75</v>
@@ -4782,78 +4904,78 @@
       <c r="A87" t="s">
         <v>56</v>
       </c>
-      <c r="B87" t="s">
-        <v>30</v>
+      <c r="B87" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="D87" t="s">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="B88" t="s">
-        <v>692</v>
+      <c r="B88" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="C88" t="s">
-        <v>546</v>
+        <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>545</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>547</v>
+        <v>409</v>
       </c>
       <c r="F88" t="s">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="G88" t="s">
-        <v>549</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>550</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>56</v>
       </c>
-      <c r="B89" t="s">
-        <v>693</v>
+      <c r="B89" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="C89" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="D89" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="E89" t="s">
-        <v>711</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>726</v>
+        <v>182</v>
       </c>
       <c r="G89" t="s">
-        <v>727</v>
+        <v>183</v>
       </c>
       <c r="H89" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4861,25 +4983,25 @@
         <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>694</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>730</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>729</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>731</v>
+        <v>201</v>
       </c>
       <c r="F90" t="s">
-        <v>732</v>
+        <v>193</v>
       </c>
       <c r="G90" t="s">
-        <v>733</v>
+        <v>194</v>
       </c>
       <c r="H90" t="s">
-        <v>734</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4887,25 +5009,25 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C91" t="s">
-        <v>735</v>
+        <v>544</v>
       </c>
       <c r="D91" t="s">
-        <v>215</v>
+        <v>543</v>
       </c>
       <c r="E91" t="s">
-        <v>736</v>
+        <v>545</v>
       </c>
       <c r="F91" t="s">
-        <v>737</v>
+        <v>546</v>
       </c>
       <c r="G91" t="s">
-        <v>738</v>
+        <v>547</v>
       </c>
       <c r="H91" t="s">
-        <v>739</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4913,25 +5035,25 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C92" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="D92" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="E92" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="F92" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="G92" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="H92" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4939,25 +5061,25 @@
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C93" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="D93" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="E93" t="s">
-        <v>216</v>
+        <v>729</v>
       </c>
       <c r="F93" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="G93" t="s">
-        <v>328</v>
+        <v>731</v>
       </c>
       <c r="H93" t="s">
-        <v>329</v>
+        <v>732</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -4965,25 +5087,25 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C94" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="D94" t="s">
-        <v>749</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F94" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="G94" t="s">
-        <v>85</v>
+        <v>736</v>
       </c>
       <c r="H94" t="s">
-        <v>86</v>
+        <v>737</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -4991,25 +5113,25 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>694</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>739</v>
       </c>
       <c r="D95" t="s">
-        <v>202</v>
+        <v>738</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>740</v>
       </c>
       <c r="F95" t="s">
-        <v>205</v>
+        <v>741</v>
       </c>
       <c r="G95" t="s">
-        <v>206</v>
+        <v>742</v>
       </c>
       <c r="H95" t="s">
-        <v>207</v>
+        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5017,25 +5139,25 @@
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>695</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>745</v>
       </c>
       <c r="D96" t="s">
-        <v>208</v>
+        <v>744</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>746</v>
       </c>
       <c r="G96" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="H96" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5043,25 +5165,25 @@
         <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>535</v>
+        <v>696</v>
       </c>
       <c r="C97" t="s">
-        <v>540</v>
+        <v>748</v>
       </c>
       <c r="D97" t="s">
-        <v>539</v>
+        <v>747</v>
       </c>
       <c r="E97" t="s">
-        <v>541</v>
+        <v>749</v>
       </c>
       <c r="F97" t="s">
-        <v>542</v>
+        <v>750</v>
       </c>
       <c r="G97" t="s">
-        <v>543</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s">
-        <v>544</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5069,25 +5191,25 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>536</v>
+        <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>546</v>
+        <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>545</v>
+        <v>202</v>
       </c>
       <c r="E98" t="s">
-        <v>547</v>
+        <v>204</v>
       </c>
       <c r="F98" t="s">
-        <v>548</v>
+        <v>205</v>
       </c>
       <c r="G98" t="s">
-        <v>549</v>
+        <v>206</v>
       </c>
       <c r="H98" t="s">
-        <v>550</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5095,25 +5217,25 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>537</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>552</v>
+        <v>209</v>
       </c>
       <c r="D99" t="s">
-        <v>551</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
-        <v>553</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>554</v>
+        <v>211</v>
       </c>
       <c r="G99" t="s">
-        <v>555</v>
+        <v>212</v>
       </c>
       <c r="H99" t="s">
-        <v>556</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5121,129 +5243,129 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
+        <v>533</v>
+      </c>
+      <c r="C100" t="s">
         <v>538</v>
       </c>
-      <c r="C100" t="s">
-        <v>558</v>
-      </c>
       <c r="D100" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="E100" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F100" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="G100" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="H100" t="s">
-        <v>562</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C101" t="s">
+        <v>544</v>
+      </c>
+      <c r="D101" t="s">
+        <v>543</v>
+      </c>
+      <c r="E101" t="s">
+        <v>545</v>
+      </c>
+      <c r="F101" t="s">
+        <v>546</v>
+      </c>
+      <c r="G101" t="s">
+        <v>547</v>
+      </c>
+      <c r="H101" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>535</v>
+      </c>
+      <c r="C102" t="s">
+        <v>550</v>
+      </c>
+      <c r="D102" t="s">
+        <v>549</v>
+      </c>
+      <c r="E102" t="s">
+        <v>551</v>
+      </c>
+      <c r="F102" t="s">
+        <v>552</v>
+      </c>
+      <c r="G102" t="s">
+        <v>553</v>
+      </c>
+      <c r="H102" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="D103" t="s">
-        <v>196</v>
+        <v>555</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>558</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>559</v>
       </c>
       <c r="H103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C104" t="s">
-        <v>227</v>
-      </c>
-      <c r="D104" t="s">
-        <v>75</v>
-      </c>
-      <c r="E104" t="s">
-        <v>228</v>
-      </c>
-      <c r="F104" t="s">
-        <v>75</v>
-      </c>
-      <c r="G104" t="s">
-        <v>75</v>
-      </c>
-      <c r="H104" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C105" t="s">
-        <v>412</v>
-      </c>
-      <c r="D105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" t="s">
-        <v>413</v>
-      </c>
-      <c r="F105" t="s">
-        <v>414</v>
-      </c>
-      <c r="G105" t="s">
-        <v>415</v>
-      </c>
-      <c r="H105" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>385</v>
+        <v>55</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>227</v>
+        <v>389</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="E106" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>417</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>572</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5251,181 +5373,181 @@
         <v>56</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="D107" t="s">
         <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="F107" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>56</v>
       </c>
-      <c r="B108" t="s">
-        <v>31</v>
+      <c r="B108" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="D108" t="s">
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>230</v>
+        <v>411</v>
       </c>
       <c r="F108" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="G108" t="s">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="H108" t="s">
-        <v>104</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D109" t="s">
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F109" t="s">
-        <v>235</v>
+        <v>414</v>
       </c>
       <c r="G109" t="s">
-        <v>103</v>
+        <v>415</v>
       </c>
       <c r="H109" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B110" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="D110" t="s">
         <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="F110" t="s">
-        <v>238</v>
+        <v>416</v>
       </c>
       <c r="G110" t="s">
-        <v>239</v>
+        <v>417</v>
       </c>
       <c r="H110" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>56</v>
       </c>
-      <c r="B111" t="s">
-        <v>51</v>
+      <c r="B111" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D111" t="s">
         <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F111" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="G111" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H111" t="s">
-        <v>576</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D112" t="s">
         <v>75</v>
       </c>
       <c r="E112" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F112" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G112" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="H112" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
         <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="G113" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H113" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -5433,466 +5555,421 @@
         <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>564</v>
+        <v>51</v>
       </c>
       <c r="C114" t="s">
-        <v>566</v>
+        <v>240</v>
+      </c>
+      <c r="D114" t="s">
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>567</v>
+        <v>241</v>
       </c>
       <c r="F114" t="s">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="G114" t="s">
-        <v>569</v>
+        <v>242</v>
       </c>
       <c r="H114" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>565</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>579</v>
+        <v>243</v>
+      </c>
+      <c r="D115" t="s">
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>580</v>
+        <v>244</v>
       </c>
       <c r="F115" t="s">
-        <v>581</v>
+        <v>245</v>
       </c>
       <c r="G115" t="s">
-        <v>582</v>
+        <v>246</v>
       </c>
       <c r="H115" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>563</v>
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" t="s">
+        <v>248</v>
+      </c>
+      <c r="F116" t="s">
+        <v>84</v>
+      </c>
+      <c r="G116" t="s">
+        <v>249</v>
+      </c>
+      <c r="H116" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>562</v>
+      </c>
+      <c r="C117" t="s">
+        <v>564</v>
+      </c>
+      <c r="E117" t="s">
+        <v>565</v>
+      </c>
+      <c r="F117" t="s">
+        <v>566</v>
+      </c>
+      <c r="G117" t="s">
+        <v>567</v>
+      </c>
+      <c r="H117" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B118" t="s">
-        <v>387</v>
+        <v>563</v>
       </c>
       <c r="C118" t="s">
-        <v>389</v>
-      </c>
-      <c r="D118" t="s">
-        <v>196</v>
+        <v>577</v>
       </c>
       <c r="E118" t="s">
-        <v>197</v>
+        <v>578</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>579</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>580</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C119" t="s">
-        <v>459</v>
-      </c>
-      <c r="D119" t="s">
-        <v>75</v>
-      </c>
-      <c r="E119" t="s">
-        <v>460</v>
-      </c>
-      <c r="F119" t="s">
-        <v>461</v>
-      </c>
-      <c r="G119" t="s">
-        <v>462</v>
-      </c>
-      <c r="H119" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>457</v>
-      </c>
-      <c r="B120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C120" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" t="s">
-        <v>75</v>
-      </c>
-      <c r="E120" t="s">
-        <v>465</v>
-      </c>
-      <c r="F120" t="s">
-        <v>466</v>
-      </c>
-      <c r="G120" t="s">
-        <v>467</v>
-      </c>
-      <c r="H120" t="s">
-        <v>468</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>458</v>
+        <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="C121" t="s">
-        <v>469</v>
+        <v>389</v>
       </c>
       <c r="D121" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="E121" t="s">
-        <v>470</v>
+        <v>197</v>
       </c>
       <c r="F121" t="s">
-        <v>471</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>473</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" t="s">
+        <v>457</v>
+      </c>
+      <c r="D122" t="s">
+        <v>75</v>
+      </c>
+      <c r="E122" t="s">
+        <v>458</v>
+      </c>
+      <c r="F122" t="s">
+        <v>459</v>
+      </c>
+      <c r="G122" t="s">
+        <v>460</v>
+      </c>
+      <c r="H122" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>455</v>
+      </c>
+      <c r="B123" t="s">
+        <v>452</v>
+      </c>
+      <c r="C123" t="s">
+        <v>462</v>
+      </c>
+      <c r="D123" t="s">
+        <v>75</v>
+      </c>
+      <c r="E123" t="s">
+        <v>463</v>
+      </c>
+      <c r="F123" t="s">
+        <v>464</v>
+      </c>
+      <c r="G123" t="s">
+        <v>465</v>
+      </c>
+      <c r="H123" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>456</v>
+      </c>
+      <c r="B124" t="s">
+        <v>453</v>
+      </c>
+      <c r="C124" t="s">
+        <v>467</v>
+      </c>
+      <c r="D124" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" t="s">
+        <v>468</v>
+      </c>
+      <c r="F124" t="s">
+        <v>469</v>
+      </c>
+      <c r="G124" t="s">
+        <v>470</v>
+      </c>
+      <c r="H124" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>61</v>
       </c>
-      <c r="B122" t="s">
-        <v>456</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B125" t="s">
+        <v>454</v>
+      </c>
+      <c r="C125" t="s">
+        <v>472</v>
+      </c>
+      <c r="D125" t="s">
+        <v>75</v>
+      </c>
+      <c r="E125" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" t="s">
         <v>474</v>
       </c>
-      <c r="D122" t="s">
-        <v>75</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="G125" t="s">
         <v>475</v>
       </c>
-      <c r="F122" t="s">
+      <c r="H125" t="s">
         <v>476</v>
-      </c>
-      <c r="G122" t="s">
-        <v>477</v>
-      </c>
-      <c r="H122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>55</v>
-      </c>
-      <c r="B132" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" t="s">
-        <v>33</v>
-      </c>
-      <c r="D132" t="s">
-        <v>34</v>
-      </c>
-      <c r="E132" t="s">
-        <v>35</v>
-      </c>
-      <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
-      <c r="H132" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" t="s">
-        <v>256</v>
-      </c>
-      <c r="J132" t="s">
-        <v>37</v>
-      </c>
-      <c r="K132" t="s">
-        <v>19</v>
-      </c>
-      <c r="L132" t="s">
-        <v>267</v>
-      </c>
-      <c r="M132" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>56</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C133" t="s">
-        <v>359</v>
-      </c>
-      <c r="D133" t="s">
-        <v>420</v>
-      </c>
-      <c r="E133" t="s">
-        <v>421</v>
-      </c>
-      <c r="F133" t="s">
-        <v>422</v>
-      </c>
-      <c r="G133" t="s">
-        <v>423</v>
-      </c>
-      <c r="H133" t="s">
-        <v>424</v>
-      </c>
-      <c r="I133" t="s">
-        <v>425</v>
-      </c>
-      <c r="J133" t="s">
-        <v>426</v>
-      </c>
-      <c r="K133" t="s">
-        <v>427</v>
-      </c>
-      <c r="L133" t="s">
-        <v>428</v>
-      </c>
-      <c r="M133" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>56</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C134" t="s">
-        <v>250</v>
-      </c>
-      <c r="D134" t="s">
-        <v>251</v>
-      </c>
-      <c r="E134" t="s">
-        <v>252</v>
-      </c>
-      <c r="F134" t="s">
-        <v>253</v>
-      </c>
-      <c r="G134" t="s">
-        <v>254</v>
-      </c>
-      <c r="H134" t="s">
-        <v>255</v>
-      </c>
-      <c r="I134" t="s">
-        <v>257</v>
-      </c>
-      <c r="J134" t="s">
-        <v>258</v>
-      </c>
-      <c r="K134" t="s">
-        <v>259</v>
-      </c>
-      <c r="L134" t="s">
-        <v>260</v>
-      </c>
-      <c r="M134" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>56</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>223</v>
+        <v>55</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="E135" t="s">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="H135" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I135" t="s">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="J135" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="K135" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="L135" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="M135" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>56</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>224</v>
+      <c r="B136" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C136" t="s">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="D136" t="s">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="E136" t="s">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="F136" t="s">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="G136" t="s">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="H136" t="s">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="I136" t="s">
-        <v>75</v>
+        <v>423</v>
       </c>
       <c r="J136" t="s">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="K136" t="s">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="L136" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="M136" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>225</v>
+      <c r="B137" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C137" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="D137" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="E137" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F137" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G137" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="H137" t="s">
-        <v>275</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>276</v>
+        <v>255</v>
+      </c>
+      <c r="I137" t="s">
+        <v>257</v>
       </c>
       <c r="J137" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="K137" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="L137" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="M137" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>226</v>
+      <c r="B138" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>75</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M138" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D138" t="s">
+        <v>263</v>
+      </c>
+      <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" t="s">
+        <v>266</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138" t="s">
+        <v>75</v>
+      </c>
+      <c r="J138" t="s">
+        <v>75</v>
+      </c>
+      <c r="K138" t="s">
+        <v>75</v>
+      </c>
+      <c r="L138" t="s">
+        <v>75</v>
+      </c>
+      <c r="M138" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5901,7 +5978,7 @@
         <v>56</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
         <v>75</v>
@@ -5929,6 +6006,12 @@
       </c>
       <c r="K139" t="s">
         <v>75</v>
+      </c>
+      <c r="L139" t="s">
+        <v>269</v>
+      </c>
+      <c r="M139" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -5936,40 +6019,40 @@
         <v>56</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="C140" t="s">
         <v>75</v>
       </c>
       <c r="D140" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="E140" t="s">
-        <v>75</v>
-      </c>
-      <c r="F140" t="s">
-        <v>75</v>
-      </c>
-      <c r="G140" t="s">
-        <v>75</v>
-      </c>
-      <c r="H140" t="s">
-        <v>75</v>
-      </c>
-      <c r="I140" t="s">
-        <v>75</v>
-      </c>
-      <c r="J140" t="s">
-        <v>430</v>
-      </c>
-      <c r="K140" t="s">
-        <v>431</v>
+        <v>272</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="L140" t="s">
-        <v>432</v>
+        <v>75</v>
       </c>
       <c r="M140" t="s">
-        <v>433</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -5977,34 +6060,34 @@
         <v>56</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C141" t="s">
-        <v>434</v>
-      </c>
-      <c r="D141" t="s">
-        <v>75</v>
+        <v>75</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E141" t="s">
-        <v>75</v>
-      </c>
-      <c r="F141" t="s">
-        <v>75</v>
-      </c>
-      <c r="G141" t="s">
-        <v>75</v>
-      </c>
-      <c r="H141" t="s">
-        <v>75</v>
-      </c>
-      <c r="I141" t="s">
-        <v>75</v>
-      </c>
-      <c r="J141" t="s">
-        <v>75</v>
-      </c>
-      <c r="K141" t="s">
-        <v>75</v>
+        <v>279</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="L141" t="s">
         <v>75</v>
@@ -6017,40 +6100,34 @@
       <c r="A142" t="s">
         <v>56</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>363</v>
+      <c r="B142" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C142" t="s">
         <v>75</v>
       </c>
       <c r="D142" t="s">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="E142" t="s">
-        <v>436</v>
-      </c>
-      <c r="F142" t="s">
-        <v>437</v>
-      </c>
-      <c r="G142" t="s">
-        <v>438</v>
-      </c>
-      <c r="H142" t="s">
-        <v>439</v>
-      </c>
-      <c r="I142" t="s">
-        <v>440</v>
-      </c>
-      <c r="J142" t="s">
-        <v>441</v>
-      </c>
-      <c r="K142" t="s">
-        <v>442</v>
-      </c>
-      <c r="L142" t="s">
-        <v>75</v>
-      </c>
-      <c r="M142" t="s">
+        <v>75</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6058,41 +6135,41 @@
       <c r="A143" t="s">
         <v>56</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>364</v>
+      <c r="B143" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="C143" t="s">
         <v>75</v>
       </c>
       <c r="D143" t="s">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="E143" t="s">
-        <v>444</v>
-      </c>
-      <c r="F143" t="s">
-        <v>445</v>
-      </c>
-      <c r="G143" t="s">
-        <v>446</v>
-      </c>
-      <c r="H143" t="s">
-        <v>447</v>
-      </c>
-      <c r="I143" t="s">
-        <v>448</v>
-      </c>
-      <c r="J143" t="s">
-        <v>449</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>450</v>
+        <v>75</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="L143" t="s">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="M143" t="s">
-        <v>75</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -6100,10 +6177,10 @@
         <v>56</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D144" t="s">
         <v>75</v>
@@ -6111,22 +6188,22 @@
       <c r="E144" t="s">
         <v>75</v>
       </c>
-      <c r="F144" t="s">
-        <v>75</v>
-      </c>
-      <c r="G144" t="s">
-        <v>75</v>
-      </c>
-      <c r="H144" t="s">
-        <v>75</v>
-      </c>
-      <c r="I144" t="s">
-        <v>75</v>
-      </c>
-      <c r="J144" t="s">
-        <v>75</v>
-      </c>
-      <c r="K144" t="s">
+      <c r="F144" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K144" s="6" t="s">
         <v>75</v>
       </c>
       <c r="L144" t="s">
@@ -6141,40 +6218,40 @@
         <v>56</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C145" t="s">
         <v>75</v>
       </c>
       <c r="D145" t="s">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="E145" t="s">
-        <v>75</v>
-      </c>
-      <c r="F145" t="s">
-        <v>75</v>
-      </c>
-      <c r="G145" t="s">
-        <v>75</v>
-      </c>
-      <c r="H145" t="s">
-        <v>75</v>
-      </c>
-      <c r="I145" t="s">
-        <v>75</v>
-      </c>
-      <c r="J145" t="s">
-        <v>75</v>
-      </c>
-      <c r="K145" t="s">
-        <v>75</v>
+        <v>434</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="L145" t="s">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="M145" t="s">
-        <v>453</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -6182,34 +6259,34 @@
         <v>56</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C146" t="s">
         <v>75</v>
       </c>
       <c r="D146" t="s">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="E146" t="s">
-        <v>75</v>
-      </c>
-      <c r="F146" t="s">
-        <v>75</v>
-      </c>
-      <c r="G146" t="s">
-        <v>75</v>
-      </c>
-      <c r="H146" t="s">
-        <v>75</v>
-      </c>
-      <c r="I146" t="s">
-        <v>75</v>
-      </c>
-      <c r="J146" t="s">
-        <v>75</v>
-      </c>
-      <c r="K146" t="s">
-        <v>75</v>
+        <v>442</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="L146" t="s">
         <v>75</v>
@@ -6222,164 +6299,164 @@
       <c r="A147" t="s">
         <v>56</v>
       </c>
-      <c r="B147" t="s">
-        <v>39</v>
+      <c r="B147" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="D147" t="s">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="E147" t="s">
-        <v>278</v>
-      </c>
-      <c r="F147" t="s">
-        <v>289</v>
-      </c>
-      <c r="G147" t="s">
-        <v>290</v>
-      </c>
-      <c r="H147" t="s">
-        <v>291</v>
-      </c>
-      <c r="I147" t="s">
-        <v>292</v>
-      </c>
-      <c r="J147" t="s">
-        <v>293</v>
-      </c>
-      <c r="K147" t="s">
-        <v>294</v>
+        <v>75</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="L147" t="s">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="M147" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>56</v>
       </c>
-      <c r="B148" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>297</v>
+      <c r="B148" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C148" t="s">
+        <v>75</v>
       </c>
       <c r="D148" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="E148" t="s">
-        <v>299</v>
-      </c>
-      <c r="F148" t="s">
-        <v>300</v>
-      </c>
-      <c r="G148" t="s">
-        <v>301</v>
-      </c>
-      <c r="H148" t="s">
-        <v>302</v>
-      </c>
-      <c r="I148" t="s">
-        <v>303</v>
-      </c>
-      <c r="J148" t="s">
-        <v>304</v>
-      </c>
-      <c r="K148" t="s">
-        <v>305</v>
+        <v>75</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="L148" t="s">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="M148" t="s">
-        <v>307</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>61</v>
-      </c>
-      <c r="B149" t="s">
-        <v>54</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>308</v>
+        <v>56</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C149" t="s">
+        <v>75</v>
       </c>
       <c r="D149" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="E149" t="s">
-        <v>310</v>
-      </c>
-      <c r="F149" t="s">
-        <v>311</v>
-      </c>
-      <c r="G149" t="s">
-        <v>312</v>
-      </c>
-      <c r="H149" t="s">
-        <v>313</v>
-      </c>
-      <c r="I149" t="s">
-        <v>314</v>
-      </c>
-      <c r="J149" t="s">
-        <v>315</v>
-      </c>
-      <c r="K149" t="s">
-        <v>316</v>
+        <v>75</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="L149" t="s">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="M149" t="s">
-        <v>318</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>322</v>
-      </c>
-      <c r="B150" t="s">
-        <v>323</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>335</v>
+        <v>56</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C150" t="s">
+        <v>817</v>
       </c>
       <c r="D150" t="s">
-        <v>337</v>
+        <v>818</v>
       </c>
       <c r="E150" t="s">
-        <v>339</v>
-      </c>
-      <c r="F150" t="s">
-        <v>341</v>
-      </c>
-      <c r="G150" t="s">
-        <v>343</v>
-      </c>
-      <c r="H150" t="s">
-        <v>345</v>
-      </c>
-      <c r="I150" t="s">
-        <v>347</v>
-      </c>
-      <c r="J150" t="s">
-        <v>349</v>
-      </c>
-      <c r="K150" t="s">
-        <v>351</v>
+        <v>340</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>823</v>
       </c>
       <c r="L150" t="s">
-        <v>353</v>
+        <v>642</v>
       </c>
       <c r="M150" t="s">
-        <v>355</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -6387,163 +6464,163 @@
         <v>56</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="D151" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="E151" t="s">
-        <v>340</v>
-      </c>
-      <c r="F151" t="s">
-        <v>342</v>
-      </c>
-      <c r="G151" t="s">
-        <v>344</v>
-      </c>
-      <c r="H151" t="s">
-        <v>346</v>
-      </c>
-      <c r="I151" t="s">
-        <v>348</v>
-      </c>
-      <c r="J151" t="s">
-        <v>350</v>
-      </c>
-      <c r="K151" t="s">
-        <v>352</v>
+        <v>278</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="L151" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="M151" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>56</v>
       </c>
-      <c r="B152" t="s">
-        <v>618</v>
-      </c>
-      <c r="C152" t="s">
-        <v>624</v>
-      </c>
-      <c r="D152" t="s">
-        <v>625</v>
-      </c>
-      <c r="E152" t="s">
-        <v>626</v>
-      </c>
-      <c r="F152" t="s">
-        <v>627</v>
-      </c>
-      <c r="G152" t="s">
-        <v>628</v>
-      </c>
-      <c r="H152" t="s">
-        <v>629</v>
-      </c>
-      <c r="I152" t="s">
-        <v>630</v>
-      </c>
-      <c r="J152" t="s">
-        <v>631</v>
-      </c>
-      <c r="K152" t="s">
-        <v>632</v>
+      <c r="B152" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="L152" t="s">
-        <v>633</v>
+        <v>306</v>
       </c>
       <c r="M152" t="s">
-        <v>634</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>619</v>
-      </c>
-      <c r="C153" t="s">
-        <v>657</v>
-      </c>
-      <c r="D153" t="s">
-        <v>658</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="F153" t="s">
-        <v>660</v>
-      </c>
-      <c r="G153" t="s">
-        <v>661</v>
-      </c>
-      <c r="H153" t="s">
-        <v>662</v>
-      </c>
-      <c r="I153" t="s">
-        <v>663</v>
-      </c>
-      <c r="J153" t="s">
-        <v>664</v>
-      </c>
-      <c r="K153" t="s">
-        <v>665</v>
+        <v>54</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="L153" t="s">
-        <v>666</v>
+        <v>317</v>
       </c>
       <c r="M153" t="s">
-        <v>667</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="B154" t="s">
-        <v>620</v>
-      </c>
-      <c r="C154" t="s">
-        <v>679</v>
-      </c>
-      <c r="D154" t="s">
-        <v>680</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F154" t="s">
-        <v>682</v>
-      </c>
-      <c r="G154" t="s">
-        <v>639</v>
-      </c>
-      <c r="H154" t="s">
-        <v>683</v>
-      </c>
-      <c r="I154" t="s">
-        <v>684</v>
-      </c>
-      <c r="J154" t="s">
-        <v>685</v>
-      </c>
-      <c r="K154" t="s">
-        <v>686</v>
+        <v>323</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="L154" t="s">
-        <v>687</v>
+        <v>353</v>
       </c>
       <c r="M154" t="s">
-        <v>645</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -6551,40 +6628,40 @@
         <v>56</v>
       </c>
       <c r="B155" t="s">
-        <v>621</v>
-      </c>
-      <c r="C155" t="s">
-        <v>668</v>
-      </c>
-      <c r="D155" t="s">
-        <v>669</v>
-      </c>
-      <c r="E155" t="s">
-        <v>670</v>
-      </c>
-      <c r="F155" t="s">
-        <v>671</v>
-      </c>
-      <c r="G155" t="s">
-        <v>672</v>
-      </c>
-      <c r="H155" t="s">
-        <v>673</v>
-      </c>
-      <c r="I155" t="s">
-        <v>674</v>
-      </c>
-      <c r="J155" t="s">
-        <v>675</v>
-      </c>
-      <c r="K155" t="s">
-        <v>676</v>
+        <v>324</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="L155" t="s">
-        <v>677</v>
+        <v>354</v>
       </c>
       <c r="M155" t="s">
-        <v>678</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -6592,40 +6669,40 @@
         <v>56</v>
       </c>
       <c r="B156" t="s">
+        <v>616</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C156" t="s">
-        <v>635</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="E156" t="s">
-        <v>637</v>
-      </c>
-      <c r="F156" t="s">
-        <v>638</v>
-      </c>
-      <c r="G156" t="s">
-        <v>639</v>
-      </c>
-      <c r="H156" t="s">
-        <v>640</v>
-      </c>
-      <c r="I156" t="s">
-        <v>641</v>
-      </c>
-      <c r="J156" t="s">
-        <v>642</v>
-      </c>
-      <c r="K156" t="s">
-        <v>643</v>
+      <c r="D156" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>630</v>
       </c>
       <c r="L156" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="M156" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -6633,40 +6710,40 @@
         <v>56</v>
       </c>
       <c r="B157" t="s">
-        <v>623</v>
-      </c>
-      <c r="C157" t="s">
-        <v>646</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="E157" t="s">
-        <v>648</v>
-      </c>
-      <c r="F157" t="s">
-        <v>649</v>
-      </c>
-      <c r="G157" t="s">
-        <v>650</v>
-      </c>
-      <c r="H157" t="s">
-        <v>651</v>
-      </c>
-      <c r="I157" t="s">
-        <v>652</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="K157" t="s">
-        <v>654</v>
+        <v>617</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>663</v>
       </c>
       <c r="L157" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="M157" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -6674,40 +6751,40 @@
         <v>56</v>
       </c>
       <c r="B158" t="s">
-        <v>700</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D158" t="s">
-        <v>754</v>
-      </c>
-      <c r="E158" t="s">
-        <v>755</v>
-      </c>
-      <c r="F158" t="s">
-        <v>341</v>
-      </c>
-      <c r="G158" t="s">
-        <v>756</v>
-      </c>
-      <c r="H158" t="s">
-        <v>757</v>
-      </c>
-      <c r="I158" t="s">
-        <v>758</v>
-      </c>
-      <c r="J158" t="s">
-        <v>759</v>
-      </c>
-      <c r="K158" t="s">
-        <v>760</v>
+        <v>618</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="L158" t="s">
-        <v>761</v>
+        <v>685</v>
       </c>
       <c r="M158" t="s">
-        <v>762</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -6715,40 +6792,40 @@
         <v>56</v>
       </c>
       <c r="B159" t="s">
-        <v>701</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D159" t="s">
-        <v>764</v>
-      </c>
-      <c r="E159" t="s">
-        <v>765</v>
-      </c>
-      <c r="F159" t="s">
-        <v>682</v>
-      </c>
-      <c r="G159" t="s">
+        <v>619</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="I159" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H159" t="s">
+      <c r="J159" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="I159" t="s">
-        <v>766</v>
-      </c>
-      <c r="J159" t="s">
+      <c r="K159" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="L159" t="s">
         <v>675</v>
       </c>
-      <c r="K159" t="s">
+      <c r="M159" t="s">
         <v>676</v>
-      </c>
-      <c r="L159" t="s">
-        <v>767</v>
-      </c>
-      <c r="M159" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -6756,40 +6833,40 @@
         <v>56</v>
       </c>
       <c r="B160" t="s">
-        <v>702</v>
-      </c>
-      <c r="C160" t="s">
-        <v>769</v>
-      </c>
-      <c r="D160" t="s">
-        <v>420</v>
-      </c>
-      <c r="E160" t="s">
-        <v>770</v>
-      </c>
-      <c r="F160" t="s">
-        <v>771</v>
-      </c>
-      <c r="G160" t="s">
-        <v>772</v>
-      </c>
-      <c r="H160" t="s">
-        <v>773</v>
-      </c>
-      <c r="I160" t="s">
-        <v>774</v>
-      </c>
-      <c r="J160" t="s">
-        <v>775</v>
-      </c>
-      <c r="K160" t="s">
-        <v>776</v>
+        <v>620</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="L160" t="s">
-        <v>777</v>
+        <v>642</v>
       </c>
       <c r="M160" t="s">
-        <v>778</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -6797,81 +6874,81 @@
         <v>56</v>
       </c>
       <c r="B161" t="s">
-        <v>703</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D161" t="s">
-        <v>780</v>
-      </c>
-      <c r="E161" t="s">
-        <v>781</v>
-      </c>
-      <c r="F161" t="s">
-        <v>782</v>
-      </c>
-      <c r="G161" t="s">
-        <v>783</v>
-      </c>
-      <c r="H161" t="s">
-        <v>784</v>
-      </c>
-      <c r="I161" t="s">
-        <v>785</v>
-      </c>
-      <c r="J161" t="s">
-        <v>786</v>
-      </c>
-      <c r="K161" t="s">
-        <v>787</v>
+        <v>621</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>652</v>
       </c>
       <c r="L161" t="s">
-        <v>788</v>
+        <v>653</v>
       </c>
       <c r="M161" t="s">
-        <v>789</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>56</v>
       </c>
-      <c r="B162" t="s">
-        <v>704</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D162" t="s">
-        <v>791</v>
-      </c>
-      <c r="E162" t="s">
-        <v>792</v>
-      </c>
-      <c r="F162" t="s">
-        <v>793</v>
-      </c>
-      <c r="G162" t="s">
-        <v>794</v>
-      </c>
-      <c r="H162" t="s">
-        <v>795</v>
-      </c>
-      <c r="I162" t="s">
-        <v>796</v>
-      </c>
-      <c r="J162" t="s">
-        <v>797</v>
-      </c>
-      <c r="K162" t="s">
-        <v>798</v>
+      <c r="B162" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>758</v>
       </c>
       <c r="L162" t="s">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="M162" t="s">
-        <v>800</v>
+        <v>760</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -6879,40 +6956,245 @@
         <v>56</v>
       </c>
       <c r="B163" t="s">
-        <v>705</v>
-      </c>
-      <c r="C163" t="s">
+        <v>699</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="L163" t="s">
+        <v>765</v>
+      </c>
+      <c r="M163" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="K164" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="L165" t="s">
+        <v>775</v>
+      </c>
+      <c r="M165" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="F166" t="s">
+        <v>780</v>
+      </c>
+      <c r="G166" t="s">
+        <v>781</v>
+      </c>
+      <c r="H166" t="s">
+        <v>782</v>
+      </c>
+      <c r="I166" t="s">
+        <v>783</v>
+      </c>
+      <c r="J166" t="s">
+        <v>784</v>
+      </c>
+      <c r="K166" t="s">
+        <v>785</v>
+      </c>
+      <c r="L166" t="s">
+        <v>786</v>
+      </c>
+      <c r="M166" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>702</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F167" t="s">
+        <v>791</v>
+      </c>
+      <c r="G167" t="s">
+        <v>792</v>
+      </c>
+      <c r="H167" t="s">
+        <v>793</v>
+      </c>
+      <c r="I167" t="s">
+        <v>794</v>
+      </c>
+      <c r="J167" t="s">
+        <v>795</v>
+      </c>
+      <c r="K167" t="s">
+        <v>796</v>
+      </c>
+      <c r="L167" t="s">
+        <v>797</v>
+      </c>
+      <c r="M167" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" t="s">
+        <v>703</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D168" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E168" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F168" t="s">
         <v>342</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G168" t="s">
         <v>344</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H168" t="s">
         <v>346</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I168" t="s">
         <v>348</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J168" t="s">
         <v>350</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K168" t="s">
         <v>352</v>
       </c>
-      <c r="L163" t="s">
-        <v>767</v>
-      </c>
-      <c r="M163" t="s">
-        <v>768</v>
+      <c r="L168" t="s">
+        <v>765</v>
+      </c>
+      <c r="M168" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>

--- a/genome_annotation_and_characterization/conserved_motifs.xlsx
+++ b/genome_annotation_and_characterization/conserved_motifs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/genome_annotation_and_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB928C9-64A5-0C40-AAF7-A93C5B353545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D2F5C-68D8-D54A-867B-90CDBBEB1B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="-1980" windowWidth="15140" windowHeight="20080" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
+    <workbookView xWindow="29400" yWindow="-1980" windowWidth="14600" windowHeight="19260" xr2:uid="{2350210B-B243-1547-BD80-B8D2E8F7443A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2604,7 +2604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2612,8 +2612,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2930,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31531B08-202E-D840-BAC2-584C47BCD981}">
   <dimension ref="A2:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M165" sqref="M165"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164:C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4205,10 +4203,10 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" t="s">
         <v>708</v>
       </c>
       <c r="D56" t="s">
@@ -4231,10 +4229,10 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>712</v>
       </c>
       <c r="D57" t="s">
@@ -4257,10 +4255,10 @@
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>688</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s">
         <v>550</v>
       </c>
       <c r="D58" t="s">
@@ -5011,7 +5009,7 @@
       <c r="B91" t="s">
         <v>690</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>544</v>
       </c>
       <c r="D91" t="s">
@@ -5037,7 +5035,7 @@
       <c r="B92" t="s">
         <v>691</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>723</v>
       </c>
       <c r="D92" t="s">
@@ -5063,7 +5061,7 @@
       <c r="B93" t="s">
         <v>692</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="6" t="s">
         <v>728</v>
       </c>
       <c r="D93" t="s">
@@ -5089,7 +5087,7 @@
       <c r="B94" t="s">
         <v>693</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>733</v>
       </c>
       <c r="D94" t="s">
@@ -5115,7 +5113,7 @@
       <c r="B95" t="s">
         <v>694</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="6" t="s">
         <v>739</v>
       </c>
       <c r="D95" t="s">
@@ -5141,7 +5139,7 @@
       <c r="B96" t="s">
         <v>695</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="6" t="s">
         <v>745</v>
       </c>
       <c r="D96" t="s">
@@ -5167,7 +5165,7 @@
       <c r="B97" t="s">
         <v>696</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="6" t="s">
         <v>748</v>
       </c>
       <c r="D97" t="s">
@@ -6030,22 +6028,22 @@
       <c r="E140" t="s">
         <v>272</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" t="s">
         <v>273</v>
       </c>
-      <c r="G140" s="6" t="s">
+      <c r="G140" t="s">
         <v>274</v>
       </c>
-      <c r="H140" s="6" t="s">
+      <c r="H140" t="s">
         <v>275</v>
       </c>
-      <c r="I140" s="6" t="s">
+      <c r="I140" t="s">
         <v>276</v>
       </c>
-      <c r="J140" s="6" t="s">
+      <c r="J140" t="s">
         <v>277</v>
       </c>
-      <c r="K140" s="6" t="s">
+      <c r="K140" t="s">
         <v>286</v>
       </c>
       <c r="L140" t="s">
@@ -6071,22 +6069,22 @@
       <c r="E141" t="s">
         <v>279</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" t="s">
         <v>280</v>
       </c>
-      <c r="G141" s="6" t="s">
+      <c r="G141" t="s">
         <v>281</v>
       </c>
-      <c r="H141" s="6" t="s">
+      <c r="H141" t="s">
         <v>282</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="I141" t="s">
         <v>283</v>
       </c>
-      <c r="J141" s="6" t="s">
+      <c r="J141" t="s">
         <v>284</v>
       </c>
-      <c r="K141" s="6" t="s">
+      <c r="K141" t="s">
         <v>285</v>
       </c>
       <c r="L141" t="s">
@@ -6112,22 +6110,22 @@
       <c r="E142" t="s">
         <v>75</v>
       </c>
-      <c r="F142" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K142" s="6" t="s">
+      <c r="F142" t="s">
+        <v>75</v>
+      </c>
+      <c r="G142" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142" t="s">
+        <v>75</v>
+      </c>
+      <c r="J142" t="s">
+        <v>75</v>
+      </c>
+      <c r="K142" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6147,22 +6145,22 @@
       <c r="E143" t="s">
         <v>75</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J143" s="6" t="s">
+      <c r="F143" t="s">
+        <v>75</v>
+      </c>
+      <c r="G143" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143" t="s">
+        <v>75</v>
+      </c>
+      <c r="J143" t="s">
         <v>428</v>
       </c>
-      <c r="K143" s="6" t="s">
+      <c r="K143" t="s">
         <v>429</v>
       </c>
       <c r="L143" t="s">
@@ -6188,22 +6186,22 @@
       <c r="E144" t="s">
         <v>75</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K144" s="6" t="s">
+      <c r="F144" t="s">
+        <v>75</v>
+      </c>
+      <c r="G144" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s">
+        <v>75</v>
+      </c>
+      <c r="I144" t="s">
+        <v>75</v>
+      </c>
+      <c r="J144" t="s">
+        <v>75</v>
+      </c>
+      <c r="K144" t="s">
         <v>75</v>
       </c>
       <c r="L144" t="s">
@@ -6229,22 +6227,22 @@
       <c r="E145" t="s">
         <v>434</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F145" t="s">
         <v>435</v>
       </c>
-      <c r="G145" s="6" t="s">
+      <c r="G145" t="s">
         <v>436</v>
       </c>
-      <c r="H145" s="6" t="s">
+      <c r="H145" t="s">
         <v>437</v>
       </c>
-      <c r="I145" s="6" t="s">
+      <c r="I145" t="s">
         <v>438</v>
       </c>
-      <c r="J145" s="6" t="s">
+      <c r="J145" t="s">
         <v>439</v>
       </c>
-      <c r="K145" s="6" t="s">
+      <c r="K145" t="s">
         <v>440</v>
       </c>
       <c r="L145" t="s">
@@ -6270,22 +6268,22 @@
       <c r="E146" t="s">
         <v>442</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="F146" t="s">
         <v>443</v>
       </c>
-      <c r="G146" s="6" t="s">
+      <c r="G146" t="s">
         <v>444</v>
       </c>
-      <c r="H146" s="6" t="s">
+      <c r="H146" t="s">
         <v>445</v>
       </c>
-      <c r="I146" s="6" t="s">
+      <c r="I146" t="s">
         <v>446</v>
       </c>
-      <c r="J146" s="6" t="s">
+      <c r="J146" t="s">
         <v>447</v>
       </c>
-      <c r="K146" s="6" t="s">
+      <c r="K146" t="s">
         <v>448</v>
       </c>
       <c r="L146" t="s">
@@ -6311,22 +6309,22 @@
       <c r="E147" t="s">
         <v>75</v>
       </c>
-      <c r="F147" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K147" s="6" t="s">
+      <c r="F147" t="s">
+        <v>75</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>75</v>
+      </c>
+      <c r="I147" t="s">
+        <v>75</v>
+      </c>
+      <c r="J147" t="s">
+        <v>75</v>
+      </c>
+      <c r="K147" t="s">
         <v>75</v>
       </c>
       <c r="L147" t="s">
@@ -6352,22 +6350,22 @@
       <c r="E148" t="s">
         <v>75</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K148" s="6" t="s">
+      <c r="F148" t="s">
+        <v>75</v>
+      </c>
+      <c r="G148" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148" t="s">
+        <v>75</v>
+      </c>
+      <c r="J148" t="s">
+        <v>75</v>
+      </c>
+      <c r="K148" t="s">
         <v>75</v>
       </c>
       <c r="L148" t="s">
@@ -6393,22 +6391,22 @@
       <c r="E149" t="s">
         <v>75</v>
       </c>
-      <c r="F149" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K149" s="6" t="s">
+      <c r="F149" t="s">
+        <v>75</v>
+      </c>
+      <c r="G149" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149" t="s">
+        <v>75</v>
+      </c>
+      <c r="J149" t="s">
+        <v>75</v>
+      </c>
+      <c r="K149" t="s">
         <v>75</v>
       </c>
       <c r="L149" t="s">
@@ -6434,22 +6432,22 @@
       <c r="E150" t="s">
         <v>340</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="F150" t="s">
         <v>680</v>
       </c>
-      <c r="G150" s="6" t="s">
+      <c r="G150" t="s">
         <v>819</v>
       </c>
-      <c r="H150" s="6" t="s">
+      <c r="H150" t="s">
         <v>820</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="I150" t="s">
         <v>821</v>
       </c>
-      <c r="J150" s="6" t="s">
+      <c r="J150" t="s">
         <v>822</v>
       </c>
-      <c r="K150" s="6" t="s">
+      <c r="K150" t="s">
         <v>823</v>
       </c>
       <c r="L150" t="s">
@@ -6475,22 +6473,22 @@
       <c r="E151" t="s">
         <v>278</v>
       </c>
-      <c r="F151" s="6" t="s">
+      <c r="F151" t="s">
         <v>289</v>
       </c>
-      <c r="G151" s="6" t="s">
+      <c r="G151" t="s">
         <v>290</v>
       </c>
-      <c r="H151" s="6" t="s">
+      <c r="H151" t="s">
         <v>291</v>
       </c>
-      <c r="I151" s="6" t="s">
+      <c r="I151" t="s">
         <v>292</v>
       </c>
-      <c r="J151" s="6" t="s">
+      <c r="J151" t="s">
         <v>293</v>
       </c>
-      <c r="K151" s="6" t="s">
+      <c r="K151" t="s">
         <v>294</v>
       </c>
       <c r="L151" t="s">
@@ -6507,31 +6505,31 @@
       <c r="B152" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" t="s">
         <v>297</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" t="s">
         <v>298</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E152" t="s">
         <v>299</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F152" t="s">
         <v>300</v>
       </c>
-      <c r="G152" s="6" t="s">
+      <c r="G152" t="s">
         <v>301</v>
       </c>
-      <c r="H152" s="6" t="s">
+      <c r="H152" t="s">
         <v>302</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="I152" t="s">
         <v>303</v>
       </c>
-      <c r="J152" s="6" t="s">
+      <c r="J152" t="s">
         <v>304</v>
       </c>
-      <c r="K152" s="6" t="s">
+      <c r="K152" t="s">
         <v>305</v>
       </c>
       <c r="L152" t="s">
@@ -6548,31 +6546,31 @@
       <c r="B153" t="s">
         <v>54</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" t="s">
         <v>308</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" t="s">
         <v>309</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E153" t="s">
         <v>310</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="F153" t="s">
         <v>311</v>
       </c>
-      <c r="G153" s="6" t="s">
+      <c r="G153" t="s">
         <v>312</v>
       </c>
-      <c r="H153" s="6" t="s">
+      <c r="H153" t="s">
         <v>313</v>
       </c>
-      <c r="I153" s="6" t="s">
+      <c r="I153" t="s">
         <v>314</v>
       </c>
-      <c r="J153" s="6" t="s">
+      <c r="J153" t="s">
         <v>315</v>
       </c>
-      <c r="K153" s="6" t="s">
+      <c r="K153" t="s">
         <v>316</v>
       </c>
       <c r="L153" t="s">
@@ -6589,31 +6587,31 @@
       <c r="B154" t="s">
         <v>323</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" t="s">
         <v>335</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" t="s">
         <v>337</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E154" t="s">
         <v>339</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="F154" t="s">
         <v>341</v>
       </c>
-      <c r="G154" s="6" t="s">
+      <c r="G154" t="s">
         <v>343</v>
       </c>
-      <c r="H154" s="6" t="s">
+      <c r="H154" t="s">
         <v>345</v>
       </c>
-      <c r="I154" s="6" t="s">
+      <c r="I154" t="s">
         <v>347</v>
       </c>
-      <c r="J154" s="6" t="s">
+      <c r="J154" t="s">
         <v>349</v>
       </c>
-      <c r="K154" s="6" t="s">
+      <c r="K154" t="s">
         <v>351</v>
       </c>
       <c r="L154" t="s">
@@ -6630,31 +6628,31 @@
       <c r="B155" t="s">
         <v>324</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" t="s">
         <v>336</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" t="s">
         <v>338</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" t="s">
         <v>340</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F155" t="s">
         <v>342</v>
       </c>
-      <c r="G155" s="6" t="s">
+      <c r="G155" t="s">
         <v>344</v>
       </c>
-      <c r="H155" s="6" t="s">
+      <c r="H155" t="s">
         <v>346</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="I155" t="s">
         <v>348</v>
       </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" t="s">
         <v>350</v>
       </c>
-      <c r="K155" s="6" t="s">
+      <c r="K155" t="s">
         <v>352</v>
       </c>
       <c r="L155" t="s">
@@ -6671,31 +6669,31 @@
       <c r="B156" t="s">
         <v>616</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" t="s">
         <v>622</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" t="s">
         <v>623</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E156" t="s">
         <v>624</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="F156" t="s">
         <v>625</v>
       </c>
-      <c r="G156" s="6" t="s">
+      <c r="G156" t="s">
         <v>626</v>
       </c>
-      <c r="H156" s="6" t="s">
+      <c r="H156" t="s">
         <v>627</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="I156" t="s">
         <v>628</v>
       </c>
-      <c r="J156" s="6" t="s">
+      <c r="J156" t="s">
         <v>629</v>
       </c>
-      <c r="K156" s="6" t="s">
+      <c r="K156" t="s">
         <v>630</v>
       </c>
       <c r="L156" t="s">
@@ -6712,31 +6710,31 @@
       <c r="B157" t="s">
         <v>617</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" t="s">
         <v>655</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" t="s">
         <v>656</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" t="s">
         <v>657</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="F157" t="s">
         <v>658</v>
       </c>
-      <c r="G157" s="6" t="s">
+      <c r="G157" t="s">
         <v>659</v>
       </c>
-      <c r="H157" s="6" t="s">
+      <c r="H157" t="s">
         <v>660</v>
       </c>
-      <c r="I157" s="6" t="s">
+      <c r="I157" t="s">
         <v>661</v>
       </c>
-      <c r="J157" s="6" t="s">
+      <c r="J157" t="s">
         <v>662</v>
       </c>
-      <c r="K157" s="6" t="s">
+      <c r="K157" t="s">
         <v>663</v>
       </c>
       <c r="L157" t="s">
@@ -6753,31 +6751,31 @@
       <c r="B158" t="s">
         <v>618</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" t="s">
         <v>677</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" t="s">
         <v>678</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" t="s">
         <v>679</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="F158" t="s">
         <v>680</v>
       </c>
-      <c r="G158" s="6" t="s">
+      <c r="G158" t="s">
         <v>637</v>
       </c>
-      <c r="H158" s="6" t="s">
+      <c r="H158" t="s">
         <v>681</v>
       </c>
-      <c r="I158" s="6" t="s">
+      <c r="I158" t="s">
         <v>682</v>
       </c>
-      <c r="J158" s="6" t="s">
+      <c r="J158" t="s">
         <v>683</v>
       </c>
-      <c r="K158" s="6" t="s">
+      <c r="K158" t="s">
         <v>684</v>
       </c>
       <c r="L158" t="s">
@@ -6794,31 +6792,31 @@
       <c r="B159" t="s">
         <v>619</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" t="s">
         <v>666</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" t="s">
         <v>667</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" t="s">
         <v>668</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="F159" t="s">
         <v>669</v>
       </c>
-      <c r="G159" s="6" t="s">
+      <c r="G159" t="s">
         <v>670</v>
       </c>
-      <c r="H159" s="6" t="s">
+      <c r="H159" t="s">
         <v>671</v>
       </c>
-      <c r="I159" s="6" t="s">
+      <c r="I159" t="s">
         <v>672</v>
       </c>
-      <c r="J159" s="6" t="s">
+      <c r="J159" t="s">
         <v>673</v>
       </c>
-      <c r="K159" s="6" t="s">
+      <c r="K159" t="s">
         <v>674</v>
       </c>
       <c r="L159" t="s">
@@ -6835,31 +6833,31 @@
       <c r="B160" t="s">
         <v>620</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" t="s">
         <v>633</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" t="s">
         <v>634</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" t="s">
         <v>635</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F160" t="s">
         <v>636</v>
       </c>
-      <c r="G160" s="6" t="s">
+      <c r="G160" t="s">
         <v>637</v>
       </c>
-      <c r="H160" s="6" t="s">
+      <c r="H160" t="s">
         <v>638</v>
       </c>
-      <c r="I160" s="6" t="s">
+      <c r="I160" t="s">
         <v>639</v>
       </c>
-      <c r="J160" s="6" t="s">
+      <c r="J160" t="s">
         <v>640</v>
       </c>
-      <c r="K160" s="6" t="s">
+      <c r="K160" t="s">
         <v>641</v>
       </c>
       <c r="L160" t="s">
@@ -6876,31 +6874,31 @@
       <c r="B161" t="s">
         <v>621</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" t="s">
         <v>644</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" t="s">
         <v>645</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" t="s">
         <v>646</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" t="s">
         <v>647</v>
       </c>
-      <c r="G161" s="6" t="s">
+      <c r="G161" t="s">
         <v>648</v>
       </c>
-      <c r="H161" s="6" t="s">
+      <c r="H161" t="s">
         <v>649</v>
       </c>
-      <c r="I161" s="6" t="s">
+      <c r="I161" t="s">
         <v>650</v>
       </c>
-      <c r="J161" s="6" t="s">
+      <c r="J161" t="s">
         <v>651</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K161" t="s">
         <v>652</v>
       </c>
       <c r="L161" t="s">
@@ -6917,31 +6915,31 @@
       <c r="B162" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" t="s">
         <v>751</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" t="s">
         <v>752</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" t="s">
         <v>753</v>
       </c>
-      <c r="F162" s="6" t="s">
+      <c r="F162" t="s">
         <v>341</v>
       </c>
-      <c r="G162" s="6" t="s">
+      <c r="G162" t="s">
         <v>754</v>
       </c>
-      <c r="H162" s="6" t="s">
+      <c r="H162" t="s">
         <v>755</v>
       </c>
-      <c r="I162" s="6" t="s">
+      <c r="I162" t="s">
         <v>756</v>
       </c>
-      <c r="J162" s="6" t="s">
+      <c r="J162" t="s">
         <v>757</v>
       </c>
-      <c r="K162" s="6" t="s">
+      <c r="K162" t="s">
         <v>758</v>
       </c>
       <c r="L162" t="s">
@@ -6958,31 +6956,31 @@
       <c r="B163" t="s">
         <v>699</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" t="s">
         <v>761</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" t="s">
         <v>762</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E163" t="s">
         <v>763</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F163" t="s">
         <v>680</v>
       </c>
-      <c r="G163" s="6" t="s">
+      <c r="G163" t="s">
         <v>670</v>
       </c>
-      <c r="H163" s="6" t="s">
+      <c r="H163" t="s">
         <v>671</v>
       </c>
-      <c r="I163" s="6" t="s">
+      <c r="I163" t="s">
         <v>764</v>
       </c>
-      <c r="J163" s="6" t="s">
+      <c r="J163" t="s">
         <v>673</v>
       </c>
-      <c r="K163" s="6" t="s">
+      <c r="K163" t="s">
         <v>674</v>
       </c>
       <c r="L163" t="s">
@@ -6999,37 +6997,37 @@
       <c r="B164" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" t="s">
         <v>825</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" t="s">
         <v>826</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E164" t="s">
         <v>340</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F164" t="s">
         <v>827</v>
       </c>
-      <c r="G164" s="6" t="s">
+      <c r="G164" t="s">
         <v>828</v>
       </c>
-      <c r="H164" s="6" t="s">
+      <c r="H164" t="s">
         <v>829</v>
       </c>
-      <c r="I164" s="6" t="s">
+      <c r="I164" t="s">
         <v>830</v>
       </c>
-      <c r="J164" s="6" t="s">
+      <c r="J164" t="s">
         <v>683</v>
       </c>
-      <c r="K164" s="6" t="s">
+      <c r="K164" t="s">
         <v>684</v>
       </c>
-      <c r="L164" s="6" t="s">
+      <c r="L164" t="s">
         <v>775</v>
       </c>
-      <c r="M164" s="6" t="s">
+      <c r="M164" t="s">
         <v>776</v>
       </c>
     </row>
@@ -7040,31 +7038,31 @@
       <c r="B165" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" t="s">
         <v>767</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" t="s">
         <v>418</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E165" t="s">
         <v>768</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="F165" t="s">
         <v>769</v>
       </c>
-      <c r="G165" s="6" t="s">
+      <c r="G165" t="s">
         <v>770</v>
       </c>
-      <c r="H165" s="6" t="s">
+      <c r="H165" t="s">
         <v>771</v>
       </c>
-      <c r="I165" s="6" t="s">
+      <c r="I165" t="s">
         <v>772</v>
       </c>
-      <c r="J165" s="6" t="s">
+      <c r="J165" t="s">
         <v>773</v>
       </c>
-      <c r="K165" s="6" t="s">
+      <c r="K165" t="s">
         <v>774</v>
       </c>
       <c r="L165" t="s">
@@ -7081,13 +7079,13 @@
       <c r="B166" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" t="s">
         <v>777</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" t="s">
         <v>778</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" t="s">
         <v>779</v>
       </c>
       <c r="F166" t="s">
@@ -7122,13 +7120,13 @@
       <c r="B167" t="s">
         <v>702</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" t="s">
         <v>788</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" t="s">
         <v>789</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E167" t="s">
         <v>790</v>
       </c>
       <c r="F167" t="s">
@@ -7163,13 +7161,13 @@
       <c r="B168" t="s">
         <v>703</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" t="s">
         <v>336</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" t="s">
         <v>338</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" t="s">
         <v>340</v>
       </c>
       <c r="F168" t="s">
